--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="17070"/>
+    <workbookView windowWidth="28800" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+  <si>
+    <t>同义词</t>
+  </si>
+  <si>
+    <t>造句</t>
+  </si>
   <si>
     <t>Unit 1</t>
   </si>
@@ -22,75 +28,168 @@
     <t>elaborate</t>
   </si>
   <si>
+    <t>complecated</t>
+  </si>
+  <si>
+    <t>An elaborate research project</t>
+  </si>
+  <si>
     <t>elegant</t>
   </si>
   <si>
+    <t>graceful</t>
+  </si>
+  <si>
+    <t>An elegantly simple idea</t>
+  </si>
+  <si>
     <t>abolish</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>The end of law is not abolish or restrain, but to preserve and enlarge freedom.</t>
+  </si>
+  <si>
     <t>bare</t>
   </si>
   <si>
+    <t>bare machine</t>
+  </si>
+  <si>
+    <t>裸机</t>
+  </si>
+  <si>
     <t>bargain</t>
   </si>
   <si>
+    <t>bargain goods</t>
+  </si>
+  <si>
+    <t>廉价品</t>
+  </si>
+  <si>
     <t>cater</t>
   </si>
   <si>
+    <t>ingratiate</t>
+  </si>
+  <si>
+    <t>exercise classes cater to all levels of fitness</t>
+  </si>
+  <si>
     <t>deem</t>
   </si>
   <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>French and Genman were deemed essntial.</t>
+  </si>
+  <si>
     <t>deduce</t>
   </si>
   <si>
+    <t>infer</t>
+  </si>
+  <si>
+    <t>Alison cleverly deduced that I was the author of the letter.</t>
+  </si>
+  <si>
     <t>deduct</t>
   </si>
   <si>
+    <t>The company deducted this payment form his compensation.</t>
+  </si>
+  <si>
     <t>Unit 2</t>
   </si>
   <si>
     <t>radiant</t>
   </si>
   <si>
+    <t>On her wedding day the bride looked truly radiant.</t>
+  </si>
+  <si>
     <t>identification</t>
   </si>
   <si>
+    <t>Early identification of a disease can prevent death and illness.</t>
+  </si>
+  <si>
     <t>judical</t>
   </si>
   <si>
+    <t>judical credit  ,  judical action(诉讼)</t>
+  </si>
+  <si>
     <t>lag</t>
   </si>
   <si>
+    <t>The restructing of the pattern of consumption also lagged behind.</t>
+  </si>
+  <si>
     <t>lateral</t>
   </si>
   <si>
+    <t>The section on lateral thinking is both fun and frustrating.</t>
+  </si>
+  <si>
     <t>magnify</t>
   </si>
   <si>
+    <t>This version of the Digges telescope magnifies images 11 times.</t>
+  </si>
+  <si>
     <t>therapy</t>
   </si>
   <si>
+    <t>Children may nees therapy to help them deal with grief and death.</t>
+  </si>
+  <si>
     <t>obligation</t>
   </si>
   <si>
+    <t>When teacher assign homework, students usually feel an obligation to do it.</t>
+  </si>
+  <si>
     <t>obscure</t>
   </si>
   <si>
+    <t>The contracts are written in obscure language.</t>
+  </si>
+  <si>
     <t>obsession</t>
   </si>
   <si>
+    <t>She would try to forget her obsession with Christopher.</t>
+  </si>
+  <si>
     <t>obsolete</t>
   </si>
   <si>
+    <t>So much equipment becoms obsolete almost as soon as it's made.</t>
+  </si>
+  <si>
     <t>pace</t>
   </si>
   <si>
+    <t>They could not stand the pace or the workload.</t>
+  </si>
+  <si>
     <t>savage</t>
   </si>
   <si>
+    <t>This was a savage attack on a defenceless young girl.</t>
+  </si>
+  <si>
     <t>scenery</t>
   </si>
   <si>
+    <t>A change of scenery might do you good.</t>
+  </si>
+  <si>
     <t>Unit 3</t>
   </si>
   <si>
@@ -263,6 +362,423 @@
   </si>
   <si>
     <t>Unit 7</t>
+  </si>
+  <si>
+    <t>patant</t>
+  </si>
+  <si>
+    <t>peculiar</t>
+  </si>
+  <si>
+    <t>perceive</t>
+  </si>
+  <si>
+    <t>rally</t>
+  </si>
+  <si>
+    <t>masterpiece</t>
+  </si>
+  <si>
+    <t>mate</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>meantime</t>
+  </si>
+  <si>
+    <t>measure</t>
+  </si>
+  <si>
+    <t>opinion</t>
+  </si>
+  <si>
+    <t>opponent</t>
+  </si>
+  <si>
+    <t>oppose</t>
+  </si>
+  <si>
+    <t>oppress</t>
+  </si>
+  <si>
+    <t>scorn</t>
+  </si>
+  <si>
+    <t>seemingly</t>
+  </si>
+  <si>
+    <t>thrift</t>
+  </si>
+  <si>
+    <t>thrill</t>
+  </si>
+  <si>
+    <t>thrive</t>
+  </si>
+  <si>
+    <t>throughout</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>urge</t>
+  </si>
+  <si>
+    <t>urgent</t>
+  </si>
+  <si>
+    <t>utter</t>
+  </si>
+  <si>
+    <t>worship</t>
+  </si>
+  <si>
+    <t>worthwhile</t>
+  </si>
+  <si>
+    <t>Unit 8</t>
+  </si>
+  <si>
+    <t>periodical</t>
+  </si>
+  <si>
+    <t>perish</t>
+  </si>
+  <si>
+    <t>perpetual</t>
+  </si>
+  <si>
+    <t>perplex</t>
+  </si>
+  <si>
+    <t>pessimistic</t>
+  </si>
+  <si>
+    <t>optimistic</t>
+  </si>
+  <si>
+    <t>optimum</t>
+  </si>
+  <si>
+    <t>organ</t>
+  </si>
+  <si>
+    <t>organic</t>
+  </si>
+  <si>
+    <t>organism</t>
+  </si>
+  <si>
+    <t>enhance</t>
+  </si>
+  <si>
+    <t>enlighten</t>
+  </si>
+  <si>
+    <t>rake</t>
+  </si>
+  <si>
+    <t>sensation</t>
+  </si>
+  <si>
+    <t>sensible</t>
+  </si>
+  <si>
+    <t>sensitive</t>
+  </si>
+  <si>
+    <t>toast</t>
+  </si>
+  <si>
+    <t>cherish</t>
+  </si>
+  <si>
+    <t>boast</t>
+  </si>
+  <si>
+    <t>verdict</t>
+  </si>
+  <si>
+    <t>verse</t>
+  </si>
+  <si>
+    <t>vessel</t>
+  </si>
+  <si>
+    <t>Unit 9</t>
+  </si>
+  <si>
+    <t>acclaim</t>
+  </si>
+  <si>
+    <t>accommodate</t>
+  </si>
+  <si>
+    <t>bid</t>
+  </si>
+  <si>
+    <t>charm</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>democracy</t>
+  </si>
+  <si>
+    <t>demonstrate</t>
+  </si>
+  <si>
+    <t>denote</t>
+  </si>
+  <si>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>depress</t>
+  </si>
+  <si>
+    <t>eminent</t>
+  </si>
+  <si>
+    <t>fertile</t>
+  </si>
+  <si>
+    <t>govern</t>
+  </si>
+  <si>
+    <t>governor</t>
+  </si>
+  <si>
+    <t>gradual</t>
+  </si>
+  <si>
+    <t>grant</t>
+  </si>
+  <si>
+    <t>hesitate</t>
+  </si>
+  <si>
+    <t>highland</t>
+  </si>
+  <si>
+    <t>immense</t>
+  </si>
+  <si>
+    <t>immerse</t>
+  </si>
+  <si>
+    <t>immune</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>Unit 10</t>
+  </si>
+  <si>
+    <t>deprive</t>
+  </si>
+  <si>
+    <t>designate</t>
+  </si>
+  <si>
+    <t>desirable</t>
+  </si>
+  <si>
+    <t>desire</t>
+  </si>
+  <si>
+    <t>flaw</t>
+  </si>
+  <si>
+    <t>fling</t>
+  </si>
+  <si>
+    <t>flourish</t>
+  </si>
+  <si>
+    <t>hinder</t>
+  </si>
+  <si>
+    <t>hitherto</t>
+  </si>
+  <si>
+    <t>impair</t>
+  </si>
+  <si>
+    <t>impart</t>
+  </si>
+  <si>
+    <t>implication</t>
+  </si>
+  <si>
+    <t>imply</t>
+  </si>
+  <si>
+    <t>impose</t>
+  </si>
+  <si>
+    <t>impulse</t>
+  </si>
+  <si>
+    <t>petition</t>
+  </si>
+  <si>
+    <t>phrase</t>
+  </si>
+  <si>
+    <t>pierce</t>
+  </si>
+  <si>
+    <t>servant</t>
+  </si>
+  <si>
+    <t>setback</t>
+  </si>
+  <si>
+    <t>settle</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>shelter</t>
+  </si>
+  <si>
+    <t>sophisticated</t>
+  </si>
+  <si>
+    <t>sovereign</t>
+  </si>
+  <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>toll</t>
+  </si>
+  <si>
+    <t>Unit 11</t>
+  </si>
+  <si>
+    <t>choke</t>
+  </si>
+  <si>
+    <t>chop</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>bore</t>
+  </si>
+  <si>
+    <t>bother</t>
+  </si>
+  <si>
+    <t>acute</t>
+  </si>
+  <si>
+    <t>despise</t>
+  </si>
+  <si>
+    <t>despite</t>
+  </si>
+  <si>
+    <t>engage</t>
+  </si>
+  <si>
+    <t>folk</t>
+  </si>
+  <si>
+    <t>forge</t>
+  </si>
+  <si>
+    <t>grim</t>
+  </si>
+  <si>
+    <t>grasp</t>
+  </si>
+  <si>
+    <t>grip</t>
+  </si>
+  <si>
+    <t>gross</t>
+  </si>
+  <si>
+    <t>incorporate</t>
+  </si>
+  <si>
+    <t>incur</t>
+  </si>
+  <si>
+    <t>literally</t>
+  </si>
+  <si>
+    <t>mention</t>
+  </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>signify</t>
+  </si>
+  <si>
+    <t>slack</t>
+  </si>
+  <si>
+    <t>Unit 12</t>
+  </si>
+  <si>
+    <t>admire</t>
+  </si>
+  <si>
+    <t>admit</t>
+  </si>
+  <si>
+    <t>brace</t>
+  </si>
+  <si>
+    <t>toss</t>
+  </si>
+  <si>
+    <t>vicious</t>
+  </si>
+  <si>
+    <t>cling</t>
+  </si>
+  <si>
+    <t>closet</t>
+  </si>
+  <si>
+    <t>personnel</t>
+  </si>
+  <si>
+    <t>former</t>
+  </si>
+  <si>
+    <t>formidable</t>
+  </si>
+  <si>
+    <t>formulate</t>
+  </si>
+  <si>
+    <t>fortunate</t>
+  </si>
+  <si>
+    <t>fortune</t>
+  </si>
+  <si>
+    <t>recruit</t>
+  </si>
+  <si>
+    <t>soak</t>
+  </si>
+  <si>
+    <t>detain</t>
   </si>
 </sst>
 </file>
@@ -270,12 +786,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -291,6 +807,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF434343"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -299,7 +828,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,13 +843,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -328,39 +856,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,14 +869,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,10 +896,33 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -421,8 +934,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,7 +966,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,13 +1032,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,157 +1146,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,6 +1170,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -662,41 +1199,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,6 +1215,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,11 +1243,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,10 +1265,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,10 +1277,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,129 +1289,141 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1211,418 +1745,1299 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B84"/>
+  <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="20.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="20.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="22.4666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="121.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="1" spans="4:6">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
+        <v>36</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
+        <v>38</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
+        <v>42</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
+        <v>44</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
+        <v>46</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
+        <v>48</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
+        <v>50</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
+        <v>52</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
+        <v>54</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>56</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="1" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="1" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="1" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="1" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="1" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="1" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="1" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="1" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="1" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="1" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="1" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="1" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="1" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="1" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="1" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="1" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="1" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="1" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="1" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>82</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="5"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="4"/>
+      <c r="B85" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" s="5"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="4"/>
+      <c r="B86" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" s="5"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="4"/>
+      <c r="B87" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C87" s="5"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="4"/>
+      <c r="B88" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" s="5"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="4"/>
+      <c r="B89" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="5"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="4"/>
+      <c r="B90" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" s="5"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="4"/>
+      <c r="B91" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" s="5"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="4"/>
+      <c r="B92" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C92" s="5"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="4"/>
+      <c r="B93" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" s="5"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="4"/>
+      <c r="B94" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C94" s="5"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="4"/>
+      <c r="B95" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C95" s="5"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="4"/>
+      <c r="B96" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C96" s="5"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="4"/>
+      <c r="B97" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C97" s="5"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="4"/>
+      <c r="B98" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" s="5"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="4"/>
+      <c r="B99" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" s="5"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="4"/>
+      <c r="B100" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C100" s="5"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="4"/>
+      <c r="B101" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C101" s="5"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="4"/>
+      <c r="B102" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C102" s="5"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="4"/>
+      <c r="B103" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C103" s="5"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="4"/>
+      <c r="B104" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104" s="5"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="4"/>
+      <c r="B105" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C105" s="5"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="4"/>
+      <c r="B106" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106" s="5"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="4"/>
+      <c r="B107" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C107" s="5"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="4"/>
+      <c r="B108" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" s="5"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C110" s="5"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="4"/>
+      <c r="B111" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C111" s="5"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="4"/>
+      <c r="B112" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C112" s="5"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="4"/>
+      <c r="B113" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C113" s="5"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="4"/>
+      <c r="B114" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C114" s="5"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="4"/>
+      <c r="B115" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C115" s="5"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="4"/>
+      <c r="B116" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C116" s="5"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="4"/>
+      <c r="B117" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C117" s="5"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="4"/>
+      <c r="B118" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C118" s="5"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="4"/>
+      <c r="B119" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C119" s="5"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="4"/>
+      <c r="B120" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C120" s="5"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="4"/>
+      <c r="B121" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C121" s="5"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="4"/>
+      <c r="B122" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C122" s="5"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="4"/>
+      <c r="B123" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C123" s="5"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="4"/>
+      <c r="B124" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C124" s="5"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="4"/>
+      <c r="B125" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="5"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="4"/>
+      <c r="B126" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C126" s="5"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="4"/>
+      <c r="B127" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C127" s="5"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="4"/>
+      <c r="B128" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C128" s="5"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="4"/>
+      <c r="B129" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C129" s="5"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="4"/>
+      <c r="B130" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C130" s="5"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="4"/>
+      <c r="B131" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C131" s="5"/>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>164</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>187</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>215</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>238</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11310"/>
+    <workbookView windowWidth="21000" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
   <si>
     <t>同义词</t>
   </si>
@@ -58,25 +58,19 @@
     <t>bare machine</t>
   </si>
   <si>
-    <t>裸机</t>
-  </si>
-  <si>
     <t>bargain</t>
   </si>
   <si>
     <t>bargain goods</t>
   </si>
   <si>
-    <t>廉价品</t>
-  </si>
-  <si>
     <t>cater</t>
   </si>
   <si>
     <t>ingratiate</t>
   </si>
   <si>
-    <t>exercise classes cater to all levels of fitness</t>
+    <t>Exercise classes cater to all levels of fitness</t>
   </si>
   <si>
     <t>deem</t>
@@ -100,7 +94,7 @@
     <t>deduct</t>
   </si>
   <si>
-    <t>The company deducted this payment form his compensation.</t>
+    <t>The company deducted this payment from his compensation.</t>
   </si>
   <si>
     <t>Unit 2</t>
@@ -139,13 +133,13 @@
     <t>magnify</t>
   </si>
   <si>
-    <t>This version of the Digges telescope magnifies images 11 times.</t>
+    <t>This version of the Digges telescope magnifies images 9 times.</t>
   </si>
   <si>
     <t>therapy</t>
   </si>
   <si>
-    <t>Children may nees therapy to help them deal with grief and death.</t>
+    <t>Children may need therapy to help them deal with grief and death.</t>
   </si>
   <si>
     <t>obligation</t>
@@ -169,7 +163,7 @@
     <t>obsolete</t>
   </si>
   <si>
-    <t>So much equipment becoms obsolete almost as soon as it's made.</t>
+    <t>So much equipment becomes obsolete almost as soon as it's made.</t>
   </si>
   <si>
     <t>pace</t>
@@ -196,169 +190,328 @@
     <t>tow</t>
   </si>
   <si>
+    <t>They threatened to tow away my car.</t>
+  </si>
+  <si>
     <t>tempt</t>
   </si>
   <si>
+    <t>Nothing could tempt her to evil.</t>
+  </si>
+  <si>
     <t>tentative</t>
   </si>
   <si>
+    <t>My first attempts at complaining were kind of tentative.</t>
+  </si>
+  <si>
     <t>testify</t>
   </si>
   <si>
+    <t>His friends will testify for him.</t>
+  </si>
+  <si>
     <t>underestimate</t>
   </si>
   <si>
+    <t>I think a lot of people still underestimate him.</t>
+  </si>
+  <si>
     <t>undergo</t>
   </si>
   <si>
+    <t>New recruits have been undergoing training in recent weeks.</t>
+  </si>
+  <si>
     <t>unify</t>
   </si>
   <si>
+    <t>He pledged to unify the city's political factions.</t>
+  </si>
+  <si>
     <t>vague</t>
   </si>
   <si>
+    <t>A lot of the talk was apparently vague and general.</t>
+  </si>
+  <si>
     <t>vain</t>
   </si>
   <si>
+    <t>My efforts were not in vain.</t>
+  </si>
+  <si>
     <t>vanish</t>
   </si>
   <si>
+    <t>He just vanished and was never seen again.</t>
+  </si>
+  <si>
     <t>weary</t>
   </si>
   <si>
+    <t>Rachel looked pale and weary.</t>
+  </si>
+  <si>
     <t>weigh</t>
   </si>
   <si>
+    <t>She weighed her options.</t>
+  </si>
+  <si>
     <t>weird</t>
   </si>
   <si>
+    <t>That first day was weird.</t>
+  </si>
+  <si>
     <t>weld</t>
   </si>
   <si>
+    <t>It's possible to weld stainless steel to ordinary steel.</t>
+  </si>
+  <si>
     <t>whirl</t>
   </si>
   <si>
+    <t>Not receiving an answer, she whirled around.</t>
+  </si>
+  <si>
     <t>whisper</t>
   </si>
   <si>
+    <t>Keep your voice down I whispered.</t>
+  </si>
+  <si>
     <t>Unit 4</t>
   </si>
   <si>
     <t>dazzle</t>
   </si>
   <si>
+    <t>The sun, glinting from the pool, dazzled me.</t>
+  </si>
+  <si>
     <t>debate</t>
   </si>
   <si>
+    <t>There has been a lot of debate among scholars about this.</t>
+  </si>
+  <si>
     <t>effort</t>
   </si>
   <si>
+    <t>Finding a cure requires considerable time and effort.</t>
+  </si>
+  <si>
     <t>habitat</t>
   </si>
   <si>
+    <t>We destroyed that habitat of bees for our needs.</t>
+  </si>
+  <si>
     <t>hamper</t>
   </si>
   <si>
+    <t>A picnic hamper.</t>
+  </si>
+  <si>
     <t>Unit 5</t>
   </si>
   <si>
     <t>harsh</t>
   </si>
   <si>
+    <t>He said many harsh and unkind things about his opponents.</t>
+  </si>
+  <si>
     <t>genre</t>
   </si>
   <si>
+    <t>game genre</t>
+  </si>
+  <si>
     <t>gigantic</t>
   </si>
   <si>
+    <t>It glitterd in the gigantic sky.</t>
+  </si>
+  <si>
     <t>imitate</t>
   </si>
   <si>
+    <t>People imitate diamonds with crystal.</t>
+  </si>
+  <si>
     <t>imitation</t>
   </si>
   <si>
+    <t>The use of language begins with imitation.</t>
+  </si>
+  <si>
     <t>legislation</t>
   </si>
   <si>
+    <t>A letter calling for legislation to protect women's rights.</t>
+  </si>
+  <si>
     <t>lever</t>
   </si>
   <si>
+    <t>Neighbours eventually levered open the door with a crowbar.</t>
+  </si>
+  <si>
     <t>levy</t>
   </si>
   <si>
+    <t>An annual levy on all drivers.</t>
+  </si>
+  <si>
     <t>manifest</t>
   </si>
   <si>
+    <t>The same alarm is manifest everywhere.</t>
+  </si>
+  <si>
     <t>massacre</t>
   </si>
   <si>
+    <t>300 civilians are believed to have been massacred by the rebels.</t>
+  </si>
+  <si>
     <t>offend</t>
   </si>
   <si>
+    <t>He apologizes for his comments and says he had no intention of offending the community.</t>
+  </si>
+  <si>
     <t>offset</t>
   </si>
   <si>
+    <t>The increase in pay costs was more than offset by higher productivity.</t>
+  </si>
+  <si>
     <t>offspring</t>
   </si>
   <si>
+    <t>Jack is her only offspring.</t>
+  </si>
+  <si>
     <t>paragraph</t>
   </si>
   <si>
+    <t>The length of a paragraph depends on the information it conveys.</t>
+  </si>
+  <si>
     <t>paralyze</t>
   </si>
   <si>
+    <t>All the opinions and analysis will paralyze anyone who is not up to the task.</t>
+  </si>
+  <si>
     <t>passive</t>
   </si>
   <si>
+    <t>His passive attitude made things easier for me.</t>
+  </si>
+  <si>
     <t>Unit 6</t>
   </si>
   <si>
     <t>embed</t>
   </si>
   <si>
+    <t>I think that hatred of the other is deeply embedded in our society.</t>
+  </si>
+  <si>
     <t>embroy</t>
   </si>
   <si>
+    <t>There are 24,000 frozen embryos in clinics across the country.</t>
+  </si>
+  <si>
     <t>thorough</t>
   </si>
   <si>
+    <t>We are making a thorough investigation.</t>
+  </si>
+  <si>
     <t>threat</t>
   </si>
   <si>
+    <t>His position as leader is under threat.</t>
+  </si>
+  <si>
     <t>uphold</t>
   </si>
   <si>
+    <t>Our policy has been to uphold the law.</t>
+  </si>
+  <si>
     <t>ventilate</t>
   </si>
   <si>
+    <t>Ventilate the room properly when stripping paint.</t>
+  </si>
+  <si>
     <t>witness</t>
   </si>
   <si>
+    <t>Anyone who witnessed the attack should call the police.</t>
+  </si>
+  <si>
     <t>inaugurate</t>
   </si>
   <si>
+    <t>The new president will be inaugurated on January 20th.</t>
+  </si>
+  <si>
     <t>incentive</t>
   </si>
   <si>
+    <t>There is little or no incentive to adopt such measure.</t>
+  </si>
+  <si>
     <t>incline</t>
   </si>
   <si>
+    <t>Jack inclined his head very slightly.</t>
+  </si>
+  <si>
     <t>defend</t>
   </si>
   <si>
+    <t>He has hired a lawyer to defend him against the allegation.</t>
+  </si>
+  <si>
     <t>defendant</t>
   </si>
   <si>
+    <t>Evidence weighted against the defendant.</t>
+  </si>
+  <si>
     <t>defy</t>
   </si>
   <si>
+    <t>This was my first time that I dared to defy my mother.</t>
+  </si>
+  <si>
     <t>deliberate</t>
   </si>
   <si>
+    <t>The Japanese have acted calmly and deliberately.</t>
+  </si>
+  <si>
     <t>fierce</t>
   </si>
   <si>
+    <t>He has always been ambitious and fiercely competitive.</t>
+  </si>
+  <si>
     <t>firm</t>
+  </si>
+  <si>
+    <t>The firm's employees were expecting large bonuses.</t>
   </si>
   <si>
     <t>Unit 7</t>
@@ -786,9 +939,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -814,13 +967,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -828,29 +974,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,7 +1005,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,6 +1029,43 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,29 +1096,21 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -966,13 +1119,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,61 +1137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,13 +1155,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,73 +1305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,24 +1321,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1208,13 +1363,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1244,16 +1403,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1265,145 +1424,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1414,10 +1573,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1747,16 +1906,16 @@
   <sheetPr/>
   <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="20.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="22.4666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="121.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.25" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="121.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1781,7 +1940,7 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
@@ -1805,1239 +1964,1392 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1" t="s">
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="2:6">
+      <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="2:6">
+      <c r="B21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="F27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="2:6">
+      <c r="B29" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="2:2">
+      <c r="F29" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
+        <v>63</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
+        <v>65</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
+        <v>67</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
+        <v>69</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
+        <v>71</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
+        <v>73</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
+        <v>75</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
       <c r="B37" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
+        <v>77</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
       <c r="B38" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
+        <v>79</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
+        <v>81</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
+        <v>83</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
       <c r="B41" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
+        <v>85</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
       <c r="B42" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>87</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
+        <v>90</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
       <c r="B45" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
+        <v>92</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
       <c r="B46" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
+        <v>94</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
       <c r="B47" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
+        <v>96</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
       <c r="B48" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>98</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
+        <v>101</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
       <c r="B51" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
+        <v>103</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
       <c r="B52" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
+        <v>105</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
       <c r="B53" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
+        <v>107</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
       <c r="B54" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
+        <v>109</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
       <c r="B55" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
+        <v>111</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
       <c r="B56" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
+        <v>113</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
       <c r="B57" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
+        <v>115</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
       <c r="B58" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
+        <v>117</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
       <c r="B59" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
+        <v>119</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
       <c r="B60" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
+        <v>121</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
       <c r="B61" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
+        <v>123</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
       <c r="B62" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
+        <v>125</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
       <c r="B63" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
+        <v>127</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
       <c r="B64" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
+        <v>129</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
       <c r="B65" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>131</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
+        <v>134</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
       <c r="B68" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
+        <v>136</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
       <c r="B69" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
+        <v>138</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
       <c r="B70" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
+        <v>140</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
       <c r="B71" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
+        <v>142</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
       <c r="B72" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
+        <v>144</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
       <c r="B73" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
+        <v>146</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
       <c r="B74" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
+        <v>148</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
       <c r="B75" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
+        <v>150</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
       <c r="B76" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
+        <v>152</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
       <c r="B77" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
+        <v>154</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
       <c r="B78" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
+        <v>156</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
       <c r="B79" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
+        <v>158</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
       <c r="B80" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
+        <v>160</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
       <c r="B81" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
+        <v>162</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
       <c r="B82" s="1" t="s">
-        <v>114</v>
+        <v>164</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="4" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="C84" s="5"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="4"/>
       <c r="B85" s="5" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="C85" s="5"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="4"/>
       <c r="B86" s="5" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="C86" s="5"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="4"/>
       <c r="B87" s="5" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="C87" s="5"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="4"/>
       <c r="B88" s="5" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="C88" s="5"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="4"/>
       <c r="B89" s="5" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="C89" s="5"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="4"/>
       <c r="B90" s="5" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C90" s="5"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="4"/>
       <c r="B91" s="5" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="C91" s="5"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="4"/>
       <c r="B92" s="5" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="C92" s="5"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="4"/>
       <c r="B93" s="5" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="C93" s="5"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="4"/>
       <c r="B94" s="5" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="C94" s="5"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="4"/>
       <c r="B95" s="5" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="C95" s="5"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="4"/>
       <c r="B96" s="5" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="C96" s="5"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="4"/>
       <c r="B97" s="5" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="C97" s="5"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="4"/>
       <c r="B98" s="5" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="C98" s="5"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="4"/>
       <c r="B99" s="5" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="C99" s="5"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="4"/>
       <c r="B100" s="5" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="C100" s="5"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="4"/>
       <c r="B101" s="5" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="C101" s="5"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="4"/>
       <c r="B102" s="5" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="C102" s="5"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="4"/>
       <c r="B103" s="5" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="C103" s="5"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="4"/>
       <c r="B104" s="5" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="C104" s="5"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="4"/>
       <c r="B105" s="5" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="C105" s="5"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="4"/>
       <c r="B106" s="5" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="C106" s="5"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="4"/>
       <c r="B107" s="5" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="C107" s="5"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="4"/>
       <c r="B108" s="5" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="C108" s="5"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="4" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="C110" s="5"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="4"/>
       <c r="B111" s="5" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="C111" s="5"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="4"/>
       <c r="B112" s="5" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="C112" s="5"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="4"/>
       <c r="B113" s="5" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="C113" s="5"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="4"/>
       <c r="B114" s="5" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="C114" s="5"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="4"/>
       <c r="B115" s="5" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="C115" s="5"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="4"/>
       <c r="B116" s="5" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="C116" s="5"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="4"/>
       <c r="B117" s="5" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="C117" s="5"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="4"/>
       <c r="B118" s="5" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="C118" s="5"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="4"/>
       <c r="B119" s="5" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="C119" s="5"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="4"/>
       <c r="B120" s="5" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="C120" s="5"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="4"/>
       <c r="B121" s="5" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="C121" s="5"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="4"/>
       <c r="B122" s="5" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="C122" s="5"/>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="4"/>
       <c r="B123" s="5" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="C123" s="5"/>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="4"/>
       <c r="B124" s="5" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="C124" s="5"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="4"/>
       <c r="B125" s="5" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="C125" s="5"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="4"/>
       <c r="B126" s="5" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="C126" s="5"/>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="4"/>
       <c r="B127" s="5" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="C127" s="5"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="4"/>
       <c r="B128" s="5" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="C128" s="5"/>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="4"/>
       <c r="B129" s="5" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="C129" s="5"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="4"/>
       <c r="B130" s="5" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="C130" s="5"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="4"/>
       <c r="B131" s="5" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="C131" s="5"/>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="1" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="1" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="1" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="1" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="1" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="1" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="1" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="1" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="1" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="1" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="1" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="1" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="1" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="1" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="1" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="1" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="1" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="1" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="1" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="1" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="1" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="1" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" s="1" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="1" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" s="1" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="1" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" s="1" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="1" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="1" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" s="1" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" s="1" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" s="1" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="1" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" s="1" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" s="1" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" s="1" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" s="1" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" s="1" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" s="1" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" s="1" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" s="1" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="1" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="1" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="1" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" s="1" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" s="1" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="1" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" s="1" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" s="1" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" s="1" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="1" t="s">
-        <v>220</v>
+        <v>271</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" s="1" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="1" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="1" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" s="1" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" s="1" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="1" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="1" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" s="1" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="1" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" s="1" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" s="1" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="1" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" s="1" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" s="1" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" s="1" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" s="1" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" s="1" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" s="1" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" s="1" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" s="1" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" s="1" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" s="1" t="s">
-        <v>244</v>
+        <v>295</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" s="1" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" s="1" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" s="1" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" s="1" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" s="1" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218" s="1" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" s="1" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" s="1" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" s="1" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222" s="1" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="342">
   <si>
     <t>同义词</t>
   </si>
@@ -517,118 +518,226 @@
     <t>Unit 7</t>
   </si>
   <si>
-    <t>patant</t>
+    <t>patent</t>
+  </si>
+  <si>
+    <t>He held a number of patents for his many innovations.</t>
   </si>
   <si>
     <t>peculiar</t>
   </si>
   <si>
+    <t>He has a rather peculiar sense of humour.</t>
+  </si>
+  <si>
     <t>perceive</t>
   </si>
   <si>
+    <t>How do you perceive them?</t>
+  </si>
+  <si>
     <t>rally</t>
   </si>
   <si>
+    <t>The troops rallied for a final assault</t>
+  </si>
+  <si>
     <t>masterpiece</t>
   </si>
   <si>
+    <t>This book is his masterpiece.</t>
+  </si>
+  <si>
     <t>mate</t>
   </si>
   <si>
+    <t>He has found his ideal mate.</t>
+  </si>
+  <si>
     <t>means</t>
   </si>
   <si>
+    <t>The move is a means to fight crime.</t>
+  </si>
+  <si>
     <t>meantime</t>
   </si>
   <si>
+    <t>In the meantime, what can you do?</t>
+  </si>
+  <si>
     <t>measure</t>
   </si>
   <si>
+    <t>Measure the length and width of the gap.</t>
+  </si>
+  <si>
     <t>opinion</t>
   </si>
   <si>
+    <t>I wasn't asking for your opinion, Mike.</t>
+  </si>
+  <si>
     <t>opponent</t>
   </si>
   <si>
+    <t>Smith peppered his opponent with long right.</t>
+  </si>
+  <si>
     <t>oppose</t>
   </si>
   <si>
+    <t>Oppose extravagant eating and drinking and pay attention to thrift and economy.</t>
+  </si>
+  <si>
     <t>oppress</t>
   </si>
   <si>
+    <t>Is it not the rich who oppress you?</t>
+  </si>
+  <si>
     <t>scorn</t>
   </si>
   <si>
+    <t>people who scorned traditional methods.</t>
+  </si>
+  <si>
     <t>seemingly</t>
   </si>
   <si>
+    <t>He has moved to Spain, seemingly to enjoy a slower style of life.</t>
+  </si>
+  <si>
     <t>thrift</t>
   </si>
   <si>
+    <t>They were rightly praised for their thrift and enterprise.</t>
+  </si>
+  <si>
     <t>thrill</t>
   </si>
   <si>
+    <t>I can remember the thrill of not knowing what I would get on Christmas morning.</t>
+  </si>
+  <si>
     <t>thrive</t>
   </si>
   <si>
+    <t>Today her company continues to thrive.</t>
+  </si>
+  <si>
     <t>throughout</t>
   </si>
   <si>
+    <t>The bank has plan to branch throughout the country.</t>
+  </si>
+  <si>
     <t>urban</t>
   </si>
   <si>
+    <t>Most urban areas are close to a park.</t>
+  </si>
+  <si>
     <t>urge</t>
   </si>
   <si>
+    <t>They urged Congress to approve plans for their reform program.</t>
+  </si>
+  <si>
     <t>urgent</t>
   </si>
   <si>
+    <t>There is an urgent need for food and water.</t>
+  </si>
+  <si>
     <t>utter</t>
   </si>
   <si>
+    <t>This, of course, is utter nonsense.</t>
+  </si>
+  <si>
     <t>worship</t>
   </si>
   <si>
+    <t>She had worshipped him for years.</t>
+  </si>
+  <si>
     <t>worthwhile</t>
   </si>
   <si>
+    <t>The president's trip to Washington this week seems to have been worthwhile.</t>
+  </si>
+  <si>
     <t>Unit 8</t>
   </si>
   <si>
     <t>periodical</t>
   </si>
   <si>
+    <t>She made periodical vists to her dentist.</t>
+  </si>
+  <si>
     <t>perish</t>
   </si>
   <si>
+    <t>Publish or perish is the traditional saying.</t>
+  </si>
+  <si>
     <t>perpetual</t>
   </si>
   <si>
+    <t>They were all perpetually starving.</t>
+  </si>
+  <si>
     <t>perplex</t>
   </si>
   <si>
+    <t>But don't perplex the issue; it isn't so comlicated.</t>
+  </si>
+  <si>
     <t>pessimistic</t>
   </si>
   <si>
+    <t>But not all researchers are so perssimistic.</t>
+  </si>
+  <si>
     <t>optimistic</t>
   </si>
   <si>
+    <t>Both sides have spoken optimistically about the talks.</t>
+  </si>
+  <si>
     <t>optimum</t>
   </si>
   <si>
+    <t>Try to do some physical activity three times a week for optimum health.</t>
+  </si>
+  <si>
     <t>organ</t>
   </si>
   <si>
+    <t>These bacteria can be thought of as an additional digestive organ.</t>
+  </si>
+  <si>
     <t>organic</t>
   </si>
   <si>
+    <t>If you buy organic, what convinced you to do so?</t>
+  </si>
+  <si>
     <t>organism</t>
   </si>
   <si>
     <t>enhance</t>
   </si>
   <si>
+    <t>How might you enhance the structure?</t>
+  </si>
+  <si>
     <t>enlighten</t>
+  </si>
+  <si>
+    <t>The results may enlighten - and disturb-you</t>
   </si>
   <si>
     <t>rake</t>
@@ -939,10 +1048,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -966,56 +1075,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1034,15 +1098,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1051,6 +1138,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,6 +1183,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1096,7 +1198,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1105,6 +1207,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,13 +1234,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,31 +1270,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,115 +1300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,7 +1318,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1321,20 +1430,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1380,9 +1493,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1402,17 +1517,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1424,10 +1533,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1436,19 +1545,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1457,129 +1566,132 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1906,8 +2018,8 @@
   <sheetPr/>
   <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="20.25" outlineLevelCol="6"/>
@@ -1915,7 +2027,7 @@
     <col min="2" max="2" width="22.4666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.25" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="121.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="76" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1931,7 +2043,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1940,7 +2052,7 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
@@ -1981,7 +2093,7 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1992,7 +2104,7 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2033,7 +2145,7 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -2041,7 +2153,7 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -2057,7 +2169,7 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -2089,7 +2201,7 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -2097,7 +2209,7 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -2121,7 +2233,7 @@
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -2156,7 +2268,7 @@
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -2220,7 +2332,7 @@
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -2236,7 +2348,7 @@
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -2279,7 +2391,7 @@
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -2314,7 +2426,7 @@
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -2370,7 +2482,7 @@
       </c>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -2394,7 +2506,7 @@
       </c>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -2461,7 +2573,7 @@
       </c>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -2477,7 +2589,7 @@
       </c>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -2485,7 +2597,7 @@
       </c>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>144</v>
       </c>
       <c r="F72" s="1" t="s">
@@ -2525,7 +2637,7 @@
       </c>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>154</v>
       </c>
       <c r="F77" s="1" t="s">
@@ -2533,7 +2645,7 @@
       </c>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>156</v>
       </c>
       <c r="F78" s="1" t="s">
@@ -2541,7 +2653,7 @@
       </c>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F79" s="1" t="s">
@@ -2549,7 +2661,7 @@
       </c>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>160</v>
       </c>
       <c r="F80" s="1" t="s">
@@ -2557,7 +2669,7 @@
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F81" s="1" t="s">
@@ -2572,788 +2684,928 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:6">
       <c r="A84" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C84" s="5"/>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="C84" s="6"/>
+      <c r="F84" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="4"/>
       <c r="B85" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C85" s="5"/>
-    </row>
-    <row r="86" spans="1:3">
+        <v>169</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="F85" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="4"/>
       <c r="B86" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C86" s="5"/>
-    </row>
-    <row r="87" spans="1:3">
+        <v>171</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="F86" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="4"/>
-      <c r="B87" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C87" s="5"/>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="B87" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="F87" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="4"/>
-      <c r="B88" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C88" s="5"/>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="B88" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="F88" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="4"/>
-      <c r="B89" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C89" s="5"/>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="B89" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="F89" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="4"/>
       <c r="B90" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C90" s="5"/>
-    </row>
-    <row r="91" spans="1:3">
+        <v>179</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="F90" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="4"/>
-      <c r="B91" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C91" s="5"/>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="B91" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="F91" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="4"/>
-      <c r="B92" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C92" s="5"/>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="B92" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="F92" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="4"/>
-      <c r="B93" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C93" s="5"/>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="B93" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="F93" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="4"/>
-      <c r="B94" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C94" s="5"/>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="B94" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="F94" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="4"/>
       <c r="B95" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C95" s="5"/>
-    </row>
-    <row r="96" spans="1:3">
+        <v>189</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="F95" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="4"/>
-      <c r="B96" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C96" s="5"/>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="B96" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="F96" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="4"/>
       <c r="B97" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C97" s="5"/>
-    </row>
-    <row r="98" spans="1:3">
+        <v>193</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="F97" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="4"/>
-      <c r="B98" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C98" s="5"/>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="B98" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="F98" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="4"/>
       <c r="B99" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C99" s="5"/>
-    </row>
-    <row r="100" spans="1:3">
+        <v>197</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="F99" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="4"/>
-      <c r="B100" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C100" s="5"/>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="B100" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="F100" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="4"/>
       <c r="B101" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C101" s="5"/>
-    </row>
-    <row r="102" spans="1:3">
+        <v>201</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="F101" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="4"/>
       <c r="B102" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C102" s="5"/>
-    </row>
-    <row r="103" spans="1:3">
+        <v>203</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="F102" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="4"/>
-      <c r="B103" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C103" s="5"/>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="B103" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="F103" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="4"/>
-      <c r="B104" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C104" s="5"/>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="B104" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="F104" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="4"/>
       <c r="B105" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C105" s="5"/>
-    </row>
-    <row r="106" spans="1:3">
+        <v>209</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="F105" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="4"/>
       <c r="B106" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C106" s="5"/>
-    </row>
-    <row r="107" spans="1:3">
+        <v>211</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="F106" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="4"/>
-      <c r="B107" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C107" s="5"/>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="B107" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="F107" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="4"/>
       <c r="B108" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C108" s="5"/>
-    </row>
-    <row r="110" spans="1:3">
+        <v>215</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="F108" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C110" s="5"/>
-    </row>
-    <row r="111" spans="1:3">
+        <v>217</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="F110" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="4"/>
-      <c r="B111" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C111" s="5"/>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="B111" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="F111" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="4"/>
-      <c r="B112" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C112" s="5"/>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="B112" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="F112" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="4"/>
-      <c r="B113" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C113" s="5"/>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="B113" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="F113" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="4"/>
-      <c r="B114" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C114" s="5"/>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="B114" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="F114" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="4"/>
-      <c r="B115" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C115" s="5"/>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="B115" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="F115" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="4"/>
-      <c r="B116" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C116" s="5"/>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="B116" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="F116" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="4"/>
-      <c r="B117" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C117" s="5"/>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="B117" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="F117" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="4"/>
-      <c r="B118" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C118" s="5"/>
+      <c r="B118" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="F118" s="1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="4"/>
-      <c r="B119" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C119" s="5"/>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="B119" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C119" s="6"/>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="4"/>
-      <c r="B120" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C120" s="5"/>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="B120" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="F120" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="4"/>
-      <c r="B121" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C121" s="5"/>
+      <c r="B121" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="F121" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="4"/>
-      <c r="B122" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C122" s="5"/>
+      <c r="B122" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C122" s="6"/>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="4"/>
-      <c r="B123" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C123" s="5"/>
+      <c r="B123" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C123" s="6"/>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="4"/>
-      <c r="B124" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C124" s="5"/>
+      <c r="B124" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C124" s="6"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="4"/>
-      <c r="B125" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C125" s="5"/>
+      <c r="B125" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C125" s="6"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="4"/>
-      <c r="B126" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C126" s="5"/>
+      <c r="B126" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C126" s="6"/>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="4"/>
-      <c r="B127" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C127" s="5"/>
+      <c r="B127" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C127" s="6"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="4"/>
-      <c r="B128" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C128" s="5"/>
+      <c r="B128" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C128" s="6"/>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="4"/>
-      <c r="B129" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C129" s="5"/>
+      <c r="B129" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C129" s="6"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="4"/>
-      <c r="B130" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C130" s="5"/>
+      <c r="B130" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C130" s="6"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="4"/>
-      <c r="B131" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C131" s="5"/>
+      <c r="B131" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C131" s="6"/>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="1" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="1" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="1" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="1" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="1" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="1" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="1" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="1" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="1" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="1" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="1" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="1" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="1" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="1" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="1" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="1" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="1" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="1" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="1" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="1" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="1" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="1" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" s="1" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="1" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" s="1" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="1" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" s="1" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="1" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="1" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" s="1" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" s="1" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" s="1" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="1" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" s="1" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" s="1" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" s="1" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" s="1" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" s="1" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" s="1" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" s="1" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" s="1" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="1" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="1" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="1" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" s="1" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" s="1" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="1" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" s="1" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" s="1" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="1" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" s="1" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="1" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="1" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" s="1" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" s="1" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="1" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="1" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" s="1" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="1" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" s="1" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" s="1" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="1" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" s="1" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" s="1" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" s="1" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" s="1" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" s="1" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" s="1" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" s="1" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" s="1" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" s="1" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" s="1" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" s="1" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" s="1" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" s="1" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" s="1" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" s="1" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218" s="1" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" s="1" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" s="1" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" s="1" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222" s="1" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
   <si>
     <t>同义词</t>
   </si>
@@ -743,31 +743,61 @@
     <t>rake</t>
   </si>
   <si>
+    <t>I watched the men rake leaves into heaps.</t>
+  </si>
+  <si>
     <t>sensation</t>
   </si>
   <si>
+    <t>She was just 14 when she caused a sensation at the Montreal Olympics.</t>
+  </si>
+  <si>
     <t>sensible</t>
   </si>
   <si>
+    <t>The sensible thing is to leave them alone.</t>
+  </si>
+  <si>
     <t>sensitive</t>
   </si>
   <si>
+    <t>Young people are very sensitive about their appearance.</t>
+  </si>
+  <si>
     <t>toast</t>
   </si>
   <si>
+    <t>Toast the bread lightly on both sides.</t>
+  </si>
+  <si>
     <t>cherish</t>
   </si>
   <si>
+    <t>He genuinely loved and cherished her.</t>
+  </si>
+  <si>
     <t>boast</t>
   </si>
   <si>
+    <t>Carol boasted about her costume.</t>
+  </si>
+  <si>
     <t>verdict</t>
   </si>
   <si>
+    <t>The doctor's verdict was that he was entirely healthy.</t>
+  </si>
+  <si>
     <t>verse</t>
   </si>
   <si>
+    <t>I have been moved to write a few lines of verse.</t>
+  </si>
+  <si>
     <t>vessel</t>
+  </si>
+  <si>
+    <t>The vessel is sailing from Hongkong to Shanghai.</t>
   </si>
   <si>
     <t>Unit 9</t>
@@ -1050,8 +1080,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1075,24 +1105,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1106,23 +1127,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1135,23 +1150,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1160,6 +1160,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,9 +1188,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1198,7 +1204,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1206,7 +1212,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1234,7 +1264,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,7 +1294,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,25 +1312,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,13 +1336,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,61 +1408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,13 +1426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,19 +1444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1425,6 +1455,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1452,45 +1545,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1501,30 +1555,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1533,10 +1563,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1545,19 +1575,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1566,112 +1596,112 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2018,8 +2048,8 @@
   <sheetPr/>
   <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="20.25" outlineLevelCol="6"/>
@@ -2530,7 +2560,7 @@
       </c>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -2538,7 +2568,7 @@
       </c>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -2888,7 +2918,7 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="4"/>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="5" t="s">
         <v>207</v>
       </c>
       <c r="C104" s="6"/>
@@ -3055,521 +3085,551 @@
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:6">
       <c r="A122" s="4"/>
       <c r="B122" s="6" t="s">
         <v>241</v>
       </c>
       <c r="C122" s="6"/>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="F122" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="4"/>
       <c r="B123" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C123" s="6"/>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="F123" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="4"/>
       <c r="B124" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C124" s="6"/>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="F124" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="4"/>
       <c r="B125" s="6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C125" s="6"/>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="F125" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="4"/>
       <c r="B126" s="6" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C126" s="6"/>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="F126" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="4"/>
       <c r="B127" s="6" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C127" s="6"/>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="F127" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="4"/>
       <c r="B128" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C128" s="6"/>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="F128" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="4"/>
       <c r="B129" s="6" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C129" s="6"/>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="F129" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="4"/>
       <c r="B130" s="6" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C130" s="6"/>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="F130" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="4"/>
       <c r="B131" s="6" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C131" s="6"/>
+      <c r="F131" s="1" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="1" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="1" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="1" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="1" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="1" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="1" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="1" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="1" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="1" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="1" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="1" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="1" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="1" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="1" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="1" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="1" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" s="1" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" s="1" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="1" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="1" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" s="1" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" s="1" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" s="1" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="1" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" s="1" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" s="1" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" s="1" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" s="1" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" s="1" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" s="1" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" s="1" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" s="1" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="1" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="1" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="1" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" s="1" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" s="1" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="1" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" s="1" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" s="1" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" s="1" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="1" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" s="1" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="1" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="1" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" s="1" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" s="1" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="1" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="1" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" s="1" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="1" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" s="1" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" s="1" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="1" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" s="1" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" s="1" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" s="1" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" s="1" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" s="1" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" s="1" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" s="1" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" s="1" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" s="1" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" s="1" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" s="1" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" s="1" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" s="1" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" s="1" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" s="1" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218" s="1" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" s="1" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" s="1" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" s="1" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222" s="1" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="10440"/>
+    <workbookView windowWidth="23985" windowHeight="17070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$D$1:$D$12</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
   <si>
     <t>同义词</t>
   </si>
@@ -806,69 +810,135 @@
     <t>acclaim</t>
   </si>
   <si>
+    <t>She has published six highly acclaimed novels.</t>
+  </si>
+  <si>
     <t>accommodate</t>
   </si>
   <si>
+    <t>The school was not big enough to accommodate all the children.</t>
+  </si>
+  <si>
     <t>bid</t>
   </si>
   <si>
+    <t>She wanted to bid for it.</t>
+  </si>
+  <si>
     <t>charm</t>
   </si>
   <si>
+    <t>He was a man of great charm and distinction.</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>... the demands and challenges of a new job.</t>
+  </si>
+  <si>
     <t>democracy</t>
   </si>
   <si>
+    <t>The new democracies face tough challenge.</t>
+  </si>
+  <si>
     <t>demonstrate</t>
   </si>
   <si>
+    <t>In the cities vast crowds have been demonstrating for change.</t>
+  </si>
+  <si>
     <t>denote</t>
   </si>
   <si>
+    <t>X denotes those not voting.</t>
+  </si>
+  <si>
     <t>deposit</t>
   </si>
   <si>
+    <t>The customer has to deposit a minimum of $100 monthly.</t>
+  </si>
+  <si>
     <t>depress</t>
   </si>
   <si>
+    <t>I must admit the state of the country depresses me.</t>
+  </si>
+  <si>
     <t>eminent</t>
   </si>
   <si>
+    <t>... an eminent scientist.</t>
+  </si>
+  <si>
     <t>fertile</t>
   </si>
   <si>
+    <t>... fertile soil.</t>
+  </si>
+  <si>
     <t>govern</t>
   </si>
   <si>
+    <t>Marine insurance is governed by a strict series of rules and regulations.</t>
+  </si>
+  <si>
     <t>governor</t>
   </si>
   <si>
+    <t>A new governor took over the prison.</t>
+  </si>
+  <si>
     <t>gradual</t>
   </si>
   <si>
+    <t>Losing weight is a slow, gradual process.</t>
+  </si>
+  <si>
     <t>grant</t>
   </si>
   <si>
+    <t>France has agreed to grant him political asylum.</t>
+  </si>
+  <si>
     <t>hesitate</t>
   </si>
   <si>
+    <t>I hesitate in this work.</t>
+  </si>
+  <si>
     <t>highland</t>
   </si>
   <si>
+    <t>There are a number of Highland Games held through the highlands Scotland.</t>
+  </si>
+  <si>
     <t>immense</t>
   </si>
   <si>
+    <t>He had immense industry but he didn't know how to think.</t>
+  </si>
+  <si>
     <t>immerse</t>
   </si>
   <si>
+    <t>He's really becoming immersed in his work.</t>
+  </si>
+  <si>
     <t>immune</t>
   </si>
   <si>
+    <t>Higher education is no longer immune to state budget cuts.</t>
+  </si>
+  <si>
     <t>selfish</t>
   </si>
   <si>
+    <t>I dislike selfish people.</t>
+  </si>
+  <si>
     <t>Unit 10</t>
   </si>
   <si>
@@ -1071,6 +1141,93 @@
   </si>
   <si>
     <t>detain</t>
+  </si>
+  <si>
+    <t>Unit 13</t>
+  </si>
+  <si>
+    <t>shade</t>
+  </si>
+  <si>
+    <t>sour</t>
+  </si>
+  <si>
+    <t>advise</t>
+  </si>
+  <si>
+    <t>advocate</t>
+  </si>
+  <si>
+    <t>affair</t>
+  </si>
+  <si>
+    <t>affect</t>
+  </si>
+  <si>
+    <t>affection</t>
+  </si>
+  <si>
+    <t>affiliate</t>
+  </si>
+  <si>
+    <t>affirm</t>
+  </si>
+  <si>
+    <t>afford</t>
+  </si>
+  <si>
+    <t>breach</t>
+  </si>
+  <si>
+    <t>breed</t>
+  </si>
+  <si>
+    <t>coincide</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>commend</t>
+  </si>
+  <si>
+    <t>commerce</t>
+  </si>
+  <si>
+    <t>commission</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>communism</t>
+  </si>
+  <si>
+    <t>deteriorate</t>
+  </si>
+  <si>
+    <t>entail</t>
+  </si>
+  <si>
+    <t>indeed</t>
+  </si>
+  <si>
+    <t>merely</t>
+  </si>
+  <si>
+    <t>plausible</t>
+  </si>
+  <si>
+    <t>plea</t>
+  </si>
+  <si>
+    <t>plead</t>
+  </si>
+  <si>
+    <t>poll</t>
+  </si>
+  <si>
+    <t>ponder</t>
   </si>
 </sst>
 </file>
@@ -1078,14 +1235,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1106,14 +1270,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1127,14 +1314,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1143,15 +1322,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,7 +1354,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,16 +1383,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1208,44 +1410,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1264,19 +1428,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,19 +1452,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,25 +1470,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1348,7 +1512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1360,49 +1524,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,7 +1572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1432,13 +1584,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,6 +1619,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1490,71 +1719,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1563,10 +1727,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1575,7 +1739,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1584,147 +1748,153 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2046,1593 +2216,1930 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G222"/>
+  <dimension ref="A1:G251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="20.25" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="22.4666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.25" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="76" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.14166666666667" style="1"/>
+    <col min="2" max="2" width="22.4666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="76" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:6">
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" t="s">
+      <c r="A50" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="C60" s="5">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="C63" s="5">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="C64" s="5">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" t="s">
+      <c r="A67" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="C69" s="5">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="C71" s="5">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="C72" s="5">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="C77" s="5">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="C78" s="5">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="C79" s="5">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="C80" s="5">
+        <v>1</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="C81" s="5">
+        <v>1</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C84" s="6"/>
-      <c r="F84" s="1" t="s">
+      <c r="C84" s="5">
+        <v>1</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="4"/>
-      <c r="B85" s="5" t="s">
+      <c r="A85" s="7"/>
+      <c r="B85" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="F85" s="1" t="s">
+      <c r="C85" s="5">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="4"/>
-      <c r="B86" s="5" t="s">
+      <c r="A86" s="7"/>
+      <c r="B86" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C86" s="6"/>
-      <c r="F86" s="1" t="s">
+      <c r="C86" s="5">
+        <v>1</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="4"/>
-      <c r="B87" s="6" t="s">
+      <c r="A87" s="7"/>
+      <c r="B87" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C87" s="6"/>
-      <c r="F87" s="1" t="s">
+      <c r="C87" s="5"/>
+      <c r="F87" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="4"/>
-      <c r="B88" s="6" t="s">
+      <c r="A88" s="7"/>
+      <c r="B88" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C88" s="6"/>
-      <c r="F88" s="1" t="s">
+      <c r="C88" s="5"/>
+      <c r="F88" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="4"/>
-      <c r="B89" s="6" t="s">
+      <c r="A89" s="7"/>
+      <c r="B89" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C89" s="6"/>
-      <c r="F89" s="1" t="s">
+      <c r="C89" s="5"/>
+      <c r="F89" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="4"/>
-      <c r="B90" s="5" t="s">
+      <c r="A90" s="7"/>
+      <c r="B90" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C90" s="6"/>
-      <c r="F90" s="1" t="s">
+      <c r="C90" s="5">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="4"/>
-      <c r="B91" s="6" t="s">
+      <c r="A91" s="7"/>
+      <c r="B91" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C91" s="6"/>
-      <c r="F91" s="1" t="s">
+      <c r="C91" s="5"/>
+      <c r="F91" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="4"/>
-      <c r="B92" s="6" t="s">
+      <c r="A92" s="7"/>
+      <c r="B92" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C92" s="6"/>
-      <c r="F92" s="1" t="s">
+      <c r="C92" s="5"/>
+      <c r="F92" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="4"/>
-      <c r="B93" s="6" t="s">
+      <c r="A93" s="7"/>
+      <c r="B93" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C93" s="6"/>
-      <c r="F93" s="1" t="s">
+      <c r="C93" s="5"/>
+      <c r="F93" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="4"/>
-      <c r="B94" s="6" t="s">
+      <c r="A94" s="7"/>
+      <c r="B94" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C94" s="6"/>
-      <c r="F94" s="1" t="s">
+      <c r="C94" s="5"/>
+      <c r="F94" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="4"/>
-      <c r="B95" s="5" t="s">
+      <c r="A95" s="7"/>
+      <c r="B95" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C95" s="6"/>
-      <c r="F95" s="1" t="s">
+      <c r="C95" s="5">
+        <v>1</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="4"/>
-      <c r="B96" s="6" t="s">
+      <c r="A96" s="7"/>
+      <c r="B96" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C96" s="6"/>
-      <c r="F96" s="1" t="s">
+      <c r="C96" s="5"/>
+      <c r="F96" s="2" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="4"/>
-      <c r="B97" s="5" t="s">
+      <c r="A97" s="7"/>
+      <c r="B97" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C97" s="6"/>
-      <c r="F97" s="1" t="s">
+      <c r="C97" s="5">
+        <v>1</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="4"/>
-      <c r="B98" s="6" t="s">
+      <c r="A98" s="7"/>
+      <c r="B98" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C98" s="6"/>
-      <c r="F98" s="1" t="s">
+      <c r="C98" s="5"/>
+      <c r="F98" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="4"/>
-      <c r="B99" s="5" t="s">
+      <c r="A99" s="7"/>
+      <c r="B99" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C99" s="6"/>
-      <c r="F99" s="1" t="s">
+      <c r="C99" s="5">
+        <v>1</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="4"/>
-      <c r="B100" s="6" t="s">
+      <c r="A100" s="7"/>
+      <c r="B100" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C100" s="6"/>
-      <c r="F100" s="1" t="s">
+      <c r="C100" s="5"/>
+      <c r="F100" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="4"/>
-      <c r="B101" s="5" t="s">
+      <c r="A101" s="7"/>
+      <c r="B101" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="6"/>
-      <c r="F101" s="1" t="s">
+      <c r="C101" s="5">
+        <v>1</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="4"/>
-      <c r="B102" s="5" t="s">
+      <c r="A102" s="7"/>
+      <c r="B102" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C102" s="6"/>
-      <c r="F102" s="1" t="s">
+      <c r="C102" s="5">
+        <v>1</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="4"/>
-      <c r="B103" s="6" t="s">
+      <c r="A103" s="7"/>
+      <c r="B103" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C103" s="6"/>
-      <c r="F103" s="1" t="s">
+      <c r="C103" s="5"/>
+      <c r="F103" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="4"/>
-      <c r="B104" s="5" t="s">
+      <c r="A104" s="7"/>
+      <c r="B104" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C104" s="6"/>
-      <c r="F104" s="1" t="s">
+      <c r="C104" s="5">
+        <v>1</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="4"/>
-      <c r="B105" s="5" t="s">
+      <c r="A105" s="7"/>
+      <c r="B105" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C105" s="6"/>
-      <c r="F105" s="1" t="s">
+      <c r="C105" s="5">
+        <v>1</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="4"/>
-      <c r="B106" s="5" t="s">
+      <c r="A106" s="7"/>
+      <c r="B106" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C106" s="6"/>
-      <c r="F106" s="1" t="s">
+      <c r="C106" s="5">
+        <v>1</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="4"/>
-      <c r="B107" s="6" t="s">
+      <c r="A107" s="7"/>
+      <c r="B107" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C107" s="6"/>
-      <c r="F107" s="1" t="s">
+      <c r="C107" s="5"/>
+      <c r="F107" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="4"/>
-      <c r="B108" s="5" t="s">
+      <c r="A108" s="7"/>
+      <c r="B108" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C108" s="6"/>
-      <c r="F108" s="1" t="s">
+      <c r="C108" s="5">
+        <v>1</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C110" s="6"/>
-      <c r="F110" s="1" t="s">
+      <c r="C110" s="5">
+        <v>1</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="4"/>
-      <c r="B111" s="6" t="s">
+      <c r="A111" s="7"/>
+      <c r="B111" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C111" s="6"/>
-      <c r="F111" s="1" t="s">
+      <c r="C111" s="5">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="4"/>
-      <c r="B112" s="6" t="s">
+      <c r="A112" s="7"/>
+      <c r="B112" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C112" s="6"/>
-      <c r="F112" s="1" t="s">
+      <c r="C112" s="5">
+        <v>1</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="4"/>
-      <c r="B113" s="6" t="s">
+      <c r="A113" s="7"/>
+      <c r="B113" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C113" s="6"/>
-      <c r="F113" s="1" t="s">
+      <c r="C113" s="5">
+        <v>1</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="4"/>
-      <c r="B114" s="6" t="s">
+      <c r="A114" s="7"/>
+      <c r="B114" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C114" s="6"/>
-      <c r="F114" s="1" t="s">
+      <c r="C114" s="5"/>
+      <c r="F114" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="4"/>
-      <c r="B115" s="6" t="s">
+      <c r="A115" s="7"/>
+      <c r="B115" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C115" s="6"/>
-      <c r="F115" s="1" t="s">
+      <c r="C115" s="5"/>
+      <c r="F115" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="4"/>
-      <c r="B116" s="6" t="s">
+      <c r="A116" s="7"/>
+      <c r="B116" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C116" s="6"/>
-      <c r="F116" s="1" t="s">
+      <c r="C116" s="5"/>
+      <c r="F116" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="4"/>
-      <c r="B117" s="6" t="s">
+      <c r="A117" s="7"/>
+      <c r="B117" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C117" s="6"/>
-      <c r="F117" s="1" t="s">
+      <c r="C117" s="5"/>
+      <c r="F117" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="4"/>
-      <c r="B118" s="6" t="s">
+      <c r="A118" s="7"/>
+      <c r="B118" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C118" s="6"/>
-      <c r="F118" s="1" t="s">
+      <c r="C118" s="5"/>
+      <c r="F118" s="2" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="4"/>
-      <c r="B119" s="6" t="s">
+      <c r="A119" s="7"/>
+      <c r="B119" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C119" s="6"/>
+      <c r="C119" s="5"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="4"/>
-      <c r="B120" s="6" t="s">
+      <c r="A120" s="7"/>
+      <c r="B120" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C120" s="6"/>
-      <c r="F120" s="1" t="s">
+      <c r="C120" s="5"/>
+      <c r="F120" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="4"/>
-      <c r="B121" s="6" t="s">
+      <c r="A121" s="7"/>
+      <c r="B121" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C121" s="6"/>
-      <c r="F121" s="1" t="s">
+      <c r="C121" s="5">
+        <v>1</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="4"/>
-      <c r="B122" s="6" t="s">
+      <c r="A122" s="7"/>
+      <c r="B122" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C122" s="6"/>
-      <c r="F122" s="1" t="s">
+      <c r="C122" s="5">
+        <v>1</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="4"/>
-      <c r="B123" s="6" t="s">
+      <c r="A123" s="7"/>
+      <c r="B123" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C123" s="6"/>
-      <c r="F123" s="1" t="s">
+      <c r="C123" s="5"/>
+      <c r="F123" s="2" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="4"/>
-      <c r="B124" s="6" t="s">
+      <c r="A124" s="7"/>
+      <c r="B124" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C124" s="6"/>
-      <c r="F124" s="1" t="s">
+      <c r="C124" s="5"/>
+      <c r="F124" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="4"/>
-      <c r="B125" s="6" t="s">
+      <c r="A125" s="7"/>
+      <c r="B125" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C125" s="6"/>
-      <c r="F125" s="1" t="s">
+      <c r="C125" s="5"/>
+      <c r="F125" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="4"/>
-      <c r="B126" s="6" t="s">
+      <c r="A126" s="7"/>
+      <c r="B126" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C126" s="6"/>
-      <c r="F126" s="1" t="s">
+      <c r="C126" s="5"/>
+      <c r="F126" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="4"/>
-      <c r="B127" s="6" t="s">
+      <c r="A127" s="7"/>
+      <c r="B127" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C127" s="6"/>
-      <c r="F127" s="1" t="s">
+      <c r="C127" s="5">
+        <v>1</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="4"/>
-      <c r="B128" s="6" t="s">
+      <c r="A128" s="7"/>
+      <c r="B128" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C128" s="6"/>
-      <c r="F128" s="1" t="s">
+      <c r="C128" s="5">
+        <v>1</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="4"/>
-      <c r="B129" s="6" t="s">
+      <c r="A129" s="7"/>
+      <c r="B129" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C129" s="6"/>
-      <c r="F129" s="1" t="s">
+      <c r="C129" s="5">
+        <v>1</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="4"/>
-      <c r="B130" s="6" t="s">
+      <c r="A130" s="7"/>
+      <c r="B130" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C130" s="6"/>
-      <c r="F130" s="1" t="s">
+      <c r="C130" s="5">
+        <v>1</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="4"/>
-      <c r="B131" s="6" t="s">
+      <c r="A131" s="7"/>
+      <c r="B131" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C131" s="6"/>
-      <c r="F131" s="1" t="s">
+      <c r="C131" s="5"/>
+      <c r="F131" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
+    <row r="133" spans="1:6">
+      <c r="A133" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="1" t="s">
+      <c r="F133" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="1" t="s">
+    <row r="134" spans="2:6">
+      <c r="B134" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="1" t="s">
+      <c r="F134" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="1" t="s">
+    <row r="135" spans="2:6">
+      <c r="B135" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="1" t="s">
+      <c r="F135" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="1" t="s">
+    <row r="136" spans="2:6">
+      <c r="B136" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="1" t="s">
+      <c r="F136" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="1" t="s">
+    <row r="137" spans="2:6">
+      <c r="B137" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="1" t="s">
+      <c r="F137" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="1" t="s">
+    <row r="138" spans="2:6">
+      <c r="B138" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="1" t="s">
+      <c r="F138" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="1" t="s">
+    <row r="139" spans="2:6">
+      <c r="B139" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="1" t="s">
+      <c r="F139" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="1" t="s">
+    <row r="140" spans="2:6">
+      <c r="B140" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="1" t="s">
+      <c r="F140" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="1" t="s">
+    <row r="141" spans="2:6">
+      <c r="B141" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="1" t="s">
+      <c r="F141" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="1" t="s">
+    <row r="142" spans="2:6">
+      <c r="B142" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="1" t="s">
+      <c r="F142" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="1" t="s">
+    <row r="143" spans="2:6">
+      <c r="B143" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="1" t="s">
+      <c r="F143" s="2" t="s">
         <v>283</v>
       </c>
     </row>
+    <row r="144" spans="2:6">
+      <c r="B144" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6">
+      <c r="B145" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6">
+      <c r="B146" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6">
+      <c r="B147" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6">
+      <c r="B148" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6">
+      <c r="B149" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6">
+      <c r="B150" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6">
+      <c r="B151" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6">
+      <c r="B152" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6">
+      <c r="B153" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6">
+      <c r="B154" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
     <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>284</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>285</v>
+      <c r="A156" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="157" spans="2:2">
-      <c r="B157" s="1" t="s">
-        <v>286</v>
+      <c r="B157" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="158" spans="2:2">
-      <c r="B158" s="1" t="s">
-        <v>287</v>
+      <c r="B158" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="159" spans="2:2">
-      <c r="B159" s="1" t="s">
-        <v>288</v>
+      <c r="B159" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="160" spans="2:2">
-      <c r="B160" s="1" t="s">
-        <v>289</v>
+      <c r="B160" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="161" spans="2:2">
-      <c r="B161" s="1" t="s">
-        <v>290</v>
+      <c r="B161" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="162" spans="2:2">
-      <c r="B162" s="1" t="s">
-        <v>291</v>
+      <c r="B162" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="2:2">
-      <c r="B163" s="1" t="s">
-        <v>292</v>
+      <c r="B163" s="2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="164" spans="2:2">
-      <c r="B164" s="1" t="s">
-        <v>293</v>
+      <c r="B164" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="165" spans="2:2">
-      <c r="B165" s="1" t="s">
-        <v>294</v>
+      <c r="B165" s="2" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="166" spans="2:2">
-      <c r="B166" s="1" t="s">
-        <v>295</v>
+      <c r="B166" s="2" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="167" spans="2:2">
-      <c r="B167" s="1" t="s">
-        <v>296</v>
+      <c r="B167" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="168" spans="2:2">
-      <c r="B168" s="1" t="s">
-        <v>297</v>
+      <c r="B168" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="169" spans="2:2">
-      <c r="B169" s="1" t="s">
-        <v>298</v>
+      <c r="B169" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="170" spans="2:2">
-      <c r="B170" s="1" t="s">
-        <v>299</v>
+      <c r="B170" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="171" spans="2:2">
-      <c r="B171" s="1" t="s">
-        <v>300</v>
+      <c r="B171" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="172" spans="2:2">
-      <c r="B172" s="1" t="s">
-        <v>301</v>
+      <c r="B172" s="2" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="173" spans="2:2">
-      <c r="B173" s="1" t="s">
-        <v>302</v>
+      <c r="B173" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="174" spans="2:2">
-      <c r="B174" s="1" t="s">
-        <v>303</v>
+      <c r="B174" s="2" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="175" spans="2:2">
-      <c r="B175" s="1" t="s">
-        <v>304</v>
+      <c r="B175" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="176" spans="2:2">
-      <c r="B176" s="1" t="s">
-        <v>305</v>
+      <c r="B176" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="177" spans="2:2">
-      <c r="B177" s="1" t="s">
-        <v>306</v>
+      <c r="B177" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="178" spans="2:2">
-      <c r="B178" s="1" t="s">
-        <v>307</v>
+      <c r="B178" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="179" spans="2:2">
-      <c r="B179" s="1" t="s">
-        <v>308</v>
+      <c r="B179" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="180" spans="2:2">
-      <c r="B180" s="1" t="s">
-        <v>309</v>
+      <c r="B180" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="181" spans="2:2">
-      <c r="B181" s="1" t="s">
-        <v>310</v>
+      <c r="B181" s="2" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="182" spans="2:2">
-      <c r="B182" s="1" t="s">
-        <v>311</v>
+      <c r="B182" s="2" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" t="s">
-        <v>312</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>313</v>
+      <c r="A184" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="185" spans="2:2">
-      <c r="B185" s="1" t="s">
-        <v>314</v>
+      <c r="B185" s="2" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="186" spans="2:2">
-      <c r="B186" s="1" t="s">
-        <v>315</v>
+      <c r="B186" s="2" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="187" spans="2:2">
-      <c r="B187" s="1" t="s">
-        <v>316</v>
+      <c r="B187" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="188" spans="2:2">
-      <c r="B188" s="1" t="s">
-        <v>317</v>
+      <c r="B188" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="189" spans="2:2">
-      <c r="B189" s="1" t="s">
-        <v>318</v>
+      <c r="B189" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="190" spans="2:2">
-      <c r="B190" s="1" t="s">
-        <v>319</v>
+      <c r="B190" s="2" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="191" spans="2:2">
-      <c r="B191" s="1" t="s">
-        <v>320</v>
+      <c r="B191" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="192" spans="2:2">
-      <c r="B192" s="1" t="s">
-        <v>321</v>
+      <c r="B192" s="2" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="193" spans="2:2">
-      <c r="B193" s="1" t="s">
-        <v>322</v>
+      <c r="B193" s="2" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="194" spans="2:2">
-      <c r="B194" s="1" t="s">
-        <v>323</v>
+      <c r="B194" s="2" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="195" spans="2:2">
-      <c r="B195" s="1" t="s">
-        <v>324</v>
+      <c r="B195" s="2" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="196" spans="2:2">
-      <c r="B196" s="1" t="s">
-        <v>325</v>
+      <c r="B196" s="2" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="197" spans="2:2">
-      <c r="B197" s="1" t="s">
-        <v>326</v>
+      <c r="B197" s="2" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="198" spans="2:2">
-      <c r="B198" s="1" t="s">
-        <v>327</v>
+      <c r="B198" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="199" spans="2:2">
-      <c r="B199" s="1" t="s">
-        <v>328</v>
+      <c r="B199" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="200" spans="2:2">
-      <c r="B200" s="1" t="s">
-        <v>329</v>
+      <c r="B200" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="201" spans="2:2">
-      <c r="B201" s="1" t="s">
-        <v>330</v>
+      <c r="B201" s="2" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="202" spans="2:2">
-      <c r="B202" s="1" t="s">
-        <v>331</v>
+      <c r="B202" s="2" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="203" spans="2:2">
-      <c r="B203" s="1" t="s">
-        <v>332</v>
+      <c r="B203" s="2" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="204" spans="2:2">
-      <c r="B204" s="1" t="s">
-        <v>333</v>
+      <c r="B204" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="205" spans="2:2">
-      <c r="B205" s="1" t="s">
-        <v>334</v>
+      <c r="B205" s="2" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" t="s">
-        <v>335</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>336</v>
+      <c r="A207" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="208" spans="2:2">
-      <c r="B208" s="1" t="s">
-        <v>337</v>
+      <c r="B208" s="2" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="209" spans="2:2">
-      <c r="B209" s="1" t="s">
-        <v>338</v>
+      <c r="B209" s="2" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="210" spans="2:2">
-      <c r="B210" s="1" t="s">
-        <v>339</v>
+      <c r="B210" s="2" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="211" spans="2:2">
-      <c r="B211" s="1" t="s">
-        <v>340</v>
+      <c r="B211" s="2" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="212" spans="2:2">
-      <c r="B212" s="1" t="s">
-        <v>341</v>
+      <c r="B212" s="2" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="213" spans="2:2">
-      <c r="B213" s="1" t="s">
-        <v>342</v>
+      <c r="B213" s="2" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="214" spans="2:2">
-      <c r="B214" s="1" t="s">
-        <v>343</v>
+      <c r="B214" s="2" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="215" spans="2:2">
-      <c r="B215" s="1" t="s">
-        <v>344</v>
+      <c r="B215" s="2" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="216" spans="2:2">
-      <c r="B216" s="1" t="s">
-        <v>345</v>
+      <c r="B216" s="2" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="217" spans="2:2">
-      <c r="B217" s="1" t="s">
-        <v>346</v>
+      <c r="B217" s="2" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="218" spans="2:2">
-      <c r="B218" s="1" t="s">
-        <v>347</v>
+      <c r="B218" s="2" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="219" spans="2:2">
-      <c r="B219" s="1" t="s">
-        <v>348</v>
+      <c r="B219" s="2" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="220" spans="2:2">
-      <c r="B220" s="1" t="s">
-        <v>349</v>
+      <c r="B220" s="2" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="221" spans="2:2">
-      <c r="B221" s="1" t="s">
-        <v>350</v>
+      <c r="B221" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="222" spans="2:2">
-      <c r="B222" s="1" t="s">
-        <v>351</v>
+      <c r="B222" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C251">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -3641,17 +4148,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:B5"/>
+  <dimension ref="B3:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:4">
       <c r="B3">
         <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -3659,13 +4171,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:4">
       <c r="B5">
         <v>3</v>
       </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D12">
+    <extLst/>
+  </autoFilter>
+  <sortState ref="B3:B5">
+    <sortCondition ref="B3"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -4,18 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="10440"/>
+    <workbookView windowWidth="23985" windowHeight="17070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$D$1:$D$12</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="541">
   <si>
     <t>同义词</t>
   </si>
@@ -806,153 +812,300 @@
     <t>acclaim</t>
   </si>
   <si>
+    <t>She has published six highly acclaimed novels.</t>
+  </si>
+  <si>
     <t>accommodate</t>
   </si>
   <si>
+    <t>The school was not big enough to accommodate all the children.</t>
+  </si>
+  <si>
     <t>bid</t>
   </si>
   <si>
+    <t>She wanted to bid for it.</t>
+  </si>
+  <si>
     <t>charm</t>
   </si>
   <si>
+    <t>He was a man of great charm and distinction.</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>... the demands and challenges of a new job.</t>
+  </si>
+  <si>
     <t>democracy</t>
   </si>
   <si>
+    <t>The new democracies face tough challenge.</t>
+  </si>
+  <si>
     <t>demonstrate</t>
   </si>
   <si>
+    <t>In the cities vast crowds have been demonstrating for change.</t>
+  </si>
+  <si>
     <t>denote</t>
   </si>
   <si>
+    <t>X denotes those not voting.</t>
+  </si>
+  <si>
     <t>deposit</t>
   </si>
   <si>
+    <t>The customer has to deposit a minimum of $100 monthly.</t>
+  </si>
+  <si>
     <t>depress</t>
   </si>
   <si>
+    <t>I must admit the state of the country depresses me.</t>
+  </si>
+  <si>
     <t>eminent</t>
   </si>
   <si>
+    <t>... an eminent scientist.</t>
+  </si>
+  <si>
     <t>fertile</t>
   </si>
   <si>
+    <t>... fertile soil.</t>
+  </si>
+  <si>
     <t>govern</t>
   </si>
   <si>
+    <t>Marine insurance is governed by a strict series of rules and regulations.</t>
+  </si>
+  <si>
     <t>governor</t>
   </si>
   <si>
+    <t>A new governor took over the prison.</t>
+  </si>
+  <si>
     <t>gradual</t>
   </si>
   <si>
+    <t>Losing weight is a slow, gradual process.</t>
+  </si>
+  <si>
     <t>grant</t>
   </si>
   <si>
+    <t>France has agreed to grant him political asylum.</t>
+  </si>
+  <si>
     <t>hesitate</t>
   </si>
   <si>
+    <t>I hesitate in this work.</t>
+  </si>
+  <si>
     <t>highland</t>
   </si>
   <si>
+    <t>There are a number of Highland Games held through the highlands Scotland.</t>
+  </si>
+  <si>
     <t>immense</t>
   </si>
   <si>
+    <t>He had immense industry but he didn't know how to think.</t>
+  </si>
+  <si>
     <t>immerse</t>
   </si>
   <si>
+    <t>He's really becoming immersed in his work.</t>
+  </si>
+  <si>
     <t>immune</t>
   </si>
   <si>
+    <t>Higher education is no longer immune to state budget cuts.</t>
+  </si>
+  <si>
     <t>selfish</t>
   </si>
   <si>
+    <t>I dislike selfish people.</t>
+  </si>
+  <si>
     <t>Unit 10</t>
   </si>
   <si>
     <t>deprive</t>
   </si>
   <si>
+    <t>They've been deprived of the fuel neccessary to their homes.</t>
+  </si>
+  <si>
     <t>designate</t>
   </si>
   <si>
+    <t>There are efforts under way to designate the bridge a historic landmark.</t>
+  </si>
+  <si>
     <t>desirable</t>
   </si>
   <si>
+    <t>prolonged negotiation was not desiable.</t>
+  </si>
+  <si>
     <t>desire</t>
   </si>
   <si>
+    <t>I had a strong desire to help and care for people.</t>
+  </si>
+  <si>
     <t>flaw</t>
   </si>
   <si>
+    <t>The only flaw in his character seems to be a short temper.</t>
+  </si>
+  <si>
     <t>fling</t>
   </si>
   <si>
+    <t>Peter flung his shoes into the corner.</t>
+  </si>
+  <si>
     <t>flourish</t>
   </si>
   <si>
+    <t>Boston quickly became a flourishing port.</t>
+  </si>
+  <si>
     <t>hinder</t>
   </si>
   <si>
+    <t>Further investigation was hindered by the loss of all documentation on the case.</t>
+  </si>
+  <si>
     <t>hitherto</t>
   </si>
   <si>
+    <t>The rulling party is likely to be opened up to let in people hitherto excluded.</t>
+  </si>
+  <si>
     <t>impair</t>
   </si>
   <si>
+    <t>The blast left him with permanently impaired hearing.</t>
+  </si>
+  <si>
     <t>impart</t>
   </si>
   <si>
+    <t>The ablity to impart knowledge and command respect is the essential qualification for teachers.</t>
+  </si>
+  <si>
     <t>implication</t>
   </si>
   <si>
+    <t>The implication was obvious: vote for us or it will be very embarrassing for you.</t>
+  </si>
+  <si>
     <t>imply</t>
   </si>
   <si>
+    <t>What do these diffecences imply?</t>
+  </si>
+  <si>
     <t>impose</t>
   </si>
   <si>
+    <t>I was afraid you'd feel were imposing on you.</t>
+  </si>
+  <si>
     <t>impulse</t>
   </si>
   <si>
+    <t>Sean's a fast thinker, and he acts on impulse.</t>
+  </si>
+  <si>
     <t>petition</t>
   </si>
   <si>
+    <t>All the attempts to petition Congress had failed.</t>
+  </si>
+  <si>
     <t>phrase</t>
   </si>
   <si>
+    <t>The speech was carefully phrased.</t>
+  </si>
+  <si>
     <t>pierce</t>
   </si>
   <si>
+    <t>One bullet pierced the left side of his chest.</t>
+  </si>
+  <si>
     <t>servant</t>
   </si>
   <si>
+    <t>A large Victorian family with serveral servants.</t>
+  </si>
+  <si>
     <t>setback</t>
   </si>
   <si>
+    <t>It is an unexpected setback in her fortunes.</t>
+  </si>
+  <si>
     <t>settle</t>
   </si>
   <si>
+    <t>As far as we're concerned, the matter is settled.</t>
+  </si>
+  <si>
     <t>severe</t>
   </si>
   <si>
+    <t>A business with severe cash flow problems.</t>
+  </si>
+  <si>
     <t>shelter</t>
   </si>
   <si>
+    <t>A neighbour sheltered the boy for seven days.</t>
+  </si>
+  <si>
     <t>sophisticated</t>
   </si>
   <si>
+    <t>This process ought to be highly sophisticated.</t>
+  </si>
+  <si>
     <t>sovereign</t>
   </si>
   <si>
+    <t>Independence and sovereign equality among states is a fundamental principle of international law.</t>
+  </si>
+  <si>
     <t>sow</t>
   </si>
   <si>
+    <t>Sow the seed in a warm place in February.</t>
+  </si>
+  <si>
     <t>toll</t>
   </si>
   <si>
+    <t>Most people who drive the toll roads don't use them every day.</t>
+  </si>
+  <si>
     <t>Unit 11</t>
   </si>
   <si>
@@ -1071,6 +1224,426 @@
   </si>
   <si>
     <t>detain</t>
+  </si>
+  <si>
+    <t>Unit 13</t>
+  </si>
+  <si>
+    <t>shade</t>
+  </si>
+  <si>
+    <t>sour</t>
+  </si>
+  <si>
+    <t>advise</t>
+  </si>
+  <si>
+    <t>advocate</t>
+  </si>
+  <si>
+    <t>affair</t>
+  </si>
+  <si>
+    <t>affect</t>
+  </si>
+  <si>
+    <t>affection</t>
+  </si>
+  <si>
+    <t>affiliate</t>
+  </si>
+  <si>
+    <t>affirm</t>
+  </si>
+  <si>
+    <t>afford</t>
+  </si>
+  <si>
+    <t>breach</t>
+  </si>
+  <si>
+    <t>breed</t>
+  </si>
+  <si>
+    <t>coincide</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>commend</t>
+  </si>
+  <si>
+    <t>commerce</t>
+  </si>
+  <si>
+    <t>commission</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>communism</t>
+  </si>
+  <si>
+    <t>deteriorate</t>
+  </si>
+  <si>
+    <t>entail</t>
+  </si>
+  <si>
+    <t>indeed</t>
+  </si>
+  <si>
+    <t>merely</t>
+  </si>
+  <si>
+    <t>plausible</t>
+  </si>
+  <si>
+    <t>plea</t>
+  </si>
+  <si>
+    <t>plead</t>
+  </si>
+  <si>
+    <t>poll</t>
+  </si>
+  <si>
+    <t>ponder</t>
+  </si>
+  <si>
+    <t>tidy</t>
+  </si>
+  <si>
+    <t>tilt</t>
+  </si>
+  <si>
+    <t>weed</t>
+  </si>
+  <si>
+    <t>weep</t>
+  </si>
+  <si>
+    <t>anecdote</t>
+  </si>
+  <si>
+    <t>batray</t>
+  </si>
+  <si>
+    <t>beware</t>
+  </si>
+  <si>
+    <t>bewilder</t>
+  </si>
+  <si>
+    <t>clutch</t>
+  </si>
+  <si>
+    <t>desolate</t>
+  </si>
+  <si>
+    <t>despair</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>enormous</t>
+  </si>
+  <si>
+    <t>enroll</t>
+  </si>
+  <si>
+    <t>fiscal</t>
+  </si>
+  <si>
+    <t>innumerable</t>
+  </si>
+  <si>
+    <t>inquiry/enquiry</t>
+  </si>
+  <si>
+    <t>lest</t>
+  </si>
+  <si>
+    <t>poke</t>
+  </si>
+  <si>
+    <t>pole</t>
+  </si>
+  <si>
+    <t>pollute</t>
+  </si>
+  <si>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>snap</t>
+  </si>
+  <si>
+    <t>snatch</t>
+  </si>
+  <si>
+    <t>sneak</t>
+  </si>
+  <si>
+    <t>sneeze</t>
+  </si>
+  <si>
+    <t>sniff</t>
+  </si>
+  <si>
+    <t>snobbish</t>
+  </si>
+  <si>
+    <t>deviate</t>
+  </si>
+  <si>
+    <t>devote</t>
+  </si>
+  <si>
+    <t>fixture</t>
+  </si>
+  <si>
+    <t>flame</t>
+  </si>
+  <si>
+    <t>flap</t>
+  </si>
+  <si>
+    <t>flare</t>
+  </si>
+  <si>
+    <t>flatter</t>
+  </si>
+  <si>
+    <t>flee</t>
+  </si>
+  <si>
+    <t>flesh</t>
+  </si>
+  <si>
+    <t>anyhow</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>biography</t>
+  </si>
+  <si>
+    <t>coherent</t>
+  </si>
+  <si>
+    <t>cohesive</t>
+  </si>
+  <si>
+    <t>collar</t>
+  </si>
+  <si>
+    <t>colonel</t>
+  </si>
+  <si>
+    <t>colonial</t>
+  </si>
+  <si>
+    <t>colony</t>
+  </si>
+  <si>
+    <t>enthusiasm</t>
+  </si>
+  <si>
+    <t>entrepreneur</t>
+  </si>
+  <si>
+    <t>whale</t>
+  </si>
+  <si>
+    <t>whereas</t>
+  </si>
+  <si>
+    <t>whip</t>
+  </si>
+  <si>
+    <t>unit 3</t>
+  </si>
+  <si>
+    <t>sob</t>
+  </si>
+  <si>
+    <t>sober</t>
+  </si>
+  <si>
+    <t>solemn</t>
+  </si>
+  <si>
+    <t>hike</t>
+  </si>
+  <si>
+    <t>hinge</t>
+  </si>
+  <si>
+    <t>insist</t>
+  </si>
+  <si>
+    <t>inspect</t>
+  </si>
+  <si>
+    <t>inspiration</t>
+  </si>
+  <si>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>mechandise</t>
+  </si>
+  <si>
+    <t>merchat</t>
+  </si>
+  <si>
+    <t>mercury</t>
+  </si>
+  <si>
+    <t>mercy</t>
+  </si>
+  <si>
+    <t>merit</t>
+  </si>
+  <si>
+    <t>metaphor</t>
+  </si>
+  <si>
+    <t>metropolitan</t>
+  </si>
+  <si>
+    <t>nonsense</t>
+  </si>
+  <si>
+    <t>orbit</t>
+  </si>
+  <si>
+    <t>pope</t>
+  </si>
+  <si>
+    <t>porcelain</t>
+  </si>
+  <si>
+    <t>porter</t>
+  </si>
+  <si>
+    <t>portfolio</t>
+  </si>
+  <si>
+    <t>portrait</t>
+  </si>
+  <si>
+    <t>portray</t>
+  </si>
+  <si>
+    <t>postpone</t>
+  </si>
+  <si>
+    <t>posture</t>
+  </si>
+  <si>
+    <t>remnant</t>
+  </si>
+  <si>
+    <t>renaissance</t>
+  </si>
+  <si>
+    <t>renovate</t>
+  </si>
+  <si>
+    <t>repel</t>
+  </si>
+  <si>
+    <t>repertoire</t>
+  </si>
+  <si>
+    <t>tiresome</t>
+  </si>
+  <si>
+    <t>toil</t>
+  </si>
+  <si>
+    <t>blade</t>
+  </si>
+  <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>blaze</t>
+  </si>
+  <si>
+    <t>according to</t>
+  </si>
+  <si>
+    <t>such as</t>
+  </si>
+  <si>
+    <t>seem to</t>
+  </si>
+  <si>
+    <t>rather than</t>
+  </si>
+  <si>
+    <t>tend to</t>
+  </si>
+  <si>
+    <t>instead of</t>
+  </si>
+  <si>
+    <t>at the end of</t>
+  </si>
+  <si>
+    <t>be likely to</t>
+  </si>
+  <si>
+    <t>fail to</t>
+  </si>
+  <si>
+    <t>as well as</t>
+  </si>
+  <si>
+    <t>not longer</t>
+  </si>
+  <si>
+    <t>result in</t>
+  </si>
+  <si>
+    <t>add to</t>
+  </si>
+  <si>
+    <t>depend on</t>
+  </si>
+  <si>
+    <t>look for</t>
+  </si>
+  <si>
+    <t>so that</t>
+  </si>
+  <si>
+    <t>lack of</t>
+  </si>
+  <si>
+    <t>deal with</t>
+  </si>
+  <si>
+    <t>as a result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refer to </t>
+  </si>
+  <si>
+    <t>in fact</t>
+  </si>
+  <si>
+    <t>be exposed to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be interested in </t>
   </si>
 </sst>
 </file>
@@ -1079,11 +1652,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1099,23 +1672,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FF434343"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1129,54 +1726,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1196,14 +1748,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1211,8 +1755,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1226,19 +1807,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1264,7 +1851,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,7 +1875,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,19 +1893,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,7 +1911,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1324,13 +1929,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,85 +2001,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,13 +2025,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1476,8 +2063,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1487,6 +2074,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1502,6 +2100,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1524,34 +2137,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1563,10 +2150,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1575,156 +2162,162 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2046,17 +2639,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G222"/>
+  <dimension ref="A1:G251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="20.25" outlineLevelCol="6"/>
   <cols>
+    <col min="1" max="1" width="9.14166666666667" style="3"/>
     <col min="2" max="2" width="22.4666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.25" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="76" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.125" customWidth="1"/>
   </cols>
@@ -2070,11 +2664,14 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -2082,7 +2679,7 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
@@ -2123,8 +2720,11 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
@@ -2134,8 +2734,11 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
@@ -2164,7 +2767,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2175,16 +2778,22 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>30</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>32</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>33</v>
@@ -2199,8 +2808,11 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>36</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>37</v>
@@ -2231,16 +2843,22 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>44</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>46</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>47</v>
@@ -2263,8 +2881,11 @@
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>52</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>53</v>
@@ -2279,7 +2900,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2298,8 +2919,11 @@
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>61</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>62</v>
@@ -2362,8 +2986,11 @@
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>77</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>78</v>
@@ -2378,8 +3005,11 @@
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>81</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>82</v>
@@ -2410,7 +3040,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2421,8 +3051,11 @@
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="4" t="s">
         <v>92</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>93</v>
@@ -2453,11 +3086,14 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" t="s">
+      <c r="A50" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="4" t="s">
         <v>101</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>102</v>
@@ -2512,8 +3148,11 @@
       </c>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="4" t="s">
         <v>115</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>116</v>
@@ -2536,8 +3175,11 @@
       </c>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="4" t="s">
         <v>121</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>122</v>
@@ -2560,16 +3202,22 @@
       </c>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="4" t="s">
         <v>127</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="4" t="s">
         <v>129</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>130</v>
@@ -2584,7 +3232,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" t="s">
+      <c r="A67" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -2603,8 +3251,11 @@
       </c>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="4" t="s">
         <v>138</v>
+      </c>
+      <c r="C69" s="5">
+        <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>139</v>
@@ -2619,16 +3270,22 @@
       </c>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="4" t="s">
         <v>142</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="4" t="s">
         <v>144</v>
+      </c>
+      <c r="C72" s="5">
+        <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>145</v>
@@ -2667,40 +3324,55 @@
       </c>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="4" t="s">
         <v>154</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="4" t="s">
         <v>156</v>
+      </c>
+      <c r="C78" s="5">
+        <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="4" t="s">
         <v>158</v>
+      </c>
+      <c r="C79" s="5">
+        <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="4" t="s">
         <v>160</v>
+      </c>
+      <c r="C80" s="5">
+        <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="4" t="s">
         <v>162</v>
+      </c>
+      <c r="C81" s="5">
+        <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>163</v>
@@ -2715,924 +3387,1296 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C84" s="6"/>
+      <c r="C84" s="5">
+        <v>1</v>
+      </c>
       <c r="F84" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="4"/>
-      <c r="B85" s="5" t="s">
+      <c r="A85" s="7"/>
+      <c r="B85" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="6"/>
+      <c r="C85" s="5">
+        <v>1</v>
+      </c>
       <c r="F85" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="4"/>
-      <c r="B86" s="5" t="s">
+      <c r="A86" s="7"/>
+      <c r="B86" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C86" s="6"/>
+      <c r="C86" s="5">
+        <v>1</v>
+      </c>
       <c r="F86" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="4"/>
-      <c r="B87" s="6" t="s">
+      <c r="A87" s="7"/>
+      <c r="B87" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C87" s="6"/>
+      <c r="C87" s="5"/>
       <c r="F87" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="4"/>
-      <c r="B88" s="6" t="s">
+      <c r="A88" s="7"/>
+      <c r="B88" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C88" s="6"/>
+      <c r="C88" s="5"/>
       <c r="F88" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="4"/>
-      <c r="B89" s="6" t="s">
+      <c r="A89" s="7"/>
+      <c r="B89" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C89" s="6"/>
+      <c r="C89" s="5"/>
       <c r="F89" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="4"/>
-      <c r="B90" s="5" t="s">
+      <c r="A90" s="7"/>
+      <c r="B90" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C90" s="6"/>
+      <c r="C90" s="5">
+        <v>1</v>
+      </c>
       <c r="F90" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="4"/>
-      <c r="B91" s="6" t="s">
+      <c r="A91" s="7"/>
+      <c r="B91" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C91" s="6"/>
+      <c r="C91" s="5"/>
       <c r="F91" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="4"/>
-      <c r="B92" s="6" t="s">
+      <c r="A92" s="7"/>
+      <c r="B92" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C92" s="6"/>
+      <c r="C92" s="5"/>
       <c r="F92" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="4"/>
-      <c r="B93" s="6" t="s">
+      <c r="A93" s="7"/>
+      <c r="B93" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C93" s="6"/>
+      <c r="C93" s="5"/>
       <c r="F93" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="4"/>
-      <c r="B94" s="6" t="s">
+      <c r="A94" s="7"/>
+      <c r="B94" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C94" s="6"/>
+      <c r="C94" s="5"/>
       <c r="F94" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="4"/>
-      <c r="B95" s="5" t="s">
+      <c r="A95" s="7"/>
+      <c r="B95" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C95" s="6"/>
+      <c r="C95" s="5">
+        <v>1</v>
+      </c>
       <c r="F95" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="4"/>
-      <c r="B96" s="6" t="s">
+      <c r="A96" s="7"/>
+      <c r="B96" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C96" s="6"/>
+      <c r="C96" s="5"/>
       <c r="F96" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="4"/>
-      <c r="B97" s="5" t="s">
+      <c r="A97" s="7"/>
+      <c r="B97" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C97" s="6"/>
+      <c r="C97" s="5">
+        <v>1</v>
+      </c>
       <c r="F97" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="4"/>
-      <c r="B98" s="6" t="s">
+      <c r="A98" s="7"/>
+      <c r="B98" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C98" s="6"/>
+      <c r="C98" s="5"/>
       <c r="F98" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="4"/>
-      <c r="B99" s="5" t="s">
+      <c r="A99" s="7"/>
+      <c r="B99" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C99" s="6"/>
+      <c r="C99" s="5">
+        <v>1</v>
+      </c>
       <c r="F99" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="4"/>
-      <c r="B100" s="6" t="s">
+      <c r="A100" s="7"/>
+      <c r="B100" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C100" s="6"/>
+      <c r="C100" s="5"/>
       <c r="F100" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="4"/>
-      <c r="B101" s="5" t="s">
+      <c r="A101" s="7"/>
+      <c r="B101" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="6"/>
+      <c r="C101" s="5">
+        <v>1</v>
+      </c>
       <c r="F101" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="4"/>
-      <c r="B102" s="5" t="s">
+      <c r="A102" s="7"/>
+      <c r="B102" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C102" s="6"/>
+      <c r="C102" s="5">
+        <v>1</v>
+      </c>
       <c r="F102" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="4"/>
-      <c r="B103" s="6" t="s">
+      <c r="A103" s="7"/>
+      <c r="B103" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C103" s="6"/>
+      <c r="C103" s="5"/>
       <c r="F103" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="4"/>
-      <c r="B104" s="5" t="s">
+      <c r="A104" s="7"/>
+      <c r="B104" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C104" s="6"/>
+      <c r="C104" s="5">
+        <v>1</v>
+      </c>
       <c r="F104" s="1" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="4"/>
-      <c r="B105" s="5" t="s">
+      <c r="A105" s="7"/>
+      <c r="B105" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C105" s="6"/>
+      <c r="C105" s="5">
+        <v>1</v>
+      </c>
       <c r="F105" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="4"/>
-      <c r="B106" s="5" t="s">
+      <c r="A106" s="7"/>
+      <c r="B106" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C106" s="6"/>
+      <c r="C106" s="5">
+        <v>1</v>
+      </c>
       <c r="F106" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="4"/>
-      <c r="B107" s="6" t="s">
+      <c r="A107" s="7"/>
+      <c r="B107" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C107" s="6"/>
+      <c r="C107" s="5"/>
       <c r="F107" s="1" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="4"/>
-      <c r="B108" s="5" t="s">
+      <c r="A108" s="7"/>
+      <c r="B108" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C108" s="6"/>
+      <c r="C108" s="5">
+        <v>1</v>
+      </c>
       <c r="F108" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C110" s="6"/>
+      <c r="C110" s="5">
+        <v>1</v>
+      </c>
       <c r="F110" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="4"/>
-      <c r="B111" s="6" t="s">
+      <c r="A111" s="7"/>
+      <c r="B111" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C111" s="6"/>
+      <c r="C111" s="5">
+        <v>1</v>
+      </c>
       <c r="F111" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="4"/>
-      <c r="B112" s="6" t="s">
+      <c r="A112" s="7"/>
+      <c r="B112" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C112" s="6"/>
+      <c r="C112" s="5">
+        <v>1</v>
+      </c>
       <c r="F112" s="1" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="4"/>
-      <c r="B113" s="6" t="s">
+      <c r="A113" s="7"/>
+      <c r="B113" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C113" s="6"/>
+      <c r="C113" s="5">
+        <v>1</v>
+      </c>
       <c r="F113" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="4"/>
-      <c r="B114" s="6" t="s">
+      <c r="A114" s="7"/>
+      <c r="B114" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C114" s="6"/>
+      <c r="C114" s="5"/>
       <c r="F114" s="1" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="4"/>
-      <c r="B115" s="6" t="s">
+      <c r="A115" s="7"/>
+      <c r="B115" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C115" s="6"/>
+      <c r="C115" s="5"/>
       <c r="F115" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="4"/>
-      <c r="B116" s="6" t="s">
+      <c r="A116" s="7"/>
+      <c r="B116" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C116" s="6"/>
+      <c r="C116" s="5"/>
       <c r="F116" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="4"/>
-      <c r="B117" s="6" t="s">
+      <c r="A117" s="7"/>
+      <c r="B117" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C117" s="6"/>
+      <c r="C117" s="5"/>
       <c r="F117" s="1" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="4"/>
-      <c r="B118" s="6" t="s">
+      <c r="A118" s="7"/>
+      <c r="B118" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C118" s="6"/>
+      <c r="C118" s="5"/>
       <c r="F118" s="1" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="4"/>
-      <c r="B119" s="6" t="s">
+      <c r="A119" s="7"/>
+      <c r="B119" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C119" s="6"/>
+      <c r="C119" s="5"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="4"/>
-      <c r="B120" s="6" t="s">
+      <c r="A120" s="7"/>
+      <c r="B120" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C120" s="6"/>
+      <c r="C120" s="5"/>
       <c r="F120" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="4"/>
-      <c r="B121" s="6" t="s">
+      <c r="A121" s="7"/>
+      <c r="B121" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C121" s="6"/>
+      <c r="C121" s="5">
+        <v>1</v>
+      </c>
       <c r="F121" s="1" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="4"/>
-      <c r="B122" s="6" t="s">
+      <c r="A122" s="7"/>
+      <c r="B122" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C122" s="6"/>
+      <c r="C122" s="5">
+        <v>1</v>
+      </c>
       <c r="F122" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="4"/>
-      <c r="B123" s="6" t="s">
+      <c r="A123" s="7"/>
+      <c r="B123" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C123" s="6"/>
+      <c r="C123" s="5"/>
       <c r="F123" s="1" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="4"/>
-      <c r="B124" s="6" t="s">
+      <c r="A124" s="7"/>
+      <c r="B124" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C124" s="6"/>
+      <c r="C124" s="5"/>
       <c r="F124" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="4"/>
-      <c r="B125" s="6" t="s">
+      <c r="A125" s="7"/>
+      <c r="B125" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C125" s="6"/>
+      <c r="C125" s="5"/>
       <c r="F125" s="1" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="4"/>
-      <c r="B126" s="6" t="s">
+      <c r="A126" s="7"/>
+      <c r="B126" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C126" s="6"/>
+      <c r="C126" s="5"/>
       <c r="F126" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="4"/>
-      <c r="B127" s="6" t="s">
+      <c r="A127" s="7"/>
+      <c r="B127" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C127" s="6"/>
+      <c r="C127" s="5">
+        <v>1</v>
+      </c>
       <c r="F127" s="1" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="4"/>
-      <c r="B128" s="6" t="s">
+      <c r="A128" s="7"/>
+      <c r="B128" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C128" s="6"/>
+      <c r="C128" s="5">
+        <v>1</v>
+      </c>
       <c r="F128" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="4"/>
-      <c r="B129" s="6" t="s">
+      <c r="A129" s="7"/>
+      <c r="B129" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C129" s="6"/>
+      <c r="C129" s="5">
+        <v>1</v>
+      </c>
       <c r="F129" s="1" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="4"/>
-      <c r="B130" s="6" t="s">
+      <c r="A130" s="7"/>
+      <c r="B130" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C130" s="6"/>
+      <c r="C130" s="5">
+        <v>1</v>
+      </c>
       <c r="F130" s="1" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="4"/>
-      <c r="B131" s="6" t="s">
+      <c r="A131" s="7"/>
+      <c r="B131" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C131" s="6"/>
+      <c r="C131" s="5"/>
       <c r="F131" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
+    <row r="133" spans="1:6">
+      <c r="A133" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="4" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="1" t="s">
+      <c r="C133" s="1">
+        <v>1</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="1" t="s">
+    <row r="134" spans="2:6">
+      <c r="B134" s="4" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="136" spans="2:2">
+      <c r="C134" s="1">
+        <v>1</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6">
+      <c r="B135" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6">
       <c r="B136" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2">
+        <v>268</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6">
       <c r="B137" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2">
+        <v>270</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6">
       <c r="B138" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2">
+        <v>272</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6">
       <c r="B139" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2">
+        <v>274</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6">
+      <c r="B140" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6">
       <c r="B141" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2">
+        <v>278</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6">
+      <c r="B142" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6">
+      <c r="B143" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6">
+      <c r="B144" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6">
       <c r="B145" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2">
+        <v>286</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6">
       <c r="B146" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2">
+        <v>288</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6">
+      <c r="B147" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6">
       <c r="B148" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2">
+        <v>292</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6">
       <c r="B149" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2">
+        <v>294</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6">
       <c r="B150" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2">
+        <v>296</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6">
+      <c r="B151" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C151" s="1">
+        <v>1</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6">
+      <c r="B152" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C152" s="1">
+        <v>1</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6">
+      <c r="B153" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C153" s="1">
+        <v>1</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6">
       <c r="B154" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>284</v>
+        <v>304</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2">
+        <v>307</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6">
       <c r="B157" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2">
+        <v>309</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6">
       <c r="B158" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2">
+        <v>311</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6">
       <c r="B159" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2">
+        <v>313</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6">
       <c r="B160" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2">
+        <v>315</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6">
       <c r="B161" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2">
+        <v>317</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6">
       <c r="B162" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2">
+        <v>319</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6">
       <c r="B163" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2">
+        <v>321</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6">
       <c r="B164" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2">
+        <v>323</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6">
       <c r="B165" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2">
+        <v>325</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6">
       <c r="B166" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2">
+        <v>327</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6">
       <c r="B167" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2">
+        <v>329</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6">
       <c r="B168" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2">
+        <v>331</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6">
       <c r="B169" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2">
+        <v>333</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6">
       <c r="B170" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2">
+        <v>335</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6">
       <c r="B171" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2">
+        <v>337</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6">
       <c r="B172" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2">
+        <v>339</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6">
       <c r="B173" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2">
+        <v>341</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6">
       <c r="B174" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2">
+        <v>343</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6">
       <c r="B175" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2">
+        <v>345</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6">
       <c r="B176" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2">
+        <v>347</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6">
       <c r="B177" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2">
+        <v>349</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6">
       <c r="B178" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2">
+        <v>351</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6">
       <c r="B179" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2">
+        <v>353</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6">
       <c r="B180" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2">
+        <v>355</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6">
       <c r="B181" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2">
+        <v>357</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6">
       <c r="B182" s="1" t="s">
-        <v>311</v>
+        <v>359</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" t="s">
-        <v>312</v>
+      <c r="A184" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" s="1" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" s="1" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" s="1" t="s">
-        <v>316</v>
+        <v>365</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="1" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" s="1" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="1" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="1" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" s="1" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" s="1" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="1" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="1" t="s">
-        <v>324</v>
+        <v>373</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" s="1" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="1" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" s="1" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" s="1" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="1" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" s="1" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" s="1" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" s="1" t="s">
-        <v>332</v>
+        <v>381</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" s="1" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" s="1" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" t="s">
-        <v>335</v>
+      <c r="A207" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" s="1" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" s="1" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" s="1" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" s="1" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" s="1" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" s="1" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" s="1" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" s="1" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" s="1" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" s="1" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218" s="1" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" s="1" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" s="1" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" s="1" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222" s="1" t="s">
-        <v>351</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C251">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -3641,31 +4685,620 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:B5"/>
+  <dimension ref="A2:B90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="23.625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
     <row r="3" spans="2:2">
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4">
-        <v>2</v>
+      <c r="B4" s="1" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5">
-        <v>3</v>
+      <c r="B5" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>481</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B3:B5">
+    <sortCondition ref="B3"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23985" windowHeight="17070"/>
+    <workbookView windowWidth="21030" windowHeight="17070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$251</definedName>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="694">
   <si>
     <t>同义词</t>
   </si>
@@ -945,289 +947,1162 @@
     <t>deprive</t>
   </si>
   <si>
+    <t>They've been deprived of the fuel neccessary to their homes.</t>
+  </si>
+  <si>
     <t>designate</t>
   </si>
   <si>
+    <t>There are efforts under way to designate the bridge a historic landmark.</t>
+  </si>
+  <si>
     <t>desirable</t>
   </si>
   <si>
+    <t>prolonged negotiation was not desiable.</t>
+  </si>
+  <si>
     <t>desire</t>
   </si>
   <si>
+    <t>I had a strong desire to help and care for people.</t>
+  </si>
+  <si>
     <t>flaw</t>
   </si>
   <si>
+    <t>The only flaw in his character seems to be a short temper.</t>
+  </si>
+  <si>
     <t>fling</t>
   </si>
   <si>
+    <t>Peter flung his shoes into the corner.</t>
+  </si>
+  <si>
     <t>flourish</t>
   </si>
   <si>
+    <t>Boston quickly became a flourishing port.</t>
+  </si>
+  <si>
     <t>hinder</t>
   </si>
   <si>
+    <t>Further investigation was hindered by the loss of all documentation on the case.</t>
+  </si>
+  <si>
     <t>hitherto</t>
   </si>
   <si>
+    <t>The rulling party is likely to be opened up to let in people hitherto excluded.</t>
+  </si>
+  <si>
     <t>impair</t>
   </si>
   <si>
+    <t>The blast left him with permanently impaired hearing.</t>
+  </si>
+  <si>
     <t>impart</t>
   </si>
   <si>
+    <t>The ablity to impart knowledge and command respect is the essential qualification for teachers.</t>
+  </si>
+  <si>
     <t>implication</t>
   </si>
   <si>
+    <t>The implication was obvious: vote for us or it will be very embarrassing for you.</t>
+  </si>
+  <si>
     <t>imply</t>
   </si>
   <si>
+    <t>What do these diffecences imply?</t>
+  </si>
+  <si>
     <t>impose</t>
   </si>
   <si>
+    <t>I was afraid you'd feel were imposing on you.</t>
+  </si>
+  <si>
     <t>impulse</t>
   </si>
   <si>
+    <t>Sean's a fast thinker, and he acts on impulse.</t>
+  </si>
+  <si>
     <t>petition</t>
   </si>
   <si>
+    <t>All the attempts to petition Congress had failed.</t>
+  </si>
+  <si>
     <t>phrase</t>
   </si>
   <si>
+    <t>The speech was carefully phrased.</t>
+  </si>
+  <si>
     <t>pierce</t>
   </si>
   <si>
+    <t>One bullet pierced the left side of his chest.</t>
+  </si>
+  <si>
     <t>servant</t>
   </si>
   <si>
+    <t>A large Victorian family with serveral servants.</t>
+  </si>
+  <si>
     <t>setback</t>
   </si>
   <si>
+    <t>It is an unexpected setback in her fortunes.</t>
+  </si>
+  <si>
     <t>settle</t>
   </si>
   <si>
+    <t>As far as we're concerned, the matter is settled.</t>
+  </si>
+  <si>
     <t>severe</t>
   </si>
   <si>
+    <t>A business with severe cash flow problems.</t>
+  </si>
+  <si>
     <t>shelter</t>
   </si>
   <si>
+    <t>A neighbour sheltered the boy for seven days.</t>
+  </si>
+  <si>
     <t>sophisticated</t>
   </si>
   <si>
+    <t>This process ought to be highly sophisticated.</t>
+  </si>
+  <si>
     <t>sovereign</t>
   </si>
   <si>
+    <t>Independence and sovereign equality among states is a fundamental principle of international law.</t>
+  </si>
+  <si>
     <t>sow</t>
   </si>
   <si>
+    <t>Sow the seed in a warm place in February.</t>
+  </si>
+  <si>
     <t>toll</t>
   </si>
   <si>
+    <t>Most people who drive the toll roads don't use them every day.</t>
+  </si>
+  <si>
     <t>Unit 11</t>
   </si>
   <si>
     <t>choke</t>
   </si>
   <si>
+    <t>The girl choked to death after breathing in smoke.</t>
+  </si>
+  <si>
     <t>chop</t>
   </si>
   <si>
+    <t>Chop the butter into small pieces.</t>
+  </si>
+  <si>
     <t>claim</t>
   </si>
   <si>
+    <t>He claimed that it was all a conspiracy against him.</t>
+  </si>
+  <si>
     <t>bore</t>
   </si>
   <si>
+    <t>Dickie bored him all through the meal with stories of the navy.</t>
+  </si>
+  <si>
     <t>bother</t>
   </si>
   <si>
+    <t>Is something bothering you?</t>
+  </si>
+  <si>
     <t>acute</t>
   </si>
   <si>
+    <t>The war has aggravated an acute economic crisis.</t>
+  </si>
+  <si>
     <t>despise</t>
   </si>
   <si>
+    <t>As to you, I despise you.</t>
+  </si>
+  <si>
     <t>despite</t>
   </si>
   <si>
+    <t>I failed the test despite studying all night.</t>
+  </si>
+  <si>
     <t>engage</t>
   </si>
   <si>
+    <t>I have never engaged in drug trafficking.</t>
+  </si>
+  <si>
     <t>folk</t>
   </si>
   <si>
+    <t>A variety of music including classical and folk.</t>
+  </si>
+  <si>
     <t>forge</t>
   </si>
   <si>
+    <t>They used forged documents to leave the country.</t>
+  </si>
+  <si>
     <t>grim</t>
   </si>
   <si>
+    <t>They painted a grim picture of growing crime.</t>
+  </si>
+  <si>
     <t>grasp</t>
   </si>
   <si>
+    <t>He grasped both my hands.</t>
+  </si>
+  <si>
     <t>grip</t>
   </si>
   <si>
+    <t>She gripped the rope.</t>
+  </si>
+  <si>
     <t>gross</t>
   </si>
   <si>
+    <t>He abused the Admiral in the grossest terms.</t>
+  </si>
+  <si>
     <t>incorporate</t>
   </si>
   <si>
+    <t>The new cars will incorporate a number of major improvements.</t>
+  </si>
+  <si>
     <t>incur</t>
   </si>
   <si>
+    <t>The government had also incurred huge debts.</t>
+  </si>
+  <si>
     <t>literally</t>
   </si>
   <si>
+    <t>The word "volk" translates literally as "folk".</t>
+  </si>
+  <si>
     <t>mention</t>
   </si>
   <si>
+    <t>She did not mention her mother's absence.</t>
+  </si>
+  <si>
     <t>outcome</t>
   </si>
   <si>
+    <t>It's too early to know the outcome of her illness.</t>
+  </si>
+  <si>
     <t>signify</t>
   </si>
   <si>
+    <t>These were not the only changes that signified the end of boyhood.</t>
+  </si>
+  <si>
     <t>slack</t>
   </si>
   <si>
+    <t>If someone slacks off, Bill comes down hard.</t>
+  </si>
+  <si>
     <t>Unit 12</t>
   </si>
   <si>
     <t>admire</t>
   </si>
   <si>
+    <t>He admired the way she had copod with life.</t>
+  </si>
+  <si>
     <t>admit</t>
   </si>
   <si>
+    <t>I am willing to admit that I do make mistake.</t>
+  </si>
+  <si>
     <t>brace</t>
   </si>
   <si>
+    <t>He braced himself for the icy plunge into the black water.</t>
+  </si>
+  <si>
     <t>toss</t>
   </si>
   <si>
+    <t>Just toss it in the rubbish.</t>
+  </si>
+  <si>
     <t>vicious</t>
   </si>
   <si>
+    <t>He was a cruel and vicious man.</t>
+  </si>
+  <si>
     <t>cling</t>
   </si>
   <si>
+    <t>Another man was rescued as he clung to the riverbank.</t>
+  </si>
+  <si>
     <t>closet</t>
   </si>
   <si>
+    <t>The boots belong in the closet.</t>
+  </si>
+  <si>
     <t>personnel</t>
   </si>
   <si>
+    <t>Job seekers should apply at the personnel office.</t>
+  </si>
+  <si>
     <t>former</t>
   </si>
   <si>
+    <t>The unemployed executives include former sales managers.</t>
+  </si>
+  <si>
     <t>formidable</t>
   </si>
   <si>
+    <t>We have a formidable task ahead of us.</t>
+  </si>
+  <si>
     <t>formulate</t>
   </si>
   <si>
+    <t>I was impressed by the way he could formulate his ideas.</t>
+  </si>
+  <si>
     <t>fortunate</t>
   </si>
   <si>
+    <t>He was extremely fortunate to survice.</t>
+  </si>
+  <si>
     <t>fortune</t>
   </si>
   <si>
+    <t>He made a small fortune in the property boom.</t>
+  </si>
+  <si>
     <t>recruit</t>
   </si>
   <si>
+    <t>The police are trying to recruit more black and Hispanic officers.</t>
+  </si>
+  <si>
     <t>soak</t>
   </si>
   <si>
+    <t>Soak the beans for 2 hours.</t>
+  </si>
+  <si>
     <t>detain</t>
   </si>
   <si>
+    <t>Police have detained two suspects in connection with the attack.</t>
+  </si>
+  <si>
     <t>Unit 13</t>
   </si>
   <si>
     <t>shade</t>
   </si>
   <si>
+    <t>The walls were painted in two shades of green.</t>
+  </si>
+  <si>
     <t>sour</t>
   </si>
   <si>
+    <t>The stewed apple was sour even with honey.</t>
+  </si>
+  <si>
     <t>advise</t>
   </si>
   <si>
+    <t>The minister advised him to leave as soon as possible.</t>
+  </si>
+  <si>
     <t>advocate</t>
   </si>
   <si>
+    <t>He was a strong advocate of free market polities and a multi-party system.</t>
+  </si>
+  <si>
     <t>affair</t>
   </si>
   <si>
+    <t>THe administration has mishandled the whole affair.</t>
+  </si>
+  <si>
     <t>affect</t>
   </si>
   <si>
+    <t>More than seven million people have been affected by drought.</t>
+  </si>
+  <si>
     <t>affection</t>
   </si>
   <si>
+    <t>She thought of him with affection.</t>
+  </si>
+  <si>
     <t>affiliate</t>
   </si>
   <si>
+    <t>The World Chess Federation has affiliates in around 120 countries.</t>
+  </si>
+  <si>
     <t>affirm</t>
   </si>
   <si>
+    <t>Everything I had accomplished seems to affirm that opinion.</t>
+  </si>
+  <si>
     <t>afford</t>
   </si>
   <si>
+    <t>My parents can't even afford a new refrigerator.</t>
+  </si>
+  <si>
     <t>breach</t>
   </si>
   <si>
+    <t>The newspaper breached the code of conduct on privacy.</t>
+  </si>
+  <si>
     <t>breed</t>
   </si>
   <si>
+    <t>He lived alone, breeding horses and dogs.</t>
+  </si>
+  <si>
     <t>coincide</t>
   </si>
   <si>
+    <t>The exhibition coincides with the 50th anniversary of his death.</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>He collapsed following a vigorous exericse session at his home.</t>
+  </si>
+  <si>
     <t>commend</t>
   </si>
   <si>
+    <t>I commended her for that action.</t>
+  </si>
+  <si>
     <t>commerce</t>
   </si>
   <si>
+    <t>They have made their fortune from industry and commerce.</t>
+  </si>
+  <si>
     <t>commission</t>
   </si>
   <si>
+    <t>You can commission them to paint something especially for you.</t>
+  </si>
+  <si>
     <t>commodity</t>
   </si>
   <si>
+    <t>Prices went up on several basic commodities like bread and meat.</t>
+  </si>
+  <si>
     <t>communism</t>
   </si>
   <si>
+    <t>The ultimate triumph of communism in the world.</t>
+  </si>
+  <si>
     <t>deteriorate</t>
   </si>
   <si>
+    <t>There are fears that the situation might deteriorate into full-scale war.</t>
+  </si>
+  <si>
     <t>entail</t>
   </si>
   <si>
+    <t>Such a decision would entail a huge political risk in the midst of the presidential campain.</t>
+  </si>
+  <si>
     <t>indeed</t>
   </si>
   <si>
+    <t>Did you know him?  --"I did indeed."</t>
+  </si>
+  <si>
     <t>merely</t>
   </si>
   <si>
+    <t>Michael is now merely a good friend.</t>
+  </si>
+  <si>
     <t>plausible</t>
   </si>
   <si>
+    <t>All I can say is that he was so plausible it wasn't just me that he conned.</t>
+  </si>
+  <si>
     <t>plea</t>
   </si>
   <si>
+    <t>We will enter a plea of not guilty.</t>
+  </si>
+  <si>
     <t>plead</t>
   </si>
   <si>
+    <t>The lady pleaded with her daughter to come back home.</t>
+  </si>
+  <si>
     <t>poll</t>
   </si>
   <si>
+    <t>Polls show that the European treatly has gained support in Denmark.</t>
+  </si>
+  <si>
     <t>ponder</t>
+  </si>
+  <si>
+    <t>He pondered over the difficult involved.</t>
+  </si>
+  <si>
+    <t>Unit 14</t>
+  </si>
+  <si>
+    <t>brisk</t>
+  </si>
+  <si>
+    <t>brief</t>
+  </si>
+  <si>
+    <t>brittle</t>
+  </si>
+  <si>
+    <t>aggravate</t>
+  </si>
+  <si>
+    <t>aggressive</t>
+  </si>
+  <si>
+    <t>agitate</t>
+  </si>
+  <si>
+    <t>aliente</t>
+  </si>
+  <si>
+    <t>compel</t>
+  </si>
+  <si>
+    <t>compensate</t>
+  </si>
+  <si>
+    <t>competent</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>complement</t>
+  </si>
+  <si>
+    <t>comply</t>
+  </si>
+  <si>
+    <t>compliment</t>
+  </si>
+  <si>
+    <t>emphasis</t>
+  </si>
+  <si>
+    <t>endeavor</t>
+  </si>
+  <si>
+    <t>endorse</t>
+  </si>
+  <si>
+    <t>indicate</t>
+  </si>
+  <si>
+    <t>outrage</t>
+  </si>
+  <si>
+    <t>outset</t>
+  </si>
+  <si>
+    <t>outward</t>
+  </si>
+  <si>
+    <t>speculate</t>
+  </si>
+  <si>
+    <t>Unit 15</t>
+  </si>
+  <si>
+    <t>consist</t>
+  </si>
+  <si>
+    <t>consistent</t>
+  </si>
+  <si>
+    <t>constituent</t>
+  </si>
+  <si>
+    <t>constitute</t>
+  </si>
+  <si>
+    <t>constrain</t>
+  </si>
+  <si>
+    <t>overlook</t>
+  </si>
+  <si>
+    <t>fruitful</t>
+  </si>
+  <si>
+    <t>frustrate</t>
+  </si>
+  <si>
+    <t>fulfill</t>
+  </si>
+  <si>
+    <t>anguish</t>
+  </si>
+  <si>
+    <t>monopoly</t>
+  </si>
+  <si>
+    <t>monotonous</t>
+  </si>
+  <si>
+    <t>mood</t>
+  </si>
+  <si>
+    <t>transmission</t>
+  </si>
+  <si>
+    <t>transplant</t>
+  </si>
+  <si>
+    <t>stride</t>
+  </si>
+  <si>
+    <t>striking</t>
+  </si>
+  <si>
+    <t>stun</t>
+  </si>
+  <si>
+    <t>principal</t>
+  </si>
+  <si>
+    <t>psychiatry</t>
+  </si>
+  <si>
+    <t>innocent</t>
+  </si>
+  <si>
+    <t>Unit 16</t>
+  </si>
+  <si>
+    <t>possess</t>
+  </si>
+  <si>
+    <t>dilute</t>
+  </si>
+  <si>
+    <t>diminish</t>
+  </si>
+  <si>
+    <t>compromise</t>
+  </si>
+  <si>
+    <t>conceive</t>
+  </si>
+  <si>
+    <t>concentrate</t>
+  </si>
+  <si>
+    <t>concise</t>
+  </si>
+  <si>
+    <t>conclude</t>
+  </si>
+  <si>
+    <t>confer</t>
+  </si>
+  <si>
+    <t>confess</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>indignant</t>
+  </si>
+  <si>
+    <t>indispensable</t>
+  </si>
+  <si>
+    <t>mess</t>
+  </si>
+  <si>
+    <t>militant</t>
+  </si>
+  <si>
+    <t>redeem</t>
+  </si>
+  <si>
+    <t>reduction</t>
+  </si>
+  <si>
+    <t>spur</t>
+  </si>
+  <si>
+    <t>tidy</t>
+  </si>
+  <si>
+    <t>I'm very impressed by your tidiness and order.</t>
+  </si>
+  <si>
+    <t>tilt</t>
+  </si>
+  <si>
+    <t>She tilted the mirror and began to comb her hair.</t>
+  </si>
+  <si>
+    <t>weed</t>
+  </si>
+  <si>
+    <t>Caspar was weeding the garden.</t>
+  </si>
+  <si>
+    <t>weep</t>
+  </si>
+  <si>
+    <t>She wanted to laugh and weep all at once.</t>
+  </si>
+  <si>
+    <t>anecdote</t>
+  </si>
+  <si>
+    <t>Peter was telling them an anecdote about their mother.</t>
+  </si>
+  <si>
+    <t>betray</t>
+  </si>
+  <si>
+    <t>They offered me money if I would betray my associate.</t>
+  </si>
+  <si>
+    <t>beware</t>
+  </si>
+  <si>
+    <t>Beware of beging too impatient with others.</t>
+  </si>
+  <si>
+    <t>bewilder</t>
+  </si>
+  <si>
+    <t>The silence from Alex had hurt and bewildered her.</t>
+  </si>
+  <si>
+    <t>clutch</t>
+  </si>
+  <si>
+    <t>I staggered and had to cluth at a chair for support.</t>
+  </si>
+  <si>
+    <t>desolate</t>
+  </si>
+  <si>
+    <t>He was desolate without her.</t>
+  </si>
+  <si>
+    <t>despair</t>
+  </si>
+  <si>
+    <t>I looked at my wife in despair.</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>He was a boy who desperately needed affection.</t>
+  </si>
+  <si>
+    <t>enormous</t>
+  </si>
+  <si>
+    <t>The main bedroom is enormous.</t>
+  </si>
+  <si>
+    <t>enroll</t>
+  </si>
+  <si>
+    <t>The school will enroll new students in August.</t>
+  </si>
+  <si>
+    <t>fiscal</t>
+  </si>
+  <si>
+    <t>This is not quite an act of fiscal unification.</t>
+  </si>
+  <si>
+    <t>innumerable</t>
+  </si>
+  <si>
+    <t>He has invented innumberable excusses, told endless lies.</t>
+  </si>
+  <si>
+    <t>inquiry/enquiry</t>
+  </si>
+  <si>
+    <t>The investigation has suddenly switched to a new line of inquiry.</t>
+  </si>
+  <si>
+    <t>lest</t>
+  </si>
+  <si>
+    <t>I was afraided to open the door lest he should follow me.</t>
+  </si>
+  <si>
+    <t>poke</t>
+  </si>
+  <si>
+    <t>Lindy poked him in the ribs.</t>
+  </si>
+  <si>
+    <t>pole</t>
+  </si>
+  <si>
+    <t>The truct crashed into a telegraph pole.</t>
+  </si>
+  <si>
+    <t>pollute</t>
+  </si>
+  <si>
+    <t>Heavy industry pollutes our rivers with noxious chemicals.</t>
+  </si>
+  <si>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>There is no peace where men are greedy.</t>
+  </si>
+  <si>
+    <t>snap</t>
+  </si>
+  <si>
+    <t>snatch</t>
+  </si>
+  <si>
+    <t>sneak</t>
+  </si>
+  <si>
+    <t>sneeze</t>
+  </si>
+  <si>
+    <t>sniff</t>
+  </si>
+  <si>
+    <t>snobbish</t>
+  </si>
+  <si>
+    <t>deviate</t>
+  </si>
+  <si>
+    <t>devote</t>
+  </si>
+  <si>
+    <t>fixture</t>
+  </si>
+  <si>
+    <t>flame</t>
+  </si>
+  <si>
+    <t>flap</t>
+  </si>
+  <si>
+    <t>flare</t>
+  </si>
+  <si>
+    <t>flatter</t>
+  </si>
+  <si>
+    <t>flee</t>
+  </si>
+  <si>
+    <t>flesh</t>
+  </si>
+  <si>
+    <t>anyhow</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>biography</t>
+  </si>
+  <si>
+    <t>coherent</t>
+  </si>
+  <si>
+    <t>cohesive</t>
+  </si>
+  <si>
+    <t>collar</t>
+  </si>
+  <si>
+    <t>colonel</t>
+  </si>
+  <si>
+    <t>colonial</t>
+  </si>
+  <si>
+    <t>colony</t>
+  </si>
+  <si>
+    <t>enthusiasm</t>
+  </si>
+  <si>
+    <t>entrepreneur</t>
+  </si>
+  <si>
+    <t>whale</t>
+  </si>
+  <si>
+    <t>whereas</t>
+  </si>
+  <si>
+    <t>whip</t>
+  </si>
+  <si>
+    <t>unit 3</t>
+  </si>
+  <si>
+    <t>sob</t>
+  </si>
+  <si>
+    <t>sober</t>
+  </si>
+  <si>
+    <t>solemn</t>
+  </si>
+  <si>
+    <t>hike</t>
+  </si>
+  <si>
+    <t>hinge</t>
+  </si>
+  <si>
+    <t>insist</t>
+  </si>
+  <si>
+    <t>inspect</t>
+  </si>
+  <si>
+    <t>inspiration</t>
+  </si>
+  <si>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>mechandise</t>
+  </si>
+  <si>
+    <t>merchat</t>
+  </si>
+  <si>
+    <t>mercury</t>
+  </si>
+  <si>
+    <t>mercy</t>
+  </si>
+  <si>
+    <t>merit</t>
+  </si>
+  <si>
+    <t>metaphor</t>
+  </si>
+  <si>
+    <t>metropolitan</t>
+  </si>
+  <si>
+    <t>nonsense</t>
+  </si>
+  <si>
+    <t>orbit</t>
+  </si>
+  <si>
+    <t>pope</t>
+  </si>
+  <si>
+    <t>porcelain</t>
+  </si>
+  <si>
+    <t>porter</t>
+  </si>
+  <si>
+    <t>portfolio</t>
+  </si>
+  <si>
+    <t>portrait</t>
+  </si>
+  <si>
+    <t>portray</t>
+  </si>
+  <si>
+    <t>postpone</t>
+  </si>
+  <si>
+    <t>posture</t>
+  </si>
+  <si>
+    <t>remnant</t>
+  </si>
+  <si>
+    <t>renaissance</t>
+  </si>
+  <si>
+    <t>renovate</t>
+  </si>
+  <si>
+    <t>repel</t>
+  </si>
+  <si>
+    <t>repertoire</t>
+  </si>
+  <si>
+    <t>tiresome</t>
+  </si>
+  <si>
+    <t>toil</t>
+  </si>
+  <si>
+    <t>blade</t>
+  </si>
+  <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>blaze</t>
+  </si>
+  <si>
+    <t>according to</t>
+  </si>
+  <si>
+    <t>such as</t>
+  </si>
+  <si>
+    <t>seem to</t>
+  </si>
+  <si>
+    <t>rather than</t>
+  </si>
+  <si>
+    <t>tend to</t>
+  </si>
+  <si>
+    <t>instead of</t>
+  </si>
+  <si>
+    <t>at the end of</t>
+  </si>
+  <si>
+    <t>be likely to</t>
+  </si>
+  <si>
+    <t>fail to</t>
+  </si>
+  <si>
+    <t>as well as</t>
+  </si>
+  <si>
+    <t>not longer</t>
+  </si>
+  <si>
+    <t>result in</t>
+  </si>
+  <si>
+    <t>add to</t>
+  </si>
+  <si>
+    <t>depend on</t>
+  </si>
+  <si>
+    <t>look for</t>
+  </si>
+  <si>
+    <t>so that</t>
+  </si>
+  <si>
+    <t>lack of</t>
+  </si>
+  <si>
+    <t>deal with</t>
+  </si>
+  <si>
+    <t>as a result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refer to </t>
+  </si>
+  <si>
+    <t>in fact</t>
+  </si>
+  <si>
+    <t>be exposed to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be interested in </t>
   </si>
 </sst>
 </file>
@@ -1236,13 +2111,27 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1256,17 +2145,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FF434343"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1277,7 +2166,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1285,7 +2181,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1300,23 +2196,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1331,15 +2218,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1348,20 +2234,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1391,13 +2263,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1428,19 +2310,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,13 +2334,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,25 +2364,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1500,37 +2388,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,13 +2424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1566,49 +2442,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,6 +2501,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1639,50 +2569,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1705,15 +2596,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1727,10 +2609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1739,7 +2621,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1748,7 +2630,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1757,120 +2639,123 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1879,22 +2764,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2216,19 +3104,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G251"/>
+  <dimension ref="A1:G316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="F158" sqref="F158"/>
+    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="B317" sqref="B317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="20.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.14166666666667" style="1"/>
+    <col min="1" max="1" width="9.14166666666667" style="4"/>
     <col min="2" max="2" width="22.4666666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="76" style="2" customWidth="1"/>
+    <col min="6" max="6" width="77.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2241,13 +3129,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2256,7 +3144,7 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="2" t="s">
@@ -2297,10 +3185,10 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2311,10 +3199,10 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2344,7 +3232,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2355,10 +3243,10 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -2366,10 +3254,10 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -2385,10 +3273,10 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -2420,10 +3308,10 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="6">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -2431,10 +3319,10 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="6">
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -2458,10 +3346,10 @@
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="6">
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -2477,7 +3365,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2496,10 +3384,10 @@
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="6">
         <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -2563,10 +3451,10 @@
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="6">
         <v>1</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -2582,10 +3470,10 @@
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="6">
         <v>1</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -2617,7 +3505,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2628,10 +3516,10 @@
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="6">
         <v>1</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -2663,13 +3551,13 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="6">
         <v>1</v>
       </c>
       <c r="F50" s="2" t="s">
@@ -2725,10 +3613,10 @@
       </c>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="6">
         <v>1</v>
       </c>
       <c r="F57" s="2" t="s">
@@ -2752,10 +3640,10 @@
       </c>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="6">
         <v>1</v>
       </c>
       <c r="F60" s="2" t="s">
@@ -2779,10 +3667,10 @@
       </c>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="6">
         <v>1</v>
       </c>
       <c r="F63" s="2" t="s">
@@ -2790,10 +3678,10 @@
       </c>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="6">
         <v>1</v>
       </c>
       <c r="F64" s="2" t="s">
@@ -2809,7 +3697,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -2828,10 +3716,10 @@
       </c>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="6">
         <v>1</v>
       </c>
       <c r="F69" s="2" t="s">
@@ -2847,10 +3735,10 @@
       </c>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="6">
         <v>1</v>
       </c>
       <c r="F71" s="2" t="s">
@@ -2858,10 +3746,10 @@
       </c>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="6">
         <v>1</v>
       </c>
       <c r="F72" s="2" t="s">
@@ -2901,10 +3789,10 @@
       </c>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="6">
         <v>1</v>
       </c>
       <c r="F77" s="2" t="s">
@@ -2912,10 +3800,10 @@
       </c>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="6">
         <v>1</v>
       </c>
       <c r="F78" s="2" t="s">
@@ -2923,10 +3811,10 @@
       </c>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="6">
         <v>1</v>
       </c>
       <c r="F79" s="2" t="s">
@@ -2934,10 +3822,10 @@
       </c>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="6">
         <v>1</v>
       </c>
       <c r="F80" s="2" t="s">
@@ -2945,10 +3833,10 @@
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="6">
         <v>1</v>
       </c>
       <c r="F81" s="2" t="s">
@@ -2964,13 +3852,13 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="6">
         <v>1</v>
       </c>
       <c r="F84" s="2" t="s">
@@ -2978,11 +3866,11 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="7"/>
-      <c r="B85" s="8" t="s">
+      <c r="A85" s="8"/>
+      <c r="B85" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="6">
         <v>1</v>
       </c>
       <c r="F85" s="2" t="s">
@@ -2990,11 +3878,11 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="7"/>
-      <c r="B86" s="8" t="s">
+      <c r="A86" s="8"/>
+      <c r="B86" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="6">
         <v>1</v>
       </c>
       <c r="F86" s="2" t="s">
@@ -3002,41 +3890,41 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="7"/>
-      <c r="B87" s="5" t="s">
+      <c r="A87" s="8"/>
+      <c r="B87" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C87" s="5"/>
+      <c r="C87" s="6"/>
       <c r="F87" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="7"/>
-      <c r="B88" s="5" t="s">
+      <c r="A88" s="8"/>
+      <c r="B88" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C88" s="5"/>
+      <c r="C88" s="6"/>
       <c r="F88" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="7"/>
-      <c r="B89" s="5" t="s">
+      <c r="A89" s="8"/>
+      <c r="B89" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C89" s="5"/>
+      <c r="C89" s="6"/>
       <c r="F89" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="7"/>
-      <c r="B90" s="8" t="s">
+      <c r="A90" s="8"/>
+      <c r="B90" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="6">
         <v>1</v>
       </c>
       <c r="F90" s="2" t="s">
@@ -3044,51 +3932,51 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="7"/>
-      <c r="B91" s="5" t="s">
+      <c r="A91" s="8"/>
+      <c r="B91" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C91" s="5"/>
+      <c r="C91" s="6"/>
       <c r="F91" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="7"/>
-      <c r="B92" s="5" t="s">
+      <c r="A92" s="8"/>
+      <c r="B92" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C92" s="5"/>
+      <c r="C92" s="6"/>
       <c r="F92" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="7"/>
-      <c r="B93" s="5" t="s">
+      <c r="A93" s="8"/>
+      <c r="B93" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C93" s="5"/>
+      <c r="C93" s="6"/>
       <c r="F93" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="7"/>
-      <c r="B94" s="5" t="s">
+      <c r="A94" s="8"/>
+      <c r="B94" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C94" s="5"/>
+      <c r="C94" s="6"/>
       <c r="F94" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="7"/>
-      <c r="B95" s="8" t="s">
+      <c r="A95" s="8"/>
+      <c r="B95" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="6">
         <v>1</v>
       </c>
       <c r="F95" s="2" t="s">
@@ -3096,21 +3984,21 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="7"/>
-      <c r="B96" s="5" t="s">
+      <c r="A96" s="8"/>
+      <c r="B96" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C96" s="5"/>
+      <c r="C96" s="6"/>
       <c r="F96" s="2" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="7"/>
-      <c r="B97" s="8" t="s">
+      <c r="A97" s="8"/>
+      <c r="B97" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="6">
         <v>1</v>
       </c>
       <c r="F97" s="2" t="s">
@@ -3118,21 +4006,21 @@
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="7"/>
-      <c r="B98" s="5" t="s">
+      <c r="A98" s="8"/>
+      <c r="B98" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C98" s="5"/>
+      <c r="C98" s="6"/>
       <c r="F98" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="7"/>
-      <c r="B99" s="8" t="s">
+      <c r="A99" s="8"/>
+      <c r="B99" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="6">
         <v>1</v>
       </c>
       <c r="F99" s="2" t="s">
@@ -3140,21 +4028,21 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="7"/>
-      <c r="B100" s="5" t="s">
+      <c r="A100" s="8"/>
+      <c r="B100" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C100" s="5"/>
+      <c r="C100" s="6"/>
       <c r="F100" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="7"/>
-      <c r="B101" s="8" t="s">
+      <c r="A101" s="8"/>
+      <c r="B101" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101" s="6">
         <v>1</v>
       </c>
       <c r="F101" s="2" t="s">
@@ -3162,11 +4050,11 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="7"/>
-      <c r="B102" s="8" t="s">
+      <c r="A102" s="8"/>
+      <c r="B102" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="6">
         <v>1</v>
       </c>
       <c r="F102" s="2" t="s">
@@ -3174,21 +4062,21 @@
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="7"/>
-      <c r="B103" s="5" t="s">
+      <c r="A103" s="8"/>
+      <c r="B103" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C103" s="5"/>
+      <c r="C103" s="6"/>
       <c r="F103" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="7"/>
-      <c r="B104" s="8" t="s">
+      <c r="A104" s="8"/>
+      <c r="B104" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="6">
         <v>1</v>
       </c>
       <c r="F104" s="2" t="s">
@@ -3196,11 +4084,11 @@
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="7"/>
-      <c r="B105" s="8" t="s">
+      <c r="A105" s="8"/>
+      <c r="B105" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="6">
         <v>1</v>
       </c>
       <c r="F105" s="2" t="s">
@@ -3208,11 +4096,11 @@
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="7"/>
-      <c r="B106" s="8" t="s">
+      <c r="A106" s="8"/>
+      <c r="B106" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="6">
         <v>1</v>
       </c>
       <c r="F106" s="2" t="s">
@@ -3220,21 +4108,21 @@
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="7"/>
-      <c r="B107" s="5" t="s">
+      <c r="A107" s="8"/>
+      <c r="B107" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C107" s="5"/>
+      <c r="C107" s="6"/>
       <c r="F107" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="7"/>
-      <c r="B108" s="8" t="s">
+      <c r="A108" s="8"/>
+      <c r="B108" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="6">
         <v>1</v>
       </c>
       <c r="F108" s="2" t="s">
@@ -3242,13 +4130,13 @@
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110" s="6">
         <v>1</v>
       </c>
       <c r="F110" s="2" t="s">
@@ -3256,11 +4144,11 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="7"/>
-      <c r="B111" s="8" t="s">
+      <c r="A111" s="8"/>
+      <c r="B111" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="6">
         <v>1</v>
       </c>
       <c r="F111" s="2" t="s">
@@ -3268,11 +4156,11 @@
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="7"/>
-      <c r="B112" s="8" t="s">
+      <c r="A112" s="8"/>
+      <c r="B112" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="6">
         <v>1</v>
       </c>
       <c r="F112" s="2" t="s">
@@ -3280,11 +4168,11 @@
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="7"/>
-      <c r="B113" s="8" t="s">
+      <c r="A113" s="8"/>
+      <c r="B113" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="6">
         <v>1</v>
       </c>
       <c r="F113" s="2" t="s">
@@ -3292,78 +4180,78 @@
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="7"/>
-      <c r="B114" s="5" t="s">
+      <c r="A114" s="8"/>
+      <c r="B114" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C114" s="5"/>
+      <c r="C114" s="6"/>
       <c r="F114" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="7"/>
-      <c r="B115" s="5" t="s">
+      <c r="A115" s="8"/>
+      <c r="B115" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C115" s="5"/>
+      <c r="C115" s="6"/>
       <c r="F115" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="7"/>
-      <c r="B116" s="5" t="s">
+      <c r="A116" s="8"/>
+      <c r="B116" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C116" s="5"/>
+      <c r="C116" s="6"/>
       <c r="F116" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="7"/>
-      <c r="B117" s="5" t="s">
+      <c r="A117" s="8"/>
+      <c r="B117" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C117" s="5"/>
+      <c r="C117" s="6"/>
       <c r="F117" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="7"/>
-      <c r="B118" s="5" t="s">
+      <c r="A118" s="8"/>
+      <c r="B118" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C118" s="5"/>
+      <c r="C118" s="6"/>
       <c r="F118" s="2" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="7"/>
-      <c r="B119" s="5" t="s">
+      <c r="A119" s="8"/>
+      <c r="B119" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C119" s="5"/>
+      <c r="C119" s="6"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="7"/>
-      <c r="B120" s="5" t="s">
+      <c r="A120" s="8"/>
+      <c r="B120" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C120" s="5"/>
+      <c r="C120" s="6"/>
       <c r="F120" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="7"/>
-      <c r="B121" s="8" t="s">
+      <c r="A121" s="8"/>
+      <c r="B121" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121" s="6">
         <v>1</v>
       </c>
       <c r="F121" s="2" t="s">
@@ -3371,11 +4259,11 @@
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="7"/>
-      <c r="B122" s="8" t="s">
+      <c r="A122" s="8"/>
+      <c r="B122" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122" s="6">
         <v>1</v>
       </c>
       <c r="F122" s="2" t="s">
@@ -3383,51 +4271,51 @@
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="7"/>
-      <c r="B123" s="5" t="s">
+      <c r="A123" s="8"/>
+      <c r="B123" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C123" s="5"/>
+      <c r="C123" s="6"/>
       <c r="F123" s="2" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="7"/>
-      <c r="B124" s="5" t="s">
+      <c r="A124" s="8"/>
+      <c r="B124" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C124" s="5"/>
+      <c r="C124" s="6"/>
       <c r="F124" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="7"/>
-      <c r="B125" s="5" t="s">
+      <c r="A125" s="8"/>
+      <c r="B125" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C125" s="5"/>
+      <c r="C125" s="6"/>
       <c r="F125" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="7"/>
-      <c r="B126" s="5" t="s">
+      <c r="A126" s="8"/>
+      <c r="B126" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C126" s="5"/>
+      <c r="C126" s="6"/>
       <c r="F126" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="7"/>
-      <c r="B127" s="8" t="s">
+      <c r="A127" s="8"/>
+      <c r="B127" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127" s="6">
         <v>1</v>
       </c>
       <c r="F127" s="2" t="s">
@@ -3435,11 +4323,11 @@
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="7"/>
-      <c r="B128" s="8" t="s">
+      <c r="A128" s="8"/>
+      <c r="B128" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128" s="6">
         <v>1</v>
       </c>
       <c r="F128" s="2" t="s">
@@ -3447,11 +4335,11 @@
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="7"/>
-      <c r="B129" s="8" t="s">
+      <c r="A129" s="8"/>
+      <c r="B129" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C129" s="6">
         <v>1</v>
       </c>
       <c r="F129" s="2" t="s">
@@ -3459,11 +4347,11 @@
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="7"/>
-      <c r="B130" s="8" t="s">
+      <c r="A130" s="8"/>
+      <c r="B130" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130" s="6">
         <v>1</v>
       </c>
       <c r="F130" s="2" t="s">
@@ -3471,37 +4359,46 @@
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="7"/>
-      <c r="B131" s="5" t="s">
+      <c r="A131" s="8"/>
+      <c r="B131" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C131" s="5"/>
+      <c r="C131" s="6"/>
       <c r="F131" s="2" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="5" t="s">
         <v>262</v>
+      </c>
+      <c r="C133" s="2">
+        <v>1</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="134" spans="2:6">
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="5" t="s">
         <v>264</v>
+      </c>
+      <c r="C134" s="2">
+        <v>1</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="135" spans="2:6">
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="5" t="s">
         <v>266</v>
+      </c>
+      <c r="C135" s="2">
+        <v>1</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>267</v>
@@ -3540,8 +4437,11 @@
       </c>
     </row>
     <row r="140" spans="2:6">
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="5" t="s">
         <v>276</v>
+      </c>
+      <c r="C140" s="2">
+        <v>1</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>277</v>
@@ -3556,24 +4456,33 @@
       </c>
     </row>
     <row r="142" spans="2:6">
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="5" t="s">
         <v>280</v>
+      </c>
+      <c r="C142" s="2">
+        <v>1</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="143" spans="2:6">
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="5" t="s">
         <v>282</v>
+      </c>
+      <c r="C143" s="2">
+        <v>1</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="144" spans="2:6">
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="5" t="s">
         <v>284</v>
+      </c>
+      <c r="C144" s="2">
+        <v>1</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>285</v>
@@ -3596,8 +4505,11 @@
       </c>
     </row>
     <row r="147" spans="2:6">
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="5" t="s">
         <v>290</v>
+      </c>
+      <c r="C147" s="2">
+        <v>1</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>291</v>
@@ -3628,24 +4540,33 @@
       </c>
     </row>
     <row r="151" spans="2:6">
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="5" t="s">
         <v>298</v>
+      </c>
+      <c r="C151" s="2">
+        <v>1</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="152" spans="2:6">
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="5" t="s">
         <v>300</v>
+      </c>
+      <c r="C152" s="2">
+        <v>1</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="153" spans="2:6">
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="5" t="s">
         <v>302</v>
+      </c>
+      <c r="C153" s="2">
+        <v>1</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>303</v>
@@ -3659,481 +4580,1129 @@
         <v>305</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="3" t="s">
+    <row r="156" spans="1:6">
+      <c r="A156" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="5" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="157" spans="2:2">
+      <c r="F156" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6">
       <c r="B157" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2">
+        <v>309</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6">
       <c r="B158" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2">
+        <v>311</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6">
       <c r="B159" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2">
+        <v>313</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6">
       <c r="B160" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2">
+        <v>315</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6">
       <c r="B161" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2">
+        <v>317</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6">
       <c r="B162" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2">
+        <v>319</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6">
       <c r="B163" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2">
+        <v>321</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6">
       <c r="B164" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2">
+        <v>323</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6">
       <c r="B165" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2">
+        <v>325</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6">
       <c r="B166" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2">
+        <v>327</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6">
       <c r="B167" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2">
+        <v>329</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6">
       <c r="B168" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2">
+        <v>331</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6">
       <c r="B169" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2">
+        <v>333</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6">
       <c r="B170" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2">
+        <v>335</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6">
       <c r="B171" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2">
+        <v>337</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6">
       <c r="B172" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2">
+        <v>339</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6">
       <c r="B173" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2">
+        <v>341</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6">
       <c r="B174" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2">
+        <v>343</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6">
       <c r="B175" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2">
+        <v>345</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6">
       <c r="B176" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2">
+        <v>347</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6">
       <c r="B177" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2">
+        <v>349</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6">
       <c r="B178" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2">
+        <v>351</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6">
       <c r="B179" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2">
+        <v>353</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6">
       <c r="B180" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2">
+        <v>355</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6">
       <c r="B181" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2">
+        <v>357</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6">
       <c r="B182" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="3" t="s">
-        <v>334</v>
+        <v>359</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2">
+        <v>362</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6">
       <c r="B185" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2">
+        <v>364</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6">
       <c r="B186" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2">
+        <v>366</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6">
       <c r="B187" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2">
+        <v>368</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6">
       <c r="B188" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2">
+        <v>370</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6">
       <c r="B189" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2">
+        <v>372</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6">
       <c r="B190" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2">
+        <v>374</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6">
       <c r="B191" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2">
+        <v>376</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6">
       <c r="B192" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2">
+        <v>378</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6">
       <c r="B193" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2">
+        <v>380</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6">
       <c r="B194" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2">
+        <v>382</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6">
       <c r="B195" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="196" spans="2:2">
+        <v>384</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6">
       <c r="B196" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="197" spans="2:2">
+        <v>386</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6">
       <c r="B197" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2">
+        <v>388</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6">
       <c r="B198" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2">
+        <v>390</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6">
       <c r="B199" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="200" spans="2:2">
+        <v>392</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6">
       <c r="B200" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2">
+        <v>394</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6">
       <c r="B201" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2">
+        <v>396</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6">
       <c r="B202" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="203" spans="2:2">
+        <v>398</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6">
       <c r="B203" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="204" spans="2:2">
+        <v>400</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6">
       <c r="B204" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2">
+        <v>402</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6">
       <c r="B205" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="208" spans="2:2">
-      <c r="B208" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2">
+        <v>404</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6">
+      <c r="B208" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6">
       <c r="B209" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2">
+        <v>411</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6">
       <c r="B210" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="211" spans="2:2">
-      <c r="B211" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="212" spans="2:2">
+        <v>413</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6">
+      <c r="B211" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6">
       <c r="B212" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="213" spans="2:2">
+        <v>417</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6">
       <c r="B213" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="214" spans="2:2">
+        <v>419</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6">
       <c r="B214" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="215" spans="2:2">
+        <v>421</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6">
       <c r="B215" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2">
+        <v>423</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6">
       <c r="B216" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="217" spans="2:2">
-      <c r="B217" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2">
-      <c r="B218" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="219" spans="2:2">
+        <v>425</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6">
+      <c r="B217" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6">
+      <c r="B218" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6">
       <c r="B219" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="220" spans="2:2">
-      <c r="B220" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="221" spans="2:2">
-      <c r="B221" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="222" spans="2:2">
+        <v>431</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6">
+      <c r="B220" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6">
+      <c r="B221" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6">
       <c r="B222" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="3" t="s">
-        <v>374</v>
+        <v>437</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="10">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="4" t="s">
+        <v>439</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="225" spans="2:2">
+        <v>440</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6">
       <c r="B225" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="226" spans="2:2">
+        <v>442</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6">
       <c r="B226" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="227" spans="2:2">
-      <c r="B227" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="228" spans="2:2">
-      <c r="B228" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="229" spans="2:2">
+        <v>444</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6">
+      <c r="B227" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C227" s="2">
+        <v>1</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6">
+      <c r="B228" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C228" s="2">
+        <v>1</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6">
       <c r="B229" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="230" spans="2:2">
+        <v>450</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6">
       <c r="B230" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="231" spans="2:2">
+        <v>452</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6">
       <c r="B231" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="232" spans="2:2">
-      <c r="B232" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="233" spans="2:2">
+        <v>454</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6">
+      <c r="B232" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C232" s="2">
+        <v>1</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6">
       <c r="B233" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="234" spans="2:2">
-      <c r="B234" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="235" spans="2:2">
+        <v>458</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6">
+      <c r="B234" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C234" s="2">
+        <v>1</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6">
       <c r="B235" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="236" spans="2:2">
-      <c r="B236" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="237" spans="2:2">
+        <v>462</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6">
+      <c r="B236" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C236" s="2">
+        <v>1</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6">
       <c r="B237" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="238" spans="2:2">
+        <v>466</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6">
       <c r="B238" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="239" spans="2:2">
-      <c r="B239" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="240" spans="2:2">
-      <c r="B240" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="241" spans="2:2">
-      <c r="B241" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="242" spans="2:2">
+        <v>468</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6">
+      <c r="B239" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C239" s="2">
+        <v>1</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6">
+      <c r="B240" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C240" s="2">
+        <v>1</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6">
+      <c r="B241" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C241" s="2">
+        <v>1</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6">
       <c r="B242" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="243" spans="2:2">
-      <c r="B243" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="244" spans="2:2">
-      <c r="B244" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="245" spans="2:2">
+        <v>476</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6">
+      <c r="B243" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C243" s="2">
+        <v>1</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6">
+      <c r="B244" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C244" s="2">
+        <v>1</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6">
       <c r="B245" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="246" spans="2:2">
+        <v>482</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6">
       <c r="B246" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="247" spans="2:2">
-      <c r="B247" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="248" spans="2:2">
-      <c r="B248" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="249" spans="2:2">
-      <c r="B249" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="250" spans="2:2">
-      <c r="B250" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="251" spans="2:2">
-      <c r="B251" s="2" t="s">
-        <v>402</v>
+        <v>484</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6">
+      <c r="B247" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C247" s="2">
+        <v>1</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6">
+      <c r="B248" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C248" s="2">
+        <v>1</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6">
+      <c r="B249" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C249" s="2">
+        <v>1</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6">
+      <c r="B250" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C250" s="2">
+        <v>1</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6">
+      <c r="B251" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C251" s="2">
+        <v>1</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2">
+      <c r="B279" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2">
+      <c r="B285" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2">
+      <c r="B287" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2">
+      <c r="B289" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2">
+      <c r="B291" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2">
+      <c r="B294" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2">
+      <c r="B295" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2">
+      <c r="B296" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2">
+      <c r="B301" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2">
+      <c r="B302" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2">
+      <c r="B303" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2">
+      <c r="B304" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" s="2" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -4148,56 +5717,531 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:D12"/>
+  <dimension ref="A2:D90"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection pane="topRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="23.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="64.375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
     <row r="3" spans="2:4">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4">
-        <v>2</v>
+      <c r="B3" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="4:4">
-      <c r="D7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="4:4">
-      <c r="D9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="4:4">
-      <c r="D12">
-        <v>8</v>
+      <c r="B5" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>634</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="1" t="s">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D12">
-    <extLst/>
-  </autoFilter>
   <sortState ref="B3:B5">
     <sortCondition ref="B3"/>
   </sortState>
@@ -4205,4 +6249,155 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:B24"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>693</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23985" windowHeight="17070" activeTab="2"/>
+    <workbookView windowWidth="21030" windowHeight="17070"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="usual" sheetId="1" r:id="rId1"/>
+    <sheet name="basic" sheetId="2" r:id="rId2"/>
+    <sheet name="ver" sheetId="3" r:id="rId3"/>
+    <sheet name="other" sheetId="4" r:id="rId4"/>
+    <sheet name="sentence" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$251</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$D$1:$D$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">usual!$C$1:$C$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">basic!$D$1:$D$12</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="695">
   <si>
     <t>同义词</t>
   </si>
@@ -1112,273 +1113,732 @@
     <t>choke</t>
   </si>
   <si>
+    <t>The girl choked to death after breathing in smoke.</t>
+  </si>
+  <si>
     <t>chop</t>
   </si>
   <si>
+    <t>Chop the butter into small pieces.</t>
+  </si>
+  <si>
     <t>claim</t>
   </si>
   <si>
+    <t>He claimed that it was all a conspiracy against him.</t>
+  </si>
+  <si>
     <t>bore</t>
   </si>
   <si>
+    <t>Dickie bored him all through the meal with stories of the navy.</t>
+  </si>
+  <si>
     <t>bother</t>
   </si>
   <si>
+    <t>Is something bothering you?</t>
+  </si>
+  <si>
     <t>acute</t>
   </si>
   <si>
+    <t>The war has aggravated an acute economic crisis.</t>
+  </si>
+  <si>
     <t>despise</t>
   </si>
   <si>
+    <t>As to you, I despise you.</t>
+  </si>
+  <si>
     <t>despite</t>
   </si>
   <si>
+    <t>I failed the test despite studying all night.</t>
+  </si>
+  <si>
     <t>engage</t>
   </si>
   <si>
+    <t>I have never engaged in drug trafficking.</t>
+  </si>
+  <si>
     <t>folk</t>
   </si>
   <si>
+    <t>A variety of music including classical and folk.</t>
+  </si>
+  <si>
     <t>forge</t>
   </si>
   <si>
+    <t>They used forged documents to leave the country.</t>
+  </si>
+  <si>
     <t>grim</t>
   </si>
   <si>
+    <t>They painted a grim picture of growing crime.</t>
+  </si>
+  <si>
     <t>grasp</t>
   </si>
   <si>
+    <t>He grasped both my hands.</t>
+  </si>
+  <si>
     <t>grip</t>
   </si>
   <si>
+    <t>She gripped the rope.</t>
+  </si>
+  <si>
     <t>gross</t>
   </si>
   <si>
+    <t>He abused the Admiral in the grossest terms.</t>
+  </si>
+  <si>
     <t>incorporate</t>
   </si>
   <si>
+    <t>The new cars will incorporate a number of major improvements.</t>
+  </si>
+  <si>
     <t>incur</t>
   </si>
   <si>
+    <t>The government had also incurred huge debts.</t>
+  </si>
+  <si>
     <t>literally</t>
   </si>
   <si>
+    <t>The word "volk" translates literally as "folk".</t>
+  </si>
+  <si>
     <t>mention</t>
   </si>
   <si>
+    <t>She did not mention her mother's absence.</t>
+  </si>
+  <si>
     <t>outcome</t>
   </si>
   <si>
+    <t>It's too early to know the outcome of her illness.</t>
+  </si>
+  <si>
     <t>signify</t>
   </si>
   <si>
+    <t>These were not the only changes that signified the end of boyhood.</t>
+  </si>
+  <si>
     <t>slack</t>
   </si>
   <si>
+    <t>If someone slacks off, Bill comes down hard.</t>
+  </si>
+  <si>
     <t>Unit 12</t>
   </si>
   <si>
     <t>admire</t>
   </si>
   <si>
+    <t>He admired the way she had copod with life.</t>
+  </si>
+  <si>
     <t>admit</t>
   </si>
   <si>
+    <t>I am willing to admit that I do make mistake.</t>
+  </si>
+  <si>
     <t>brace</t>
   </si>
   <si>
+    <t>He braced himself for the icy plunge into the black water.</t>
+  </si>
+  <si>
     <t>toss</t>
   </si>
   <si>
+    <t>Just toss it in the rubbish.</t>
+  </si>
+  <si>
     <t>vicious</t>
   </si>
   <si>
+    <t>He was a cruel and vicious man.</t>
+  </si>
+  <si>
     <t>cling</t>
   </si>
   <si>
+    <t>Another man was rescued as he clung to the riverbank.</t>
+  </si>
+  <si>
     <t>closet</t>
   </si>
   <si>
+    <t>The boots belong in the closet.</t>
+  </si>
+  <si>
     <t>personnel</t>
   </si>
   <si>
+    <t>Job seekers should apply at the personnel office.</t>
+  </si>
+  <si>
     <t>former</t>
   </si>
   <si>
+    <t>The unemployed executives include former sales managers.</t>
+  </si>
+  <si>
     <t>formidable</t>
   </si>
   <si>
+    <t>We have a formidable task ahead of us.</t>
+  </si>
+  <si>
     <t>formulate</t>
   </si>
   <si>
+    <t>I was impressed by the way he could formulate his ideas.</t>
+  </si>
+  <si>
     <t>fortunate</t>
   </si>
   <si>
+    <t>He was extremely fortunate to survice.</t>
+  </si>
+  <si>
     <t>fortune</t>
   </si>
   <si>
+    <t>He made a small fortune in the property boom.</t>
+  </si>
+  <si>
     <t>recruit</t>
   </si>
   <si>
+    <t>The police are trying to recruit more black and Hispanic officers.</t>
+  </si>
+  <si>
     <t>soak</t>
   </si>
   <si>
+    <t>Soak the beans for 2 hours.</t>
+  </si>
+  <si>
     <t>detain</t>
   </si>
   <si>
+    <t>Police have detained two suspects in connection with the attack.</t>
+  </si>
+  <si>
     <t>Unit 13</t>
   </si>
   <si>
     <t>shade</t>
   </si>
   <si>
+    <t>The walls were painted in two shades of green.</t>
+  </si>
+  <si>
     <t>sour</t>
   </si>
   <si>
+    <t>The stewed apple was sour even with honey.</t>
+  </si>
+  <si>
     <t>advise</t>
   </si>
   <si>
+    <t>The minister advised him to leave as soon as possible.</t>
+  </si>
+  <si>
     <t>advocate</t>
   </si>
   <si>
+    <t>He was a strong advocate of free market polities and a multi-party system.</t>
+  </si>
+  <si>
     <t>affair</t>
   </si>
   <si>
+    <t>THe administration has mishandled the whole affair.</t>
+  </si>
+  <si>
     <t>affect</t>
   </si>
   <si>
+    <t>More than seven million people have been affected by drought.</t>
+  </si>
+  <si>
     <t>affection</t>
   </si>
   <si>
+    <t>She thought of him with affection.</t>
+  </si>
+  <si>
     <t>affiliate</t>
   </si>
   <si>
+    <t>The World Chess Federation has affiliates in around 120 countries.</t>
+  </si>
+  <si>
     <t>affirm</t>
   </si>
   <si>
+    <t>Everything I had accomplished seems to affirm that opinion.</t>
+  </si>
+  <si>
     <t>afford</t>
   </si>
   <si>
+    <t>My parents can't even afford a new refrigerator.</t>
+  </si>
+  <si>
     <t>breach</t>
   </si>
   <si>
+    <t>The newspaper breached the code of conduct on privacy.</t>
+  </si>
+  <si>
     <t>breed</t>
   </si>
   <si>
+    <t>He lived alone, breeding horses and dogs.</t>
+  </si>
+  <si>
     <t>coincide</t>
   </si>
   <si>
+    <t>The exhibition coincides with the 50th anniversary of his death.</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>He collapsed following a vigorous exericse session at his home.</t>
+  </si>
+  <si>
     <t>commend</t>
   </si>
   <si>
+    <t>I commended her for that action.</t>
+  </si>
+  <si>
     <t>commerce</t>
   </si>
   <si>
+    <t>They have made their fortune from industry and commerce.</t>
+  </si>
+  <si>
     <t>commission</t>
   </si>
   <si>
+    <t>You can commission them to paint something especially for you.</t>
+  </si>
+  <si>
     <t>commodity</t>
   </si>
   <si>
+    <t>Prices went up on several basic commodities like bread and meat.</t>
+  </si>
+  <si>
     <t>communism</t>
   </si>
   <si>
+    <t>The ultimate triumph of communism in the world.</t>
+  </si>
+  <si>
     <t>deteriorate</t>
   </si>
   <si>
+    <t>There are fears that the situation might deteriorate into full-scale war.</t>
+  </si>
+  <si>
     <t>entail</t>
   </si>
   <si>
+    <t>Such a decision would entail a huge political risk in the midst of the presidential campain.</t>
+  </si>
+  <si>
     <t>indeed</t>
   </si>
   <si>
+    <t>Did you know him?  --"I did indeed."</t>
+  </si>
+  <si>
     <t>merely</t>
   </si>
   <si>
+    <t>Michael is now merely a good friend.</t>
+  </si>
+  <si>
     <t>plausible</t>
   </si>
   <si>
+    <t>All I can say is that he was so plausible it wasn't just me that he conned.</t>
+  </si>
+  <si>
     <t>plea</t>
   </si>
   <si>
+    <t>We will enter a plea of not guilty.</t>
+  </si>
+  <si>
     <t>plead</t>
   </si>
   <si>
+    <t>The lady pleaded with her daughter to come back home.</t>
+  </si>
+  <si>
     <t>poll</t>
   </si>
   <si>
+    <t>Polls show that the European treatly has gained support in Denmark.</t>
+  </si>
+  <si>
     <t>ponder</t>
   </si>
   <si>
+    <t>He pondered over the difficult involved.</t>
+  </si>
+  <si>
+    <t>Unit 14</t>
+  </si>
+  <si>
+    <t>brisk</t>
+  </si>
+  <si>
+    <t>brief</t>
+  </si>
+  <si>
+    <t>brittle</t>
+  </si>
+  <si>
+    <t>aggravate</t>
+  </si>
+  <si>
+    <t>aggressive</t>
+  </si>
+  <si>
+    <t>agitate</t>
+  </si>
+  <si>
+    <t>aliente</t>
+  </si>
+  <si>
+    <t>compel</t>
+  </si>
+  <si>
+    <t>compensate</t>
+  </si>
+  <si>
+    <t>competent</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>complement</t>
+  </si>
+  <si>
+    <t>comply</t>
+  </si>
+  <si>
+    <t>compliment</t>
+  </si>
+  <si>
+    <t>emphasis</t>
+  </si>
+  <si>
+    <t>endeavor</t>
+  </si>
+  <si>
+    <t>endorse</t>
+  </si>
+  <si>
+    <t>indicate</t>
+  </si>
+  <si>
+    <t>outrage</t>
+  </si>
+  <si>
+    <t>outset</t>
+  </si>
+  <si>
+    <t>outward</t>
+  </si>
+  <si>
+    <t>speculate</t>
+  </si>
+  <si>
+    <t>Unit 15</t>
+  </si>
+  <si>
+    <t>consist</t>
+  </si>
+  <si>
+    <t>consistent</t>
+  </si>
+  <si>
+    <t>constituent</t>
+  </si>
+  <si>
+    <t>constitute</t>
+  </si>
+  <si>
+    <t>constrain</t>
+  </si>
+  <si>
+    <t>overlook</t>
+  </si>
+  <si>
+    <t>fruitful</t>
+  </si>
+  <si>
+    <t>frustrate</t>
+  </si>
+  <si>
+    <t>fulfill</t>
+  </si>
+  <si>
+    <t>anguish</t>
+  </si>
+  <si>
+    <t>monopoly</t>
+  </si>
+  <si>
+    <t>monotonous</t>
+  </si>
+  <si>
+    <t>mood</t>
+  </si>
+  <si>
+    <t>transmission</t>
+  </si>
+  <si>
+    <t>transplant</t>
+  </si>
+  <si>
+    <t>stride</t>
+  </si>
+  <si>
+    <t>striking</t>
+  </si>
+  <si>
+    <t>stun</t>
+  </si>
+  <si>
+    <t>principal</t>
+  </si>
+  <si>
+    <t>psychiatry</t>
+  </si>
+  <si>
+    <t>innocent</t>
+  </si>
+  <si>
+    <t>Unit 16</t>
+  </si>
+  <si>
+    <t>possess</t>
+  </si>
+  <si>
+    <t>dilute</t>
+  </si>
+  <si>
+    <t>diminish</t>
+  </si>
+  <si>
+    <t>compromise</t>
+  </si>
+  <si>
+    <t>conceive</t>
+  </si>
+  <si>
+    <t>concentrate</t>
+  </si>
+  <si>
+    <t>concise</t>
+  </si>
+  <si>
+    <t>conclude</t>
+  </si>
+  <si>
+    <t>confer</t>
+  </si>
+  <si>
+    <t>confess</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>indignant</t>
+  </si>
+  <si>
+    <t>indispensable</t>
+  </si>
+  <si>
+    <t>mess</t>
+  </si>
+  <si>
+    <t>militant</t>
+  </si>
+  <si>
+    <t>redeem</t>
+  </si>
+  <si>
+    <t>reduction</t>
+  </si>
+  <si>
+    <t>spur</t>
+  </si>
+  <si>
     <t>tidy</t>
   </si>
   <si>
+    <t>I'm very impressed by your tidiness and order.</t>
+  </si>
+  <si>
     <t>tilt</t>
   </si>
   <si>
+    <t>She tilted the mirror and began to comb her hair.</t>
+  </si>
+  <si>
     <t>weed</t>
   </si>
   <si>
+    <t>Caspar was weeding the garden.</t>
+  </si>
+  <si>
     <t>weep</t>
   </si>
   <si>
+    <t>She wanted to laugh and weep all at once.</t>
+  </si>
+  <si>
     <t>anecdote</t>
   </si>
   <si>
-    <t>batray</t>
+    <t>Peter was telling them an anecdote about their mother.</t>
+  </si>
+  <si>
+    <t>betray</t>
+  </si>
+  <si>
+    <t>They offered me money if I would betray my associate.</t>
   </si>
   <si>
     <t>beware</t>
   </si>
   <si>
+    <t>Beware of beging too impatient with others.</t>
+  </si>
+  <si>
     <t>bewilder</t>
   </si>
   <si>
+    <t>The silence from Alex had hurt and bewildered her.</t>
+  </si>
+  <si>
     <t>clutch</t>
   </si>
   <si>
+    <t>I staggered and had to cluth at a chair for support.</t>
+  </si>
+  <si>
     <t>desolate</t>
   </si>
   <si>
+    <t>He was desolate without her.</t>
+  </si>
+  <si>
     <t>despair</t>
   </si>
   <si>
+    <t>I looked at my wife in despair.</t>
+  </si>
+  <si>
     <t>desperate</t>
   </si>
   <si>
+    <t>He was a boy who desperately needed affection.</t>
+  </si>
+  <si>
     <t>enormous</t>
   </si>
   <si>
+    <t>The main bedroom is enormous.</t>
+  </si>
+  <si>
     <t>enroll</t>
   </si>
   <si>
+    <t>The school will enroll new students in August.</t>
+  </si>
+  <si>
     <t>fiscal</t>
   </si>
   <si>
+    <t>This is not quite an act of fiscal unification.</t>
+  </si>
+  <si>
     <t>innumerable</t>
   </si>
   <si>
+    <t>He has invented innumberable excusses, told endless lies.</t>
+  </si>
+  <si>
     <t>inquiry/enquiry</t>
   </si>
   <si>
+    <t>The investigation has suddenly switched to a new line of inquiry.</t>
+  </si>
+  <si>
     <t>lest</t>
   </si>
   <si>
+    <t>I was afraided to open the door lest he should follow me.</t>
+  </si>
+  <si>
     <t>poke</t>
   </si>
   <si>
+    <t>Lindy poked him in the ribs.</t>
+  </si>
+  <si>
     <t>pole</t>
   </si>
   <si>
+    <t>The truct crashed into a telegraph pole.</t>
+  </si>
+  <si>
     <t>pollute</t>
   </si>
   <si>
+    <t>Heavy industry pollutes our rivers with noxious chemicals.</t>
+  </si>
+  <si>
     <t>greedy</t>
   </si>
   <si>
+    <t>There is no peace where men are greedy.</t>
+  </si>
+  <si>
     <t>snap</t>
   </si>
   <si>
@@ -1644,6 +2104,9 @@
   </si>
   <si>
     <t xml:space="preserve">be interested in </t>
+  </si>
+  <si>
+    <t>cert</t>
   </si>
 </sst>
 </file>
@@ -1652,9 +2115,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1692,16 +2155,59 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1709,7 +2215,37 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1732,39 +2268,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1777,60 +2291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1851,31 +2314,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1893,67 +2344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1965,7 +2362,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1983,13 +2386,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2001,37 +2494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2046,15 +2509,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2065,6 +2552,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2090,55 +2592,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2150,10 +2613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2162,138 +2625,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2318,6 +2784,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2639,2038 +3108,2605 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G251"/>
+  <dimension ref="A1:G316"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="B316" sqref="B316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="20.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.14166666666667" style="3"/>
-    <col min="2" max="2" width="22.4666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="76" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.14166666666667" style="4"/>
+    <col min="2" max="2" width="22.4666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="77.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:6">
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="5">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="5">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="5">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="5">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="C50" s="6">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="5">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1" t="s">
+      <c r="C57" s="6">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="5">
-        <v>1</v>
-      </c>
-      <c r="F60" s="1" t="s">
+      <c r="C60" s="6">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="5">
-        <v>1</v>
-      </c>
-      <c r="F63" s="1" t="s">
+      <c r="C63" s="6">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="5">
-        <v>1</v>
-      </c>
-      <c r="F64" s="1" t="s">
+      <c r="C64" s="6">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="5">
-        <v>1</v>
-      </c>
-      <c r="F69" s="1" t="s">
+      <c r="C69" s="6">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="5">
-        <v>1</v>
-      </c>
-      <c r="F71" s="1" t="s">
+      <c r="C71" s="6">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="5">
-        <v>1</v>
-      </c>
-      <c r="F72" s="1" t="s">
+      <c r="C72" s="6">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C77" s="5">
-        <v>1</v>
-      </c>
-      <c r="F77" s="1" t="s">
+      <c r="C77" s="6">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="5">
-        <v>1</v>
-      </c>
-      <c r="F78" s="1" t="s">
+      <c r="C78" s="6">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C79" s="5">
-        <v>1</v>
-      </c>
-      <c r="F79" s="1" t="s">
+      <c r="C79" s="6">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C80" s="5">
-        <v>1</v>
-      </c>
-      <c r="F80" s="1" t="s">
+      <c r="C80" s="6">
+        <v>1</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C81" s="5">
-        <v>1</v>
-      </c>
-      <c r="F81" s="1" t="s">
+      <c r="C81" s="6">
+        <v>1</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C84" s="5">
-        <v>1</v>
-      </c>
-      <c r="F84" s="1" t="s">
+      <c r="C84" s="6">
+        <v>1</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="7"/>
-      <c r="B85" s="8" t="s">
+      <c r="A85" s="8"/>
+      <c r="B85" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="5">
-        <v>1</v>
-      </c>
-      <c r="F85" s="1" t="s">
+      <c r="C85" s="6">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="7"/>
-      <c r="B86" s="8" t="s">
+      <c r="A86" s="8"/>
+      <c r="B86" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C86" s="5">
-        <v>1</v>
-      </c>
-      <c r="F86" s="1" t="s">
+      <c r="C86" s="6">
+        <v>1</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="7"/>
-      <c r="B87" s="5" t="s">
+      <c r="A87" s="8"/>
+      <c r="B87" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C87" s="5"/>
-      <c r="F87" s="1" t="s">
+      <c r="C87" s="6"/>
+      <c r="F87" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="7"/>
-      <c r="B88" s="5" t="s">
+      <c r="A88" s="8"/>
+      <c r="B88" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C88" s="5"/>
-      <c r="F88" s="1" t="s">
+      <c r="C88" s="6"/>
+      <c r="F88" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="7"/>
-      <c r="B89" s="5" t="s">
+      <c r="A89" s="8"/>
+      <c r="B89" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C89" s="5"/>
-      <c r="F89" s="1" t="s">
+      <c r="C89" s="6"/>
+      <c r="F89" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="7"/>
-      <c r="B90" s="8" t="s">
+      <c r="A90" s="8"/>
+      <c r="B90" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C90" s="5">
-        <v>1</v>
-      </c>
-      <c r="F90" s="1" t="s">
+      <c r="C90" s="6">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="7"/>
-      <c r="B91" s="5" t="s">
+      <c r="A91" s="8"/>
+      <c r="B91" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C91" s="5"/>
-      <c r="F91" s="1" t="s">
+      <c r="C91" s="6"/>
+      <c r="F91" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="7"/>
-      <c r="B92" s="5" t="s">
+      <c r="A92" s="8"/>
+      <c r="B92" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C92" s="5"/>
-      <c r="F92" s="1" t="s">
+      <c r="C92" s="6"/>
+      <c r="F92" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="7"/>
-      <c r="B93" s="5" t="s">
+      <c r="A93" s="8"/>
+      <c r="B93" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="F93" s="1" t="s">
+      <c r="C93" s="6"/>
+      <c r="F93" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="7"/>
-      <c r="B94" s="5" t="s">
+      <c r="A94" s="8"/>
+      <c r="B94" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C94" s="5"/>
-      <c r="F94" s="1" t="s">
+      <c r="C94" s="6"/>
+      <c r="F94" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="7"/>
-      <c r="B95" s="8" t="s">
+      <c r="A95" s="8"/>
+      <c r="B95" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C95" s="5">
-        <v>1</v>
-      </c>
-      <c r="F95" s="1" t="s">
+      <c r="C95" s="6">
+        <v>1</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="7"/>
-      <c r="B96" s="5" t="s">
+      <c r="A96" s="8"/>
+      <c r="B96" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C96" s="5"/>
-      <c r="F96" s="1" t="s">
+      <c r="C96" s="6"/>
+      <c r="F96" s="2" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="7"/>
-      <c r="B97" s="8" t="s">
+      <c r="A97" s="8"/>
+      <c r="B97" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C97" s="5">
-        <v>1</v>
-      </c>
-      <c r="F97" s="1" t="s">
+      <c r="C97" s="6">
+        <v>1</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="7"/>
-      <c r="B98" s="5" t="s">
+      <c r="A98" s="8"/>
+      <c r="B98" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C98" s="5"/>
-      <c r="F98" s="1" t="s">
+      <c r="C98" s="6"/>
+      <c r="F98" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="7"/>
-      <c r="B99" s="8" t="s">
+      <c r="A99" s="8"/>
+      <c r="B99" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C99" s="5">
-        <v>1</v>
-      </c>
-      <c r="F99" s="1" t="s">
+      <c r="C99" s="6">
+        <v>1</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="7"/>
-      <c r="B100" s="5" t="s">
+      <c r="A100" s="8"/>
+      <c r="B100" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C100" s="5"/>
-      <c r="F100" s="1" t="s">
+      <c r="C100" s="6"/>
+      <c r="F100" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="7"/>
-      <c r="B101" s="8" t="s">
+      <c r="A101" s="8"/>
+      <c r="B101" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="5">
-        <v>1</v>
-      </c>
-      <c r="F101" s="1" t="s">
+      <c r="C101" s="6">
+        <v>1</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="7"/>
-      <c r="B102" s="8" t="s">
+      <c r="A102" s="8"/>
+      <c r="B102" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C102" s="5">
-        <v>1</v>
-      </c>
-      <c r="F102" s="1" t="s">
+      <c r="C102" s="6">
+        <v>1</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="7"/>
-      <c r="B103" s="5" t="s">
+      <c r="A103" s="8"/>
+      <c r="B103" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C103" s="5"/>
-      <c r="F103" s="1" t="s">
+      <c r="C103" s="6"/>
+      <c r="F103" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="7"/>
-      <c r="B104" s="8" t="s">
+      <c r="A104" s="8"/>
+      <c r="B104" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C104" s="5">
-        <v>1</v>
-      </c>
-      <c r="F104" s="1" t="s">
+      <c r="C104" s="6">
+        <v>1</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="7"/>
-      <c r="B105" s="8" t="s">
+      <c r="A105" s="8"/>
+      <c r="B105" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C105" s="5">
-        <v>1</v>
-      </c>
-      <c r="F105" s="1" t="s">
+      <c r="C105" s="6">
+        <v>1</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="7"/>
-      <c r="B106" s="8" t="s">
+      <c r="A106" s="8"/>
+      <c r="B106" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C106" s="5">
-        <v>1</v>
-      </c>
-      <c r="F106" s="1" t="s">
+      <c r="C106" s="6">
+        <v>1</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="7"/>
-      <c r="B107" s="5" t="s">
+      <c r="A107" s="8"/>
+      <c r="B107" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C107" s="5"/>
-      <c r="F107" s="1" t="s">
+      <c r="C107" s="6"/>
+      <c r="F107" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="7"/>
-      <c r="B108" s="8" t="s">
+      <c r="A108" s="8"/>
+      <c r="B108" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C108" s="5">
-        <v>1</v>
-      </c>
-      <c r="F108" s="1" t="s">
+      <c r="C108" s="6">
+        <v>1</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C110" s="5">
-        <v>1</v>
-      </c>
-      <c r="F110" s="1" t="s">
+      <c r="C110" s="6">
+        <v>1</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="7"/>
-      <c r="B111" s="8" t="s">
+      <c r="A111" s="8"/>
+      <c r="B111" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C111" s="5">
-        <v>1</v>
-      </c>
-      <c r="F111" s="1" t="s">
+      <c r="C111" s="6">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="7"/>
-      <c r="B112" s="8" t="s">
+      <c r="A112" s="8"/>
+      <c r="B112" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C112" s="5">
-        <v>1</v>
-      </c>
-      <c r="F112" s="1" t="s">
+      <c r="C112" s="6">
+        <v>1</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="7"/>
-      <c r="B113" s="8" t="s">
+      <c r="A113" s="8"/>
+      <c r="B113" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C113" s="5">
-        <v>1</v>
-      </c>
-      <c r="F113" s="1" t="s">
+      <c r="C113" s="6">
+        <v>1</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="7"/>
-      <c r="B114" s="5" t="s">
+      <c r="A114" s="8"/>
+      <c r="B114" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C114" s="5"/>
-      <c r="F114" s="1" t="s">
+      <c r="C114" s="6"/>
+      <c r="F114" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="7"/>
-      <c r="B115" s="5" t="s">
+      <c r="A115" s="8"/>
+      <c r="B115" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C115" s="5"/>
-      <c r="F115" s="1" t="s">
+      <c r="C115" s="6"/>
+      <c r="F115" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="7"/>
-      <c r="B116" s="5" t="s">
+      <c r="A116" s="8"/>
+      <c r="B116" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C116" s="5"/>
-      <c r="F116" s="1" t="s">
+      <c r="C116" s="6"/>
+      <c r="F116" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="7"/>
-      <c r="B117" s="5" t="s">
+      <c r="A117" s="8"/>
+      <c r="B117" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C117" s="5"/>
-      <c r="F117" s="1" t="s">
+      <c r="C117" s="6"/>
+      <c r="F117" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="7"/>
-      <c r="B118" s="5" t="s">
+      <c r="A118" s="8"/>
+      <c r="B118" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C118" s="5"/>
-      <c r="F118" s="1" t="s">
+      <c r="C118" s="6"/>
+      <c r="F118" s="2" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="7"/>
-      <c r="B119" s="5" t="s">
+      <c r="A119" s="8"/>
+      <c r="B119" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C119" s="5"/>
+      <c r="C119" s="6"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="7"/>
-      <c r="B120" s="5" t="s">
+      <c r="A120" s="8"/>
+      <c r="B120" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C120" s="5"/>
-      <c r="F120" s="1" t="s">
+      <c r="C120" s="6"/>
+      <c r="F120" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="7"/>
-      <c r="B121" s="8" t="s">
+      <c r="A121" s="8"/>
+      <c r="B121" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C121" s="5">
-        <v>1</v>
-      </c>
-      <c r="F121" s="1" t="s">
+      <c r="C121" s="6">
+        <v>1</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="7"/>
-      <c r="B122" s="8" t="s">
+      <c r="A122" s="8"/>
+      <c r="B122" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C122" s="5">
-        <v>1</v>
-      </c>
-      <c r="F122" s="1" t="s">
+      <c r="C122" s="6">
+        <v>1</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="7"/>
-      <c r="B123" s="5" t="s">
+      <c r="A123" s="8"/>
+      <c r="B123" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C123" s="5"/>
-      <c r="F123" s="1" t="s">
+      <c r="C123" s="6"/>
+      <c r="F123" s="2" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="7"/>
-      <c r="B124" s="5" t="s">
+      <c r="A124" s="8"/>
+      <c r="B124" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C124" s="5"/>
-      <c r="F124" s="1" t="s">
+      <c r="C124" s="6"/>
+      <c r="F124" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="7"/>
-      <c r="B125" s="5" t="s">
+      <c r="A125" s="8"/>
+      <c r="B125" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C125" s="5"/>
-      <c r="F125" s="1" t="s">
+      <c r="C125" s="6"/>
+      <c r="F125" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="7"/>
-      <c r="B126" s="5" t="s">
+      <c r="A126" s="8"/>
+      <c r="B126" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C126" s="5"/>
-      <c r="F126" s="1" t="s">
+      <c r="C126" s="6"/>
+      <c r="F126" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="7"/>
-      <c r="B127" s="8" t="s">
+      <c r="A127" s="8"/>
+      <c r="B127" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C127" s="5">
-        <v>1</v>
-      </c>
-      <c r="F127" s="1" t="s">
+      <c r="C127" s="6">
+        <v>1</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="7"/>
-      <c r="B128" s="8" t="s">
+      <c r="A128" s="8"/>
+      <c r="B128" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C128" s="5">
-        <v>1</v>
-      </c>
-      <c r="F128" s="1" t="s">
+      <c r="C128" s="6">
+        <v>1</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="7"/>
-      <c r="B129" s="8" t="s">
+      <c r="A129" s="8"/>
+      <c r="B129" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C129" s="5">
-        <v>1</v>
-      </c>
-      <c r="F129" s="1" t="s">
+      <c r="C129" s="6">
+        <v>1</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="7"/>
-      <c r="B130" s="8" t="s">
+      <c r="A130" s="8"/>
+      <c r="B130" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C130" s="5">
-        <v>1</v>
-      </c>
-      <c r="F130" s="1" t="s">
+      <c r="C130" s="6">
+        <v>1</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="7"/>
-      <c r="B131" s="5" t="s">
+      <c r="A131" s="8"/>
+      <c r="B131" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C131" s="5"/>
-      <c r="F131" s="1" t="s">
+      <c r="C131" s="6"/>
+      <c r="F131" s="2" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C133" s="1">
-        <v>1</v>
-      </c>
-      <c r="F133" s="1" t="s">
+      <c r="C133" s="2">
+        <v>1</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="134" spans="2:6">
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C134" s="1">
-        <v>1</v>
-      </c>
-      <c r="F134" s="1" t="s">
+      <c r="C134" s="2">
+        <v>1</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="135" spans="2:6">
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C135" s="1">
-        <v>1</v>
-      </c>
-      <c r="F135" s="1" t="s">
+      <c r="C135" s="2">
+        <v>1</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="136" spans="2:6">
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F136" s="2" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="137" spans="2:6">
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F137" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="138" spans="2:6">
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="F138" s="2" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="F139" s="2" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="140" spans="2:6">
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C140" s="1">
-        <v>1</v>
-      </c>
-      <c r="F140" s="1" t="s">
+      <c r="C140" s="2">
+        <v>1</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="141" spans="2:6">
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="F141" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="142" spans="2:6">
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C142" s="1">
-        <v>1</v>
-      </c>
-      <c r="F142" s="1" t="s">
+      <c r="C142" s="2">
+        <v>1</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="143" spans="2:6">
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C143" s="1">
-        <v>1</v>
-      </c>
-      <c r="F143" s="1" t="s">
+      <c r="C143" s="2">
+        <v>1</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="144" spans="2:6">
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C144" s="1">
-        <v>1</v>
-      </c>
-      <c r="F144" s="1" t="s">
+      <c r="C144" s="2">
+        <v>1</v>
+      </c>
+      <c r="F144" s="2" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="145" spans="2:6">
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F145" s="2" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="146" spans="2:6">
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F146" s="2" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="147" spans="2:6">
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C147" s="1">
-        <v>1</v>
-      </c>
-      <c r="F147" s="1" t="s">
+      <c r="C147" s="2">
+        <v>1</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="148" spans="2:6">
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="F148" s="2" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="149" spans="2:6">
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="F149" s="2" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="150" spans="2:6">
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="F150" s="2" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="151" spans="2:6">
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C151" s="1">
-        <v>1</v>
-      </c>
-      <c r="F151" s="1" t="s">
+      <c r="C151" s="2">
+        <v>1</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="152" spans="2:6">
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C152" s="1">
-        <v>1</v>
-      </c>
-      <c r="F152" s="1" t="s">
+      <c r="C152" s="2">
+        <v>1</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="153" spans="2:6">
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C153" s="1">
-        <v>1</v>
-      </c>
-      <c r="F153" s="1" t="s">
+      <c r="C153" s="2">
+        <v>1</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="154" spans="2:6">
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="F154" s="2" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="F156" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="157" spans="2:6">
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="F157" s="2" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="158" spans="2:6">
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="F158" s="2" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="159" spans="2:6">
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="F159" s="2" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="160" spans="2:6">
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F160" s="2" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="161" spans="2:6">
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="F161" s="2" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="162" spans="2:6">
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="F162" s="1" t="s">
+      <c r="F162" s="2" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="163" spans="2:6">
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F163" s="1" t="s">
+      <c r="F163" s="2" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="164" spans="2:6">
-      <c r="B164" s="1" t="s">
+      <c r="B164" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F164" s="1" t="s">
+      <c r="F164" s="2" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="165" spans="2:6">
-      <c r="B165" s="1" t="s">
+      <c r="B165" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F165" s="1" t="s">
+      <c r="F165" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="166" spans="2:6">
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="F166" s="1" t="s">
+      <c r="F166" s="2" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="167" spans="2:6">
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="F167" s="2" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="168" spans="2:6">
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="F168" s="2" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="169" spans="2:6">
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="F169" s="2" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="170" spans="2:6">
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F170" s="1" t="s">
+      <c r="F170" s="2" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="171" spans="2:6">
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="F171" s="1" t="s">
+      <c r="F171" s="2" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="172" spans="2:6">
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F172" s="1" t="s">
+      <c r="F172" s="2" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="173" spans="2:6">
-      <c r="B173" s="1" t="s">
+      <c r="B173" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F173" s="1" t="s">
+      <c r="F173" s="2" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="174" spans="2:6">
-      <c r="B174" s="1" t="s">
+      <c r="B174" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F174" s="1" t="s">
+      <c r="F174" s="2" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="175" spans="2:6">
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F175" s="1" t="s">
+      <c r="F175" s="2" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="176" spans="2:6">
-      <c r="B176" s="1" t="s">
+      <c r="B176" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F176" s="1" t="s">
+      <c r="F176" s="2" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="177" spans="2:6">
-      <c r="B177" s="1" t="s">
+      <c r="B177" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F177" s="1" t="s">
+      <c r="F177" s="2" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="178" spans="2:6">
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F178" s="1" t="s">
+      <c r="F178" s="2" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="179" spans="2:6">
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="F179" s="1" t="s">
+      <c r="F179" s="2" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="180" spans="2:6">
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F180" s="1" t="s">
+      <c r="F180" s="2" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="181" spans="2:6">
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F181" s="1" t="s">
+      <c r="F181" s="2" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="182" spans="2:6">
-      <c r="B182" s="1" t="s">
+      <c r="B182" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F182" s="1" t="s">
+      <c r="F182" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="3" t="s">
+    <row r="184" spans="1:6">
+      <c r="A184" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="185" spans="2:2">
-      <c r="B185" s="1" t="s">
+      <c r="F184" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="186" spans="2:2">
-      <c r="B186" s="1" t="s">
+    <row r="185" spans="2:6">
+      <c r="B185" s="2" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="187" spans="2:2">
-      <c r="B187" s="1" t="s">
+      <c r="F185" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="188" spans="2:2">
-      <c r="B188" s="1" t="s">
+    <row r="186" spans="2:6">
+      <c r="B186" s="2" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="189" spans="2:2">
-      <c r="B189" s="1" t="s">
+      <c r="F186" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="190" spans="2:2">
-      <c r="B190" s="1" t="s">
+    <row r="187" spans="2:6">
+      <c r="B187" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="191" spans="2:2">
-      <c r="B191" s="1" t="s">
+      <c r="F187" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="192" spans="2:2">
-      <c r="B192" s="1" t="s">
+    <row r="188" spans="2:6">
+      <c r="B188" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="193" spans="2:2">
-      <c r="B193" s="1" t="s">
+      <c r="F188" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="194" spans="2:2">
-      <c r="B194" s="1" t="s">
+    <row r="189" spans="2:6">
+      <c r="B189" s="2" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="195" spans="2:2">
-      <c r="B195" s="1" t="s">
+      <c r="F189" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="196" spans="2:2">
-      <c r="B196" s="1" t="s">
+    <row r="190" spans="2:6">
+      <c r="B190" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="197" spans="2:2">
-      <c r="B197" s="1" t="s">
+      <c r="F190" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="198" spans="2:2">
-      <c r="B198" s="1" t="s">
+    <row r="191" spans="2:6">
+      <c r="B191" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="199" spans="2:2">
-      <c r="B199" s="1" t="s">
+      <c r="F191" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="200" spans="2:2">
-      <c r="B200" s="1" t="s">
+    <row r="192" spans="2:6">
+      <c r="B192" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="201" spans="2:2">
-      <c r="B201" s="1" t="s">
+      <c r="F192" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="202" spans="2:2">
-      <c r="B202" s="1" t="s">
+    <row r="193" spans="2:6">
+      <c r="B193" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="203" spans="2:2">
-      <c r="B203" s="1" t="s">
+      <c r="F193" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="204" spans="2:2">
-      <c r="B204" s="1" t="s">
+    <row r="194" spans="2:6">
+      <c r="B194" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="205" spans="2:2">
-      <c r="B205" s="1" t="s">
+      <c r="F194" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="3" t="s">
+    <row r="195" spans="2:6">
+      <c r="B195" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="F195" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="208" spans="2:2">
-      <c r="B208" s="1" t="s">
+    <row r="196" spans="2:6">
+      <c r="B196" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="209" spans="2:2">
-      <c r="B209" s="1" t="s">
+      <c r="F196" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="210" spans="2:2">
-      <c r="B210" s="1" t="s">
+    <row r="197" spans="2:6">
+      <c r="B197" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="211" spans="2:2">
-      <c r="B211" s="1" t="s">
+      <c r="F197" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="212" spans="2:2">
-      <c r="B212" s="1" t="s">
+    <row r="198" spans="2:6">
+      <c r="B198" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="213" spans="2:2">
-      <c r="B213" s="1" t="s">
+      <c r="F198" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="214" spans="2:2">
-      <c r="B214" s="1" t="s">
+    <row r="199" spans="2:6">
+      <c r="B199" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="215" spans="2:2">
-      <c r="B215" s="1" t="s">
+      <c r="F199" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="216" spans="2:2">
-      <c r="B216" s="1" t="s">
+    <row r="200" spans="2:6">
+      <c r="B200" s="2" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="217" spans="2:2">
-      <c r="B217" s="1" t="s">
+      <c r="F200" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="218" spans="2:2">
-      <c r="B218" s="1" t="s">
+    <row r="201" spans="2:6">
+      <c r="B201" s="2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="219" spans="2:2">
-      <c r="B219" s="1" t="s">
+      <c r="F201" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="220" spans="2:2">
-      <c r="B220" s="1" t="s">
+    <row r="202" spans="2:6">
+      <c r="B202" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="221" spans="2:2">
-      <c r="B221" s="1" t="s">
+      <c r="F202" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="222" spans="2:2">
-      <c r="B222" s="1" t="s">
+    <row r="203" spans="2:6">
+      <c r="B203" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="3" t="s">
+      <c r="F203" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B224" s="1" t="s">
+    </row>
+    <row r="204" spans="2:6">
+      <c r="B204" s="2" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="225" spans="2:2">
-      <c r="B225" s="1" t="s">
+      <c r="F204" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="226" spans="2:2">
-      <c r="B226" s="1" t="s">
+    <row r="205" spans="2:6">
+      <c r="B205" s="2" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="227" spans="2:2">
-      <c r="B227" s="1" t="s">
+      <c r="F205" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="228" spans="2:2">
-      <c r="B228" s="1" t="s">
+    <row r="207" spans="1:6">
+      <c r="A207" s="4" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="229" spans="2:2">
-      <c r="B229" s="1" t="s">
+      <c r="B207" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="230" spans="2:2">
-      <c r="B230" s="1" t="s">
+      <c r="F207" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="231" spans="2:2">
-      <c r="B231" s="1" t="s">
+    <row r="208" spans="2:6">
+      <c r="B208" s="5" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="232" spans="2:2">
-      <c r="B232" s="1" t="s">
+      <c r="F208" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="233" spans="2:2">
-      <c r="B233" s="1" t="s">
+    <row r="209" spans="2:6">
+      <c r="B209" s="2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="234" spans="2:2">
-      <c r="B234" s="1" t="s">
+      <c r="F209" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="235" spans="2:2">
-      <c r="B235" s="1" t="s">
+    <row r="210" spans="2:6">
+      <c r="B210" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="236" spans="2:2">
-      <c r="B236" s="1" t="s">
+      <c r="F210" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="237" spans="2:2">
-      <c r="B237" s="1" t="s">
+    <row r="211" spans="2:6">
+      <c r="B211" s="5" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="238" spans="2:2">
-      <c r="B238" s="1" t="s">
+      <c r="F211" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="239" spans="2:2">
-      <c r="B239" s="1" t="s">
+    <row r="212" spans="2:6">
+      <c r="B212" s="2" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="240" spans="2:2">
-      <c r="B240" s="1" t="s">
+      <c r="F212" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="241" spans="2:2">
-      <c r="B241" s="1" t="s">
+    <row r="213" spans="2:6">
+      <c r="B213" s="2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="242" spans="2:2">
-      <c r="B242" s="1" t="s">
+      <c r="F213" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="243" spans="2:2">
-      <c r="B243" s="1" t="s">
+    <row r="214" spans="2:6">
+      <c r="B214" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="244" spans="2:2">
-      <c r="B244" s="1" t="s">
+      <c r="F214" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="245" spans="2:2">
-      <c r="B245" s="1" t="s">
+    <row r="215" spans="2:6">
+      <c r="B215" s="2" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="246" spans="2:2">
-      <c r="B246" s="1" t="s">
+      <c r="F215" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="247" spans="2:2">
-      <c r="B247" s="1" t="s">
+    <row r="216" spans="2:6">
+      <c r="B216" s="2" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="248" spans="2:2">
-      <c r="B248" s="1" t="s">
+      <c r="F216" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="249" spans="2:2">
-      <c r="B249" s="1" t="s">
+    <row r="217" spans="2:6">
+      <c r="B217" s="5" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="250" spans="2:2">
-      <c r="B250" s="1" t="s">
+      <c r="F217" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="251" spans="2:2">
-      <c r="B251" s="1" t="s">
+    <row r="218" spans="2:6">
+      <c r="B218" s="5" t="s">
         <v>429</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6">
+      <c r="B219" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6">
+      <c r="B220" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6">
+      <c r="B221" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6">
+      <c r="B222" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="10">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6">
+      <c r="B225" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6">
+      <c r="B226" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6">
+      <c r="B227" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C227" s="2">
+        <v>1</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6">
+      <c r="B228" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C228" s="2">
+        <v>1</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6">
+      <c r="B229" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6">
+      <c r="B230" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6">
+      <c r="B231" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6">
+      <c r="B232" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C232" s="2">
+        <v>1</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6">
+      <c r="B233" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6">
+      <c r="B234" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C234" s="2">
+        <v>1</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6">
+      <c r="B235" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6">
+      <c r="B236" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C236" s="2">
+        <v>1</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6">
+      <c r="B237" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6">
+      <c r="B238" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6">
+      <c r="B239" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C239" s="2">
+        <v>1</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6">
+      <c r="B240" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C240" s="2">
+        <v>1</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6">
+      <c r="B241" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C241" s="2">
+        <v>1</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6">
+      <c r="B242" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6">
+      <c r="B243" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C243" s="2">
+        <v>1</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6">
+      <c r="B244" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C244" s="2">
+        <v>1</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6">
+      <c r="B245" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6">
+      <c r="B246" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6">
+      <c r="B247" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C247" s="2">
+        <v>1</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6">
+      <c r="B248" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C248" s="2">
+        <v>1</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6">
+      <c r="B249" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C249" s="2">
+        <v>1</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6">
+      <c r="B250" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C250" s="2">
+        <v>1</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6">
+      <c r="B251" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C251" s="2">
+        <v>1</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2">
+      <c r="B279" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2">
+      <c r="B285" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2">
+      <c r="B287" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2">
+      <c r="B289" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2">
+      <c r="B291" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2">
+      <c r="B294" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2">
+      <c r="B295" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2">
+      <c r="B296" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2">
+      <c r="B301" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2">
+      <c r="B302" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2">
+      <c r="B303" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2">
+      <c r="B304" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" s="2" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -4685,461 +5721,528 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B90"/>
+  <dimension ref="A2:D90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="23.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="64.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
+        <v>561</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
+        <v>563</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
+        <v>565</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
+        <v>567</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
+        <v>569</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
+        <v>571</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
+        <v>573</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
+        <v>575</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
+        <v>577</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
+        <v>579</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
       <c r="B12" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
+        <v>581</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
       <c r="B13" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
+        <v>583</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
       <c r="B14" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
+        <v>585</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
       <c r="B15" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
+        <v>587</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
       <c r="B16" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
+        <v>589</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
+        <v>591</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
+        <v>593</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
+        <v>595</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
+        <v>597</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
+        <v>599</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
       <c r="B22" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
+        <v>601</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
       <c r="B23" s="1" t="s">
-        <v>451</v>
+        <v>603</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>452</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
-        <v>453</v>
+        <v>606</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>454</v>
+        <v>607</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>455</v>
+        <v>608</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>456</v>
+        <v>609</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>457</v>
+        <v>610</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
-        <v>458</v>
+        <v>611</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>459</v>
+        <v>612</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>460</v>
+        <v>613</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>461</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>462</v>
+        <v>615</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
-        <v>463</v>
+        <v>616</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>464</v>
+        <v>617</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>465</v>
+        <v>618</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
-        <v>466</v>
+        <v>619</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
-        <v>467</v>
+        <v>620</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="1" t="s">
-        <v>468</v>
+        <v>621</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="1" t="s">
-        <v>469</v>
+        <v>622</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="1" t="s">
-        <v>470</v>
+        <v>623</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>471</v>
+        <v>624</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
-        <v>472</v>
+        <v>625</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="1" t="s">
-        <v>473</v>
+        <v>626</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="1" t="s">
-        <v>474</v>
+        <v>627</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="1" t="s">
-        <v>475</v>
+        <v>628</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>476</v>
+        <v>629</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="1" t="s">
-        <v>477</v>
+        <v>630</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="1" t="s">
-        <v>478</v>
+        <v>631</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>479</v>
+        <v>632</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="1" t="s">
-        <v>480</v>
+        <v>633</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>481</v>
+        <v>634</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>482</v>
+        <v>635</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="1" t="s">
-        <v>483</v>
+        <v>636</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="1" t="s">
-        <v>484</v>
+        <v>637</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="1" t="s">
-        <v>485</v>
+        <v>638</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="1" t="s">
-        <v>486</v>
+        <v>639</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="1" t="s">
-        <v>487</v>
+        <v>640</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="1" t="s">
-        <v>488</v>
+        <v>641</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="1" t="s">
-        <v>489</v>
+        <v>642</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="1" t="s">
-        <v>490</v>
+        <v>643</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="1" t="s">
-        <v>491</v>
+        <v>644</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="1" t="s">
-        <v>492</v>
+        <v>645</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="1" t="s">
-        <v>493</v>
+        <v>646</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="1" t="s">
-        <v>494</v>
+        <v>647</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="1" t="s">
-        <v>495</v>
+        <v>648</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="1" t="s">
-        <v>496</v>
+        <v>649</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="1" t="s">
-        <v>497</v>
+        <v>650</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="1" t="s">
-        <v>498</v>
+        <v>651</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="1" t="s">
-        <v>499</v>
+        <v>652</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="1" t="s">
-        <v>500</v>
+        <v>653</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="1" t="s">
-        <v>501</v>
+        <v>654</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="1" t="s">
-        <v>502</v>
+        <v>655</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="1" t="s">
-        <v>503</v>
+        <v>656</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="1" t="s">
-        <v>504</v>
+        <v>657</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="1" t="s">
-        <v>505</v>
+        <v>658</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="1" t="s">
-        <v>506</v>
+        <v>659</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="1" t="s">
-        <v>507</v>
+        <v>660</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="1" t="s">
-        <v>508</v>
+        <v>661</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="1" t="s">
-        <v>509</v>
+        <v>662</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="1" t="s">
-        <v>510</v>
+        <v>663</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="1" t="s">
-        <v>511</v>
+        <v>664</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="1" t="s">
-        <v>512</v>
+        <v>665</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="1" t="s">
-        <v>513</v>
+        <v>666</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="1" t="s">
-        <v>514</v>
+        <v>667</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="1" t="s">
-        <v>515</v>
+        <v>668</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="1" t="s">
-        <v>516</v>
+        <v>669</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="1" t="s">
-        <v>517</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -5157,8 +6260,8 @@
   <sheetPr/>
   <dimension ref="B2:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -5168,117 +6271,117 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>518</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>519</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>520</v>
+        <v>673</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>521</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>522</v>
+        <v>675</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>523</v>
+        <v>676</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>524</v>
+        <v>677</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>525</v>
+        <v>678</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>526</v>
+        <v>679</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>527</v>
+        <v>680</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>528</v>
+        <v>681</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>529</v>
+        <v>682</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>530</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>531</v>
+        <v>684</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>532</v>
+        <v>685</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>533</v>
+        <v>686</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>534</v>
+        <v>687</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>535</v>
+        <v>688</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>536</v>
+        <v>689</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>537</v>
+        <v>690</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>538</v>
+        <v>691</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>539</v>
+        <v>692</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>540</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -5288,6 +6391,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
